--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">DatasetTypeCV</t>
+    <t xml:space="preserve">DatasetType</t>
   </si>
   <si>
     <t xml:space="preserve">The nature or genre of the resource.</t>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/datasettype/?format=skos</t>
   </si>
   <si>
-    <t xml:space="preserve">DatasetsTitle</t>
+    <t xml:space="preserve">DatasetTitle</t>
   </si>
   <si>
     <t xml:space="preserve">The name identifying the data set from which the record was derived.</t>
@@ -368,9 +368,6 @@
     <t xml:space="preserve">measurementID</t>
   </si>
   <si>
-    <t xml:space="preserve">measurementTerm</t>
-  </si>
-  <si>
     <t xml:space="preserve">LongName</t>
   </si>
   <si>
@@ -1098,21 +1095,18 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">datasetName</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dataset Name</t>
   </si>
   <si>
-    <t xml:space="preserve">bibilographicCititation</t>
-  </si>
-  <si>
     <t xml:space="preserve">bibliographicCitation</t>
   </si>
   <si>
     <t xml:space="preserve">modified</t>
   </si>
   <si>
+    <t xml:space="preserve">DatasetOrginization</t>
+  </si>
+  <si>
     <t xml:space="preserve">InstitutionID</t>
   </si>
   <si>
@@ -1122,12 +1116,12 @@
     <t xml:space="preserve">Example) http://biocol.org/urn:lsid:biocol.org:col:34777, http://grbio.org/cool/km06-gtbn</t>
   </si>
   <si>
-    <t xml:space="preserve">institutionCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Institution Code</t>
   </si>
   <si>
+    <t xml:space="preserve">DatasetLink</t>
+  </si>
+  <si>
     <t xml:space="preserve">CollectionID</t>
   </si>
   <si>
@@ -1137,27 +1131,12 @@
     <t xml:space="preserve">Example) https://www.epa.gov/national-aquatic-resource-surveys</t>
   </si>
   <si>
-    <t xml:space="preserve">rightsHolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A person or organization owning or managing rights over the resource.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example: BLM AIM, EPA NARS, USFS ARMEP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Location</t>
   </si>
   <si>
-    <t xml:space="preserve">locationID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Location Identification</t>
   </si>
   <si>
-    <t xml:space="preserve">verbatimlocationID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Site Identification</t>
   </si>
   <si>
@@ -1173,9 +1152,6 @@
     <t xml:space="preserve">SiteID</t>
   </si>
   <si>
-    <t xml:space="preserve">verbatimWaterbody</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stream Name From the Dataset</t>
   </si>
   <si>
@@ -1185,15 +1161,9 @@
     <t xml:space="preserve">StreamName</t>
   </si>
   <si>
-    <t xml:space="preserve">decimalLatitude</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard Latitude</t>
   </si>
   <si>
-    <t xml:space="preserve">decimalLongitude</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard Longitude</t>
   </si>
   <si>
@@ -1218,9 +1188,6 @@
     <t xml:space="preserve">Lat</t>
   </si>
   <si>
-    <t xml:space="preserve">verbatimCoordinateSystem</t>
-  </si>
-  <si>
     <t xml:space="preserve">From the DatasetCoordinateSystem</t>
   </si>
   <si>
@@ -1242,24 +1209,15 @@
     <t xml:space="preserve">Long</t>
   </si>
   <si>
-    <t xml:space="preserve">verbatimSRS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spatial Reference System (SRS)</t>
   </si>
   <si>
     <t xml:space="preserve">Event</t>
   </si>
   <si>
-    <t xml:space="preserve">eventID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event Identification</t>
   </si>
   <si>
-    <t xml:space="preserve">verbatimEventID</t>
-  </si>
-  <si>
     <t xml:space="preserve">From the Dataset Location Identification</t>
   </si>
   <si>
@@ -1275,9 +1233,6 @@
     <t xml:space="preserve">RchID</t>
   </si>
   <si>
-    <t xml:space="preserve">EventDate</t>
-  </si>
-  <si>
     <t xml:space="preserve">survey_date</t>
   </si>
   <si>
@@ -1305,9 +1260,6 @@
     <t xml:space="preserve">VALXSITE</t>
   </si>
   <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sample Year</t>
   </si>
   <si>
@@ -1321,15 +1273,6 @@
   </si>
   <si>
     <t xml:space="preserve">MeasurementOrFact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValueID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementValue</t>
   </si>
   <si>
     <t xml:space="preserve">average_bfwidth</t>
@@ -3003,10 +2946,10 @@
         <v>115</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>116</v>
-      </c>
-      <c r="F1" t="s">
-        <v>117</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -3018,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -3032,29 +2975,29 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
         <v>120</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
         <v>123</v>
-      </c>
-      <c r="K2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -3065,19 +3008,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
         <v>126</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
@@ -3096,31 +3039,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
         <v>129</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>130</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>131</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
         <v>132</v>
       </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>133</v>
-      </c>
-      <c r="K4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -3131,31 +3074,31 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
         <v>135</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>136</v>
       </c>
-      <c r="G5" t="s">
-        <v>137</v>
-      </c>
       <c r="H5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
         <v>132</v>
       </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6">
@@ -3166,29 +3109,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
         <v>138</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>139</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -3199,19 +3142,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
         <v>142</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>143</v>
-      </c>
-      <c r="G7" t="s">
-        <v>144</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -3230,29 +3173,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
         <v>145</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>146</v>
-      </c>
-      <c r="G8" t="s">
-        <v>147</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -3263,19 +3206,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
         <v>149</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>150</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
@@ -3285,7 +3228,7 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -3296,29 +3239,29 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
         <v>153</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>154</v>
-      </c>
-      <c r="G10" t="s">
-        <v>155</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
         <v>48</v>
       </c>
       <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
         <v>123</v>
-      </c>
-      <c r="K10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -3329,29 +3272,29 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
         <v>157</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>158</v>
-      </c>
-      <c r="G11" t="s">
-        <v>159</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
         <v>48</v>
       </c>
       <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
         <v>123</v>
-      </c>
-      <c r="K11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -3362,29 +3305,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
         <v>160</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>161</v>
-      </c>
-      <c r="G12" t="s">
-        <v>162</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
         <v>123</v>
-      </c>
-      <c r="K12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -3395,31 +3338,31 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
         <v>163</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>164</v>
       </c>
-      <c r="G13" t="s">
-        <v>165</v>
-      </c>
       <c r="H13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
         <v>132</v>
       </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>133</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -3430,28 +3373,28 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" t="n">
         <v>16</v>
       </c>
       <c r="E14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" t="s">
         <v>167</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>168</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>169</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
         <v>170</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>171</v>
       </c>
       <c r="K14" t="s">
         <v>54</v>
@@ -3465,31 +3408,31 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" t="n">
         <v>17</v>
       </c>
       <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
         <v>172</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>173</v>
       </c>
-      <c r="G15" t="s">
-        <v>174</v>
-      </c>
       <c r="H15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
         <v>132</v>
       </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>133</v>
-      </c>
-      <c r="K15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -3500,31 +3443,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="n">
         <v>18</v>
       </c>
       <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
         <v>176</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>178</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
         <v>179</v>
       </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>180</v>
-      </c>
-      <c r="K16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -3535,31 +3478,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" t="n">
         <v>19</v>
       </c>
       <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
         <v>182</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>183</v>
       </c>
-      <c r="G17" t="s">
-        <v>184</v>
-      </c>
       <c r="H17" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
         <v>132</v>
       </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>133</v>
-      </c>
-      <c r="K17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -3570,31 +3513,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="n">
         <v>20</v>
       </c>
       <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" t="s">
         <v>185</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>186</v>
       </c>
-      <c r="G18" t="s">
-        <v>187</v>
-      </c>
       <c r="H18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
         <v>132</v>
       </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>133</v>
-      </c>
-      <c r="K18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19">
@@ -3605,31 +3548,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>189</v>
       </c>
-      <c r="G19" t="s">
-        <v>190</v>
-      </c>
       <c r="H19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
         <v>179</v>
       </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>180</v>
-      </c>
-      <c r="K19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -3640,31 +3583,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" t="n">
         <v>22</v>
       </c>
       <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" t="s">
         <v>191</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>192</v>
       </c>
-      <c r="G20" t="s">
-        <v>193</v>
-      </c>
       <c r="H20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
         <v>179</v>
       </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>180</v>
-      </c>
-      <c r="K20" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -3675,31 +3618,31 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" t="n">
         <v>23</v>
       </c>
       <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
         <v>194</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>195</v>
       </c>
-      <c r="G21" t="s">
-        <v>196</v>
-      </c>
       <c r="H21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
         <v>132</v>
       </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>133</v>
-      </c>
       <c r="K21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22">
@@ -3710,31 +3653,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" t="n">
         <v>24</v>
       </c>
       <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" t="s">
         <v>197</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>198</v>
       </c>
-      <c r="G22" t="s">
-        <v>199</v>
-      </c>
       <c r="H22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
         <v>132</v>
       </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>133</v>
-      </c>
-      <c r="K22" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23">
@@ -3745,31 +3688,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" t="n">
         <v>25</v>
       </c>
       <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" t="s">
         <v>200</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>201</v>
       </c>
-      <c r="G23" t="s">
-        <v>202</v>
-      </c>
       <c r="H23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
         <v>132</v>
       </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>133</v>
-      </c>
-      <c r="K23" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24">
@@ -3780,29 +3723,29 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" t="n">
         <v>26</v>
       </c>
       <c r="E24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" t="s">
         <v>204</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>205</v>
-      </c>
-      <c r="G24" t="s">
-        <v>206</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
         <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25">
@@ -3813,29 +3756,29 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" t="n">
         <v>27</v>
       </c>
       <c r="E25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" t="s">
         <v>208</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>209</v>
-      </c>
-      <c r="G25" t="s">
-        <v>210</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
         <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26">
@@ -3846,29 +3789,29 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" t="n">
         <v>28</v>
       </c>
       <c r="E26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" t="s">
         <v>211</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>212</v>
-      </c>
-      <c r="G26" t="s">
-        <v>213</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27">
@@ -3879,29 +3822,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" t="n">
         <v>29</v>
       </c>
       <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
         <v>214</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>215</v>
-      </c>
-      <c r="G27" t="s">
-        <v>216</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
@@ -3912,29 +3855,29 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" t="n">
         <v>30</v>
       </c>
       <c r="E28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" t="s">
         <v>217</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>218</v>
-      </c>
-      <c r="G28" t="s">
-        <v>219</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
@@ -3945,29 +3888,29 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" t="n">
         <v>31</v>
       </c>
       <c r="E29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" t="s">
         <v>220</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>221</v>
-      </c>
-      <c r="G29" t="s">
-        <v>222</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
         <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
@@ -3978,29 +3921,29 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" t="n">
         <v>32</v>
       </c>
       <c r="E30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" t="s">
         <v>223</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>224</v>
-      </c>
-      <c r="G30" t="s">
-        <v>225</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
         <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
@@ -4011,29 +3954,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D31" t="n">
         <v>33</v>
       </c>
       <c r="E31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" t="s">
         <v>226</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>227</v>
-      </c>
-      <c r="G31" t="s">
-        <v>228</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
@@ -4044,29 +3987,29 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" t="n">
         <v>8</v>
       </c>
       <c r="E32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" t="s">
         <v>229</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>230</v>
-      </c>
-      <c r="G32" t="s">
-        <v>231</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
         <v>48</v>
       </c>
       <c r="J32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" t="s">
         <v>123</v>
-      </c>
-      <c r="K32" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33">
@@ -4077,29 +4020,29 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" t="n">
         <v>34</v>
       </c>
       <c r="E33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" t="s">
         <v>232</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>233</v>
-      </c>
-      <c r="G33" t="s">
-        <v>234</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
         <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
@@ -4110,25 +4053,25 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
       </c>
       <c r="E34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" t="s">
         <v>235</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>236</v>
-      </c>
-      <c r="G34" t="s">
-        <v>237</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35">
@@ -4139,29 +4082,29 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" t="n">
         <v>35</v>
       </c>
       <c r="E35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" t="s">
         <v>238</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>239</v>
-      </c>
-      <c r="G35" t="s">
-        <v>240</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
         <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36">
@@ -4172,29 +4115,29 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" t="n">
         <v>36</v>
       </c>
       <c r="E36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" t="s">
         <v>241</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>242</v>
-      </c>
-      <c r="G36" t="s">
-        <v>243</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
         <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
@@ -4205,19 +4148,19 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" t="n">
         <v>37</v>
       </c>
       <c r="E37" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" t="s">
         <v>245</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>246</v>
-      </c>
-      <c r="G37" t="s">
-        <v>247</v>
       </c>
       <c r="H37"/>
       <c r="I37" t="s">
@@ -4225,7 +4168,7 @@
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
@@ -4236,19 +4179,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D38" t="n">
         <v>38</v>
       </c>
       <c r="E38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" t="s">
         <v>248</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>249</v>
-      </c>
-      <c r="G38" t="s">
-        <v>250</v>
       </c>
       <c r="H38"/>
       <c r="I38" t="s">
@@ -4256,7 +4199,7 @@
       </c>
       <c r="J38"/>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
@@ -4267,19 +4210,19 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39" t="n">
         <v>39</v>
       </c>
       <c r="E39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" t="s">
         <v>251</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>252</v>
-      </c>
-      <c r="G39" t="s">
-        <v>253</v>
       </c>
       <c r="H39"/>
       <c r="I39" t="s">
@@ -4287,7 +4230,7 @@
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
@@ -4298,19 +4241,19 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" t="n">
         <v>40</v>
       </c>
       <c r="E40" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" t="s">
         <v>254</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>255</v>
-      </c>
-      <c r="G40" t="s">
-        <v>256</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
@@ -4318,7 +4261,7 @@
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
@@ -4329,19 +4272,19 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D41" t="n">
         <v>41</v>
       </c>
       <c r="E41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" t="s">
         <v>257</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>258</v>
-      </c>
-      <c r="G41" t="s">
-        <v>259</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
@@ -4349,7 +4292,7 @@
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
@@ -4360,19 +4303,19 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D42" t="n">
         <v>42</v>
       </c>
       <c r="E42" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" t="s">
         <v>260</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>261</v>
-      </c>
-      <c r="G42" t="s">
-        <v>262</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
@@ -4380,7 +4323,7 @@
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
@@ -4391,19 +4334,19 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D43" t="n">
         <v>43</v>
       </c>
       <c r="E43" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" t="s">
         <v>263</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>264</v>
-      </c>
-      <c r="G43" t="s">
-        <v>265</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="s">
@@ -4411,7 +4354,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
@@ -4422,19 +4365,19 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D44" t="n">
         <v>44</v>
       </c>
       <c r="E44" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" t="s">
         <v>266</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>267</v>
-      </c>
-      <c r="G44" t="s">
-        <v>268</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="s">
@@ -4442,7 +4385,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45">
@@ -4453,19 +4396,19 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D45" t="n">
         <v>45</v>
       </c>
       <c r="E45" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" t="s">
         <v>269</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>270</v>
-      </c>
-      <c r="G45" t="s">
-        <v>271</v>
       </c>
       <c r="H45"/>
       <c r="I45" t="s">
@@ -4473,7 +4416,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
@@ -4484,19 +4427,19 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D46" t="n">
         <v>46</v>
       </c>
       <c r="E46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" t="s">
         <v>272</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>273</v>
-      </c>
-      <c r="G46" t="s">
-        <v>274</v>
       </c>
       <c r="H46"/>
       <c r="I46" t="s">
@@ -4504,7 +4447,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
@@ -4515,19 +4458,19 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" t="n">
         <v>47</v>
       </c>
       <c r="E47" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" t="s">
         <v>275</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>276</v>
-      </c>
-      <c r="G47" t="s">
-        <v>277</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="s">
@@ -4535,7 +4478,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48">
@@ -4546,19 +4489,19 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" t="n">
         <v>48</v>
       </c>
       <c r="E48" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" t="s">
         <v>278</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>279</v>
-      </c>
-      <c r="G48" t="s">
-        <v>280</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="s">
@@ -4566,7 +4509,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
@@ -4577,19 +4520,19 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" t="n">
         <v>49</v>
       </c>
       <c r="E49" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" t="s">
         <v>281</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>282</v>
-      </c>
-      <c r="G49" t="s">
-        <v>283</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="s">
@@ -4597,7 +4540,7 @@
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50">
@@ -4608,19 +4551,19 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" t="n">
         <v>50</v>
       </c>
       <c r="E50" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" t="s">
         <v>284</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>285</v>
-      </c>
-      <c r="G50" t="s">
-        <v>286</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="s">
@@ -4628,7 +4571,7 @@
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
@@ -4639,19 +4582,19 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" t="n">
         <v>51</v>
       </c>
       <c r="E51" t="s">
+        <v>286</v>
+      </c>
+      <c r="F51" t="s">
         <v>287</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>288</v>
-      </c>
-      <c r="G51" t="s">
-        <v>289</v>
       </c>
       <c r="H51"/>
       <c r="I51" t="s">
@@ -4659,7 +4602,7 @@
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52">
@@ -4670,19 +4613,19 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D52" t="n">
         <v>52</v>
       </c>
       <c r="E52" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52" t="s">
         <v>290</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>291</v>
-      </c>
-      <c r="G52" t="s">
-        <v>292</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="s">
@@ -4690,7 +4633,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53">
@@ -4701,19 +4644,19 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53" t="n">
         <v>53</v>
       </c>
       <c r="E53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F53" t="s">
         <v>293</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>294</v>
-      </c>
-      <c r="G53" t="s">
-        <v>295</v>
       </c>
       <c r="H53"/>
       <c r="I53" t="s">
@@ -4721,7 +4664,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54">
@@ -4732,19 +4675,19 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54" t="n">
         <v>54</v>
       </c>
       <c r="E54" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" t="s">
         <v>296</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>297</v>
-      </c>
-      <c r="G54" t="s">
-        <v>298</v>
       </c>
       <c r="H54"/>
       <c r="I54" t="s">
@@ -4752,7 +4695,7 @@
       </c>
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
@@ -4763,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D55" t="n">
         <v>55</v>
       </c>
       <c r="E55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" t="s">
         <v>299</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>300</v>
-      </c>
-      <c r="G55" t="s">
-        <v>301</v>
       </c>
       <c r="H55"/>
       <c r="I55" t="s">
@@ -4783,7 +4726,7 @@
       </c>
       <c r="J55"/>
       <c r="K55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56">
@@ -4794,19 +4737,19 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56" t="n">
         <v>56</v>
       </c>
       <c r="E56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" t="s">
         <v>302</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>303</v>
-      </c>
-      <c r="G56" t="s">
-        <v>304</v>
       </c>
       <c r="H56"/>
       <c r="I56" t="s">
@@ -4814,7 +4757,7 @@
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57">
@@ -4825,19 +4768,19 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57" t="n">
         <v>57</v>
       </c>
       <c r="E57" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>306</v>
-      </c>
-      <c r="G57" t="s">
-        <v>307</v>
       </c>
       <c r="H57"/>
       <c r="I57" t="s">
@@ -4845,7 +4788,7 @@
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58">
@@ -4856,19 +4799,19 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D58" t="n">
         <v>58</v>
       </c>
       <c r="E58" t="s">
+        <v>307</v>
+      </c>
+      <c r="F58" t="s">
         <v>308</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>309</v>
-      </c>
-      <c r="G58" t="s">
-        <v>310</v>
       </c>
       <c r="H58"/>
       <c r="I58" t="s">
@@ -4876,7 +4819,7 @@
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
@@ -4887,19 +4830,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D59" t="n">
         <v>59</v>
       </c>
       <c r="E59" t="s">
+        <v>310</v>
+      </c>
+      <c r="F59" t="s">
         <v>311</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>312</v>
-      </c>
-      <c r="G59" t="s">
-        <v>313</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="s">
@@ -4907,7 +4850,7 @@
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60">
@@ -4918,29 +4861,29 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D60" t="n">
         <v>60</v>
       </c>
       <c r="E60" t="s">
+        <v>314</v>
+      </c>
+      <c r="F60" t="s">
+        <v>314</v>
+      </c>
+      <c r="G60" t="s">
         <v>315</v>
-      </c>
-      <c r="F60" t="s">
-        <v>315</v>
-      </c>
-      <c r="G60" t="s">
-        <v>316</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="s">
         <v>48</v>
       </c>
       <c r="J60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61">
@@ -4951,29 +4894,29 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D61" t="n">
         <v>61</v>
       </c>
       <c r="E61" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" t="s">
         <v>318</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>319</v>
-      </c>
-      <c r="G61" t="s">
-        <v>320</v>
       </c>
       <c r="H61"/>
       <c r="I61" t="s">
         <v>48</v>
       </c>
       <c r="J61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
@@ -4984,29 +4927,29 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D62" t="n">
         <v>62</v>
       </c>
       <c r="E62" t="s">
+        <v>321</v>
+      </c>
+      <c r="F62" t="s">
         <v>322</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>323</v>
-      </c>
-      <c r="G62" t="s">
-        <v>324</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="s">
         <v>48</v>
       </c>
       <c r="J62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
@@ -5017,31 +4960,31 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D63" t="n">
         <v>63</v>
       </c>
       <c r="E63" t="s">
+        <v>324</v>
+      </c>
+      <c r="F63" t="s">
         <v>325</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>326</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>327</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" t="s">
         <v>328</v>
       </c>
-      <c r="I63" t="s">
-        <v>48</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>329</v>
-      </c>
-      <c r="K63" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="64">
@@ -5052,22 +4995,22 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D64" t="n">
         <v>64</v>
       </c>
       <c r="E64" t="s">
+        <v>330</v>
+      </c>
+      <c r="F64" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" t="s">
         <v>331</v>
       </c>
-      <c r="F64" t="s">
-        <v>331</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>332</v>
-      </c>
-      <c r="H64" t="s">
-        <v>333</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
@@ -5076,7 +5019,7 @@
         <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65">
@@ -5087,29 +5030,29 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D65" t="n">
         <v>65</v>
       </c>
       <c r="E65" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" t="s">
+        <v>334</v>
+      </c>
+      <c r="G65" t="s">
         <v>335</v>
-      </c>
-      <c r="F65" t="s">
-        <v>335</v>
-      </c>
-      <c r="G65" t="s">
-        <v>336</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="s">
         <v>48</v>
       </c>
       <c r="J65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66">
@@ -5120,29 +5063,29 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D66" t="n">
         <v>2</v>
       </c>
       <c r="E66" t="s">
+        <v>337</v>
+      </c>
+      <c r="F66" t="s">
         <v>338</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>339</v>
-      </c>
-      <c r="G66" t="s">
-        <v>340</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="s">
         <v>48</v>
       </c>
       <c r="J66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5170,10 +5113,10 @@
         <v>115</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" t="s">
-        <v>117</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -5185,51 +5128,51 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" t="s">
         <v>342</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>343</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>344</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>346</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>349</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>350</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>351</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>352</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>353</v>
-      </c>
-      <c r="V1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -5265,15 +5208,15 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5301,15 +5244,15 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -5337,15 +5280,15 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>359</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5371,15 +5314,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -5407,21 +5350,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" t="s">
         <v>362</v>
-      </c>
-      <c r="E7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G7" t="s">
-        <v>364</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -5443,15 +5386,15 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -5479,21 +5422,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" t="s">
         <v>367</v>
-      </c>
-      <c r="E9" t="s">
-        <v>367</v>
-      </c>
-      <c r="F9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" t="s">
-        <v>369</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -5515,7 +5458,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -5545,21 +5488,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F11" t="s">
-        <v>371</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>372</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -5581,117 +5524,115 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
       </c>
       <c r="I12"/>
-      <c r="J12"/>
+      <c r="J12" t="s">
+        <v>371</v>
+      </c>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
+      <c r="M12" t="s">
+        <v>372</v>
+      </c>
+      <c r="N12" t="s">
+        <v>373</v>
+      </c>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12"/>
+      <c r="Q12" t="s">
+        <v>371</v>
+      </c>
       <c r="R12"/>
       <c r="S12"/>
-      <c r="T12"/>
+      <c r="T12" t="s">
+        <v>374</v>
+      </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
       </c>
       <c r="I13"/>
-      <c r="J13" t="s">
-        <v>378</v>
-      </c>
+      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13" t="s">
-        <v>378</v>
-      </c>
+      <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="T13" t="s">
-        <v>381</v>
-      </c>
+      <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G14"/>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" t="s">
-        <v>384</v>
-      </c>
-      <c r="N14" t="s">
-        <v>385</v>
-      </c>
+      <c r="M14"/>
+      <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5703,18 +5644,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
@@ -5737,22 +5678,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -5771,174 +5712,172 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I17"/>
-      <c r="J17"/>
+      <c r="J17" t="s">
+        <v>382</v>
+      </c>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
+      <c r="M17" t="s">
+        <v>383</v>
+      </c>
+      <c r="N17" t="s">
+        <v>384</v>
+      </c>
       <c r="O17"/>
       <c r="P17"/>
-      <c r="Q17"/>
+      <c r="Q17" t="s">
+        <v>385</v>
+      </c>
       <c r="R17"/>
       <c r="S17"/>
-      <c r="T17"/>
+      <c r="T17" t="s">
+        <v>386</v>
+      </c>
       <c r="U17"/>
       <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I18"/>
-      <c r="J18" t="s">
-        <v>392</v>
-      </c>
+      <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" t="s">
-        <v>393</v>
-      </c>
-      <c r="N18" t="s">
-        <v>394</v>
-      </c>
+      <c r="M18"/>
+      <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18" t="s">
-        <v>395</v>
-      </c>
+      <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
-      <c r="T18" t="s">
-        <v>396</v>
-      </c>
+      <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>397</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I19"/>
-      <c r="J19"/>
+      <c r="J19" t="s">
+        <v>389</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="M19" t="s">
+        <v>390</v>
+      </c>
+      <c r="N19" t="s">
+        <v>391</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19"/>
+      <c r="Q19" t="s">
+        <v>392</v>
+      </c>
       <c r="R19"/>
       <c r="S19"/>
-      <c r="T19"/>
+      <c r="T19" t="s">
+        <v>393</v>
+      </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I20"/>
-      <c r="J20" t="s">
-        <v>400</v>
-      </c>
+      <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" t="s">
-        <v>401</v>
-      </c>
-      <c r="N20" t="s">
-        <v>402</v>
-      </c>
+      <c r="M20"/>
+      <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20" t="s">
-        <v>403</v>
-      </c>
+      <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
-      <c r="T20" t="s">
-        <v>404</v>
-      </c>
+      <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>405</v>
-      </c>
-      <c r="E21" t="s">
-        <v>406</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
@@ -5961,17 +5900,15 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E22"/>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
+      <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
         <v>25</v>
@@ -5993,12 +5930,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -6023,15 +5960,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>396</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
       <c r="G24"/>
       <c r="H24" t="s">
         <v>25</v>
@@ -6053,106 +5994,114 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>408</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25"/>
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25"/>
-      <c r="J25"/>
+      <c r="J25" t="s">
+        <v>398</v>
+      </c>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
+      <c r="M25" t="s">
+        <v>399</v>
+      </c>
+      <c r="N25" t="s">
+        <v>400</v>
+      </c>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25"/>
+      <c r="Q25" t="s">
+        <v>399</v>
+      </c>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25"/>
+      <c r="T25" t="s">
+        <v>401</v>
+      </c>
       <c r="U25"/>
       <c r="V25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>410</v>
-      </c>
-      <c r="E26" t="s">
-        <v>411</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>25</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" t="s">
-        <v>412</v>
-      </c>
+      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26" t="s">
-        <v>413</v>
-      </c>
-      <c r="N26" t="s">
-        <v>414</v>
-      </c>
+      <c r="M26"/>
+      <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26" t="s">
-        <v>413</v>
-      </c>
+      <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
-      <c r="T26" t="s">
-        <v>415</v>
-      </c>
+      <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
       <c r="I27"/>
-      <c r="J27"/>
+      <c r="J27" t="s">
+        <v>402</v>
+      </c>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="M27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N27" t="s">
+        <v>404</v>
+      </c>
       <c r="O27"/>
       <c r="P27"/>
-      <c r="Q27"/>
+      <c r="Q27" t="s">
+        <v>405</v>
+      </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
@@ -6161,39 +6110,41 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>416</v>
-      </c>
-      <c r="E28"/>
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>406</v>
+      </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="N28" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
@@ -6203,108 +6154,98 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29" t="s">
-        <v>423</v>
-      </c>
-      <c r="N29" t="s">
-        <v>424</v>
-      </c>
+      <c r="M29"/>
+      <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="R29"/>
       <c r="S29"/>
-      <c r="T29"/>
+      <c r="T29" t="s">
+        <v>414</v>
+      </c>
       <c r="U29"/>
       <c r="V29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>426</v>
-      </c>
-      <c r="E30" t="s">
-        <v>427</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E30"/>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="I30"/>
-      <c r="J30" t="s">
-        <v>428</v>
-      </c>
+      <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30" t="s">
-        <v>429</v>
-      </c>
+      <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
-      <c r="T30" t="s">
-        <v>430</v>
-      </c>
+      <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>94</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -6323,22 +6264,20 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" t="s">
-        <v>96</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G32"/>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -6357,20 +6296,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33"/>
+        <v>103</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -6389,19 +6330,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H34" t="s">
         <v>25</v>
@@ -6423,23 +6364,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" t="s">
-        <v>25</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -6457,34 +6396,60 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>431</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
       <c r="D36" t="s">
-        <v>434</v>
-      </c>
-      <c r="E36"/>
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
       <c r="F36" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
+        <v>121</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" t="s">
+        <v>416</v>
+      </c>
+      <c r="K36" t="s">
+        <v>417</v>
+      </c>
       <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
+      <c r="M36" t="s">
+        <v>418</v>
+      </c>
+      <c r="N36" t="s">
+        <v>419</v>
+      </c>
+      <c r="O36" t="s">
+        <v>420</v>
+      </c>
       <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
+      <c r="Q36" t="s">
+        <v>421</v>
+      </c>
+      <c r="R36" t="s">
+        <v>422</v>
+      </c>
       <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
+      <c r="T36" t="s">
+        <v>423</v>
+      </c>
+      <c r="U36" t="s">
+        <v>424</v>
+      </c>
       <c r="V36"/>
     </row>
     <row r="37">
@@ -6492,57 +6457,43 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
         <v>48</v>
       </c>
-      <c r="I37" t="s">
-        <v>123</v>
-      </c>
-      <c r="J37" t="s">
-        <v>435</v>
-      </c>
-      <c r="K37" t="s">
-        <v>436</v>
-      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>437</v>
-      </c>
-      <c r="N37" t="s">
-        <v>438</v>
-      </c>
-      <c r="O37" t="s">
-        <v>439</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>440</v>
-      </c>
-      <c r="R37" t="s">
-        <v>441</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="R37"/>
       <c r="S37"/>
       <c r="T37" t="s">
-        <v>442</v>
-      </c>
-      <c r="U37" t="s">
-        <v>443</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="U37"/>
       <c r="V37"/>
     </row>
     <row r="38">
@@ -6550,43 +6501,59 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38"/>
+        <v>130</v>
+      </c>
+      <c r="G38" t="s">
+        <v>131</v>
+      </c>
       <c r="H38" t="s">
         <v>48</v>
       </c>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
+      <c r="I38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" t="s">
+        <v>427</v>
+      </c>
+      <c r="K38" t="s">
+        <v>428</v>
+      </c>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>444</v>
-      </c>
-      <c r="N38"/>
-      <c r="O38"/>
+        <v>429</v>
+      </c>
+      <c r="N38" t="s">
+        <v>430</v>
+      </c>
+      <c r="O38" t="s">
+        <v>431</v>
+      </c>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>445</v>
-      </c>
-      <c r="R38"/>
+        <v>432</v>
+      </c>
+      <c r="R38" t="s">
+        <v>428</v>
+      </c>
       <c r="S38"/>
       <c r="T38" t="s">
-        <v>126</v>
-      </c>
-      <c r="U38"/>
+        <v>128</v>
+      </c>
+      <c r="U38" t="s">
+        <v>433</v>
+      </c>
       <c r="V38"/>
     </row>
     <row r="39">
@@ -6594,59 +6561,47 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" t="s">
         <v>131</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
         <v>132</v>
       </c>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" t="s">
-        <v>133</v>
-      </c>
-      <c r="J39" t="s">
-        <v>446</v>
-      </c>
-      <c r="K39" t="s">
-        <v>447</v>
-      </c>
+      <c r="J39"/>
+      <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="N39" t="s">
-        <v>449</v>
-      </c>
-      <c r="O39" t="s">
-        <v>450</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>451</v>
-      </c>
-      <c r="R39" t="s">
-        <v>447</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="R39"/>
       <c r="S39"/>
-      <c r="T39" t="s">
-        <v>129</v>
-      </c>
-      <c r="U39" t="s">
-        <v>452</v>
-      </c>
+      <c r="T39"/>
+      <c r="U39"/>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -6654,46 +6609,48 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" t="s">
-        <v>132</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G40"/>
       <c r="H40" t="s">
         <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
-      </c>
-      <c r="J40"/>
+        <v>122</v>
+      </c>
+      <c r="J40" t="s">
+        <v>437</v>
+      </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="N40" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="R40"/>
       <c r="S40"/>
-      <c r="T40"/>
+      <c r="T40" t="s">
+        <v>441</v>
+      </c>
       <c r="U40"/>
       <c r="V40"/>
     </row>
@@ -6702,48 +6659,40 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
         <v>48</v>
       </c>
-      <c r="I41" t="s">
-        <v>123</v>
-      </c>
+      <c r="I41"/>
       <c r="J41" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="s">
-        <v>457</v>
-      </c>
-      <c r="N41" t="s">
-        <v>458</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41" t="s">
-        <v>459</v>
-      </c>
+      <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
-      <c r="T41" t="s">
-        <v>460</v>
-      </c>
+      <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
     </row>
@@ -6752,40 +6701,44 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
         <v>48</v>
       </c>
-      <c r="I42"/>
+      <c r="I42" t="s">
+        <v>122</v>
+      </c>
       <c r="J42" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42" t="s">
-        <v>462</v>
-      </c>
+      <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42"/>
+      <c r="Q42" t="s">
+        <v>445</v>
+      </c>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42"/>
+      <c r="T42" t="s">
+        <v>446</v>
+      </c>
       <c r="U42"/>
       <c r="V42"/>
     </row>
@@ -6794,44 +6747,46 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
         <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>463</v>
+        <v>148</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="M43" t="s">
+        <v>447</v>
+      </c>
+      <c r="N43" t="s">
+        <v>148</v>
+      </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
-      <c r="T43" t="s">
-        <v>465</v>
-      </c>
+      <c r="T43"/>
       <c r="U43"/>
       <c r="V43"/>
     </row>
@@ -6840,42 +6795,42 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
         <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>449</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="N44" t="s">
-        <v>149</v>
+        <v>451</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="R44"/>
       <c r="S44"/>
@@ -6888,46 +6843,46 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
         <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J45" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N45" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
-      <c r="Q45" t="s">
-        <v>471</v>
-      </c>
+      <c r="Q45"/>
       <c r="R45"/>
       <c r="S45"/>
-      <c r="T45"/>
+      <c r="T45" t="s">
+        <v>456</v>
+      </c>
       <c r="U45"/>
       <c r="V45"/>
     </row>
@@ -6936,46 +6891,46 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
         <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J46" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="N46" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46"/>
+      <c r="Q46" t="s">
+        <v>460</v>
+      </c>
       <c r="R46"/>
       <c r="S46"/>
-      <c r="T46" t="s">
-        <v>475</v>
-      </c>
+      <c r="T46"/>
       <c r="U46"/>
       <c r="V46"/>
     </row>
@@ -6984,146 +6939,144 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47"/>
+        <v>164</v>
+      </c>
+      <c r="G47" t="s">
+        <v>131</v>
+      </c>
       <c r="H47" t="s">
         <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J47" t="s">
-        <v>476</v>
-      </c>
-      <c r="K47"/>
-      <c r="L47"/>
+        <v>461</v>
+      </c>
+      <c r="K47" t="s">
+        <v>462</v>
+      </c>
+      <c r="L47" t="s">
+        <v>463</v>
+      </c>
       <c r="M47" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="N47" t="s">
-        <v>478</v>
-      </c>
-      <c r="O47"/>
+        <v>465</v>
+      </c>
+      <c r="O47" t="s">
+        <v>466</v>
+      </c>
       <c r="P47"/>
-      <c r="Q47" t="s">
-        <v>479</v>
-      </c>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
+      <c r="Q47"/>
+      <c r="R47" t="s">
+        <v>467</v>
+      </c>
+      <c r="S47" t="n">
+        <v>88</v>
+      </c>
+      <c r="T47" t="s">
+        <v>468</v>
+      </c>
+      <c r="U47" t="s">
+        <v>469</v>
+      </c>
+      <c r="V47" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="H48" t="s">
         <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>133</v>
-      </c>
-      <c r="J48" t="s">
-        <v>480</v>
-      </c>
-      <c r="K48" t="s">
-        <v>481</v>
-      </c>
-      <c r="L48" t="s">
-        <v>482</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
       <c r="M48" t="s">
-        <v>483</v>
-      </c>
-      <c r="N48" t="s">
-        <v>484</v>
-      </c>
-      <c r="O48" t="s">
-        <v>485</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" t="s">
-        <v>486</v>
-      </c>
-      <c r="S48" t="n">
-        <v>88</v>
-      </c>
+      <c r="R48"/>
+      <c r="S48"/>
       <c r="T48" t="s">
-        <v>487</v>
-      </c>
-      <c r="U48" t="s">
-        <v>488</v>
-      </c>
-      <c r="V48" t="s">
-        <v>489</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="U48"/>
+      <c r="V48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="H49" t="s">
         <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
@@ -7132,7 +7085,7 @@
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>167</v>
+        <v>473</v>
       </c>
       <c r="U49"/>
       <c r="V49"/>
@@ -7142,45 +7095,59 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G50" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="H50" t="s">
         <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>133</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
+        <v>179</v>
+      </c>
+      <c r="J50" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" t="s">
+        <v>474</v>
+      </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>491</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>175</v>
+      </c>
+      <c r="N50" t="s">
+        <v>175</v>
+      </c>
+      <c r="O50" t="s">
+        <v>475</v>
+      </c>
       <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
+      <c r="Q50" t="s">
+        <v>476</v>
+      </c>
+      <c r="R50" t="s">
+        <v>477</v>
+      </c>
       <c r="S50"/>
       <c r="T50" t="s">
-        <v>492</v>
-      </c>
-      <c r="U50"/>
+        <v>175</v>
+      </c>
+      <c r="U50" t="s">
+        <v>474</v>
+      </c>
       <c r="V50"/>
     </row>
     <row r="51">
@@ -7188,58 +7155,56 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G51" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
         <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="J51" t="s">
-        <v>176</v>
+        <v>478</v>
       </c>
       <c r="K51" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>176</v>
+        <v>479</v>
       </c>
       <c r="N51" t="s">
-        <v>176</v>
+        <v>480</v>
       </c>
       <c r="O51" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="P51"/>
       <c r="Q51" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="R51" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="S51"/>
-      <c r="T51" t="s">
-        <v>176</v>
-      </c>
+      <c r="T51"/>
       <c r="U51" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="V51"/>
     </row>
@@ -7248,56 +7213,54 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" t="s">
         <v>132</v>
       </c>
-      <c r="H52" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" t="s">
-        <v>133</v>
-      </c>
       <c r="J52" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="K52" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="N52" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="O52" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="P52"/>
-      <c r="Q52" t="s">
-        <v>501</v>
-      </c>
+      <c r="Q52"/>
       <c r="R52" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="V52"/>
     </row>
@@ -7306,55 +7269,49 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G53" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="H53" t="s">
         <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
-      </c>
-      <c r="J53" t="s">
-        <v>502</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J53"/>
       <c r="K53" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
-        <v>503</v>
-      </c>
-      <c r="N53" t="s">
-        <v>504</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N53"/>
       <c r="O53" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53" t="s">
-        <v>496</v>
-      </c>
+      <c r="R53"/>
       <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53" t="s">
-        <v>493</v>
-      </c>
+      <c r="T53" t="s">
+        <v>187</v>
+      </c>
+      <c r="U53"/>
       <c r="V53"/>
     </row>
     <row r="54">
@@ -7362,47 +7319,47 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G54" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" t="s">
         <v>179</v>
-      </c>
-      <c r="H54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" t="s">
-        <v>180</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="U54"/>
       <c r="V54"/>
@@ -7412,48 +7369,48 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G55" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="H55" t="s">
         <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>180</v>
-      </c>
-      <c r="J55"/>
+        <v>132</v>
+      </c>
+      <c r="J55" t="s">
+        <v>487</v>
+      </c>
       <c r="K55" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="L55"/>
-      <c r="M55" t="s">
-        <v>191</v>
-      </c>
+      <c r="M55"/>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="P55"/>
-      <c r="Q55"/>
+      <c r="Q55" t="s">
+        <v>488</v>
+      </c>
       <c r="R55"/>
       <c r="S55"/>
-      <c r="T55" t="s">
-        <v>191</v>
-      </c>
+      <c r="T55"/>
       <c r="U55"/>
       <c r="V55"/>
     </row>
@@ -7462,49 +7419,53 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G56" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s">
         <v>132</v>
       </c>
-      <c r="H56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" t="s">
-        <v>133</v>
-      </c>
       <c r="J56" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="K56" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L56"/>
-      <c r="M56"/>
+      <c r="M56" t="s">
+        <v>491</v>
+      </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="P56"/>
-      <c r="Q56" t="s">
-        <v>507</v>
-      </c>
+      <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
+      <c r="T56" t="s">
+        <v>492</v>
+      </c>
+      <c r="U56" t="s">
+        <v>481</v>
+      </c>
       <c r="V56"/>
     </row>
     <row r="57">
@@ -7512,52 +7473,48 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G57" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" t="s">
         <v>132</v>
       </c>
-      <c r="H57" t="s">
-        <v>48</v>
-      </c>
-      <c r="I57" t="s">
-        <v>133</v>
-      </c>
-      <c r="J57" t="s">
-        <v>508</v>
-      </c>
-      <c r="K57" t="s">
-        <v>509</v>
-      </c>
+      <c r="J57"/>
+      <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="N57"/>
       <c r="O57" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
       <c r="S57"/>
       <c r="T57" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="U57" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="V57"/>
     </row>
@@ -7566,49 +7523,39 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
-      </c>
-      <c r="G58" t="s">
-        <v>132</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G58"/>
       <c r="H58" t="s">
         <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58" t="s">
-        <v>512</v>
-      </c>
+      <c r="M58"/>
       <c r="N58"/>
-      <c r="O58" t="s">
-        <v>500</v>
-      </c>
+      <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
-      <c r="T58" t="s">
-        <v>513</v>
-      </c>
-      <c r="U58" t="s">
-        <v>500</v>
-      </c>
+      <c r="T58"/>
+      <c r="U58"/>
       <c r="V58"/>
     </row>
     <row r="59">
@@ -7616,26 +7563,26 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
         <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -7656,26 +7603,26 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
         <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
@@ -7696,26 +7643,26 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
         <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -7736,26 +7683,26 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
         <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -7776,26 +7723,26 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E63" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
         <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
@@ -7816,26 +7763,26 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E64" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F64" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
         <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -7856,26 +7803,26 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
         <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -7896,35 +7843,39 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="C66" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
         <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
-      <c r="M66"/>
+      <c r="M66" t="s">
+        <v>495</v>
+      </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
-      <c r="Q66"/>
+      <c r="Q66" t="s">
+        <v>496</v>
+      </c>
       <c r="R66"/>
       <c r="S66"/>
       <c r="T66"/>
@@ -7936,39 +7887,35 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
         <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
-      <c r="M67" t="s">
-        <v>514</v>
-      </c>
+      <c r="M67"/>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
-      <c r="Q67" t="s">
-        <v>515</v>
-      </c>
+      <c r="Q67"/>
       <c r="R67"/>
       <c r="S67"/>
       <c r="T67"/>
@@ -7980,27 +7927,23 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="C68" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G68"/>
-      <c r="H68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" t="s">
-        <v>207</v>
-      </c>
+      <c r="H68"/>
+      <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -8020,23 +7963,27 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
+      <c r="H69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" t="s">
+        <v>206</v>
+      </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
@@ -8056,26 +8003,26 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G70"/>
       <c r="H70" t="s">
         <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -8096,27 +8043,25 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C71" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F71" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
         <v>48</v>
       </c>
-      <c r="I71" t="s">
-        <v>244</v>
-      </c>
+      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -8136,19 +8081,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
@@ -8174,19 +8119,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F73" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
@@ -8212,19 +8157,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
@@ -8250,19 +8195,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
@@ -8288,19 +8233,19 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C76" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F76" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
@@ -8326,19 +8271,19 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C77" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F77" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
@@ -8364,19 +8309,19 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F78" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G78"/>
       <c r="H78" t="s">
@@ -8402,19 +8347,19 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E79" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F79" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
@@ -8440,19 +8385,19 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C80" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E80" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F80" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
@@ -8478,19 +8423,19 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F81" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G81"/>
       <c r="H81" t="s">
@@ -8516,19 +8461,19 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F82" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
@@ -8554,19 +8499,19 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E83" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F83" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
@@ -8592,19 +8537,19 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C84" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E84" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F84" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="s">
@@ -8630,19 +8575,19 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C85" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E85" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F85" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
@@ -8668,19 +8613,19 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E86" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F86" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
@@ -8706,19 +8651,19 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
@@ -8744,19 +8689,19 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E88" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F88" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G88"/>
       <c r="H88" t="s">
@@ -8782,19 +8727,19 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E89" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F89" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
@@ -8820,19 +8765,19 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C90" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E90" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F90" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G90"/>
       <c r="H90" t="s">
@@ -8858,19 +8803,19 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E91" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F91" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="s">
@@ -8896,19 +8841,19 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E92" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="s">
@@ -8934,19 +8879,19 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C93" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E93" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="s">
@@ -8972,25 +8917,27 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="C94" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E94" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F94" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
         <v>48</v>
       </c>
-      <c r="I94"/>
+      <c r="I94" t="s">
+        <v>316</v>
+      </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
@@ -8998,10 +8945,14 @@
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
-      <c r="Q94"/>
+      <c r="Q94" t="s">
+        <v>497</v>
+      </c>
       <c r="R94"/>
       <c r="S94"/>
-      <c r="T94"/>
+      <c r="T94" t="s">
+        <v>498</v>
+      </c>
       <c r="U94"/>
       <c r="V94"/>
     </row>
@@ -9010,42 +8961,42 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C95" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E95" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F95" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
         <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
-      <c r="M95"/>
+      <c r="M95" t="s">
+        <v>317</v>
+      </c>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
-      <c r="T95" t="s">
-        <v>517</v>
-      </c>
+      <c r="T95"/>
       <c r="U95"/>
       <c r="V95"/>
     </row>
@@ -9054,38 +9005,38 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C96" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F96" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G96"/>
       <c r="H96" t="s">
         <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="R96"/>
       <c r="S96"/>
@@ -9098,38 +9049,40 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C97" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F97" t="s">
-        <v>324</v>
-      </c>
-      <c r="G97"/>
+        <v>326</v>
+      </c>
+      <c r="G97" t="s">
+        <v>327</v>
+      </c>
       <c r="H97" t="s">
         <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="R97"/>
       <c r="S97"/>
@@ -9142,41 +9095,39 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C98" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E98" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F98" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G98" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H98" t="s">
         <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
-      <c r="Q98" t="s">
-        <v>520</v>
-      </c>
+      <c r="Q98"/>
       <c r="R98"/>
       <c r="S98"/>
       <c r="T98"/>
@@ -9188,39 +9139,39 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C99" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D99" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E99" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F99" t="s">
-        <v>332</v>
-      </c>
-      <c r="G99" t="s">
-        <v>333</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G99"/>
       <c r="H99" t="s">
         <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
       <c r="M99" t="s">
-        <v>331</v>
+        <v>502</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
-      <c r="Q99"/>
+      <c r="Q99" t="s">
+        <v>503</v>
+      </c>
       <c r="R99"/>
       <c r="S99"/>
       <c r="T99"/>
@@ -9232,85 +9183,41 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>314</v>
+        <v>118</v>
       </c>
       <c r="C100" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E100" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F100" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="s">
         <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
-      <c r="M100" t="s">
-        <v>521</v>
-      </c>
+      <c r="M100"/>
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
-      <c r="Q100" t="s">
-        <v>522</v>
-      </c>
+      <c r="Q100"/>
       <c r="R100"/>
       <c r="S100"/>
       <c r="T100"/>
       <c r="U100"/>
       <c r="V100"/>
     </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>338</v>
-      </c>
-      <c r="E101" t="s">
-        <v>339</v>
-      </c>
-      <c r="F101" t="s">
-        <v>340</v>
-      </c>
-      <c r="G101"/>
-      <c r="H101" t="s">
-        <v>48</v>
-      </c>
-      <c r="I101" t="s">
-        <v>341</v>
-      </c>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
-      <c r="P101"/>
-      <c r="Q101"/>
-      <c r="R101"/>
-      <c r="S101"/>
-      <c r="T101"/>
-      <c r="U101"/>
-      <c r="V101"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -277,6 +277,9 @@
     <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
   </si>
   <si>
+    <t xml:space="preserve">Interger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wadable, Botable</t>
   </si>
   <si>
@@ -297,9 +300,6 @@
   </si>
   <si>
     <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interger</t>
   </si>
   <si>
     <t xml:space="preserve">ResultTypeCV</t>
@@ -2082,7 +2082,9 @@
         <v>36</v>
       </c>
       <c r="D8"/>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
       <c r="F8"/>
       <c r="G8" t="s">
         <v>15</v>
@@ -2604,7 +2606,9 @@
       </c>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -2655,12 +2659,12 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
@@ -2673,16 +2677,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -2749,16 +2753,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -5470,7 +5474,9 @@
         <v>36</v>
       </c>
       <c r="G10"/>
-      <c r="H10"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -6050,7 +6056,9 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -6127,7 +6135,7 @@
         <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
@@ -6159,19 +6167,19 @@
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
         <v>411</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="s">
@@ -6201,17 +6209,17 @@
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">The ScienceBase ID number of the dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">Integer</t>
+    <t xml:space="preserve">Interger</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
@@ -208,9 +208,6 @@
     <t xml:space="preserve">The verbatim original longitude of the Location. The coordinate ellipsoid, geodeticDatum, or full Spatial Reference System (SRS) for these coordinates should be stored in verbatimSRS and the coordinate system should be stored in verbatimCoordinateSystem.</t>
   </si>
   <si>
-    <t xml:space="preserve">The ellipsoid, geodetic datum, or spatial reference system (SRS) upon which coordinates given in verbatimLatitude and verbatimLongitude, or verbatimCoordinates are based.</t>
-  </si>
-  <si>
     <t xml:space="preserve">locationDescription</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
   </si>
   <si>
     <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interger</t>
   </si>
   <si>
     <t xml:space="preserve">Wadable, Botable</t>
@@ -1207,9 +1201,6 @@
   </si>
   <si>
     <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spatial Reference System (SRS)</t>
   </si>
   <si>
     <t xml:space="preserve">Event</t>
@@ -2384,13 +2375,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
@@ -2400,7 +2391,9 @@
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
       <c r="I11"/>
       <c r="J11" t="s">
         <v>16</v>
@@ -2411,14 +2404,12 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C12"/>
       <c r="D12"/>
       <c r="E12" t="s">
         <v>25</v>
@@ -2428,9 +2419,11 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12"/>
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
@@ -2440,10 +2433,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -2451,46 +2444,17 @@
         <v>25</v>
       </c>
       <c r="F13"/>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+      <c r="G13"/>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2548,10 +2512,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
@@ -2575,13 +2539,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -2602,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2613,7 +2577,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -2623,13 +2587,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -2650,21 +2614,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
@@ -2677,16 +2641,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -2753,16 +2717,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -2782,13 +2746,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -2798,10 +2762,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -2815,10 +2779,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
@@ -2829,7 +2793,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -2844,13 +2808,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2861,7 +2825,7 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -2875,13 +2839,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
         <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -2902,13 +2866,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
         <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2938,22 +2902,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2965,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2979,29 +2943,29 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
         <v>119</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -3012,19 +2976,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
         <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
@@ -3043,31 +3007,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
         <v>128</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
         <v>130</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>131</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5">
@@ -3078,31 +3042,31 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
         <v>134</v>
       </c>
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" t="s">
-        <v>136</v>
-      </c>
       <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" t="s">
         <v>131</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -3113,29 +3077,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
         <v>137</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" t="s">
-        <v>139</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -3146,19 +3110,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" t="s">
-        <v>143</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -3177,29 +3141,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
         <v>144</v>
-      </c>
-      <c r="F8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" t="s">
-        <v>146</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -3210,19 +3174,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
         <v>148</v>
-      </c>
-      <c r="F9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" t="s">
-        <v>150</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
@@ -3232,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -3243,29 +3207,29 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
         <v>152</v>
-      </c>
-      <c r="F10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" t="s">
-        <v>154</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
         <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -3276,29 +3240,29 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" t="s">
         <v>156</v>
-      </c>
-      <c r="F11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" t="s">
-        <v>158</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -3309,29 +3273,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" t="s">
         <v>159</v>
-      </c>
-      <c r="F12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" t="s">
-        <v>161</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -3342,31 +3306,31 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
         <v>162</v>
       </c>
-      <c r="F13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" t="s">
-        <v>164</v>
-      </c>
       <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
         <v>131</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -3377,28 +3341,28 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" t="n">
         <v>16</v>
       </c>
       <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" t="s">
         <v>166</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>167</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
         <v>168</v>
-      </c>
-      <c r="H14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>170</v>
       </c>
       <c r="K14" t="s">
         <v>54</v>
@@ -3412,31 +3376,31 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D15" t="n">
         <v>17</v>
       </c>
       <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" t="s">
         <v>171</v>
       </c>
-      <c r="F15" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" t="s">
-        <v>173</v>
-      </c>
       <c r="H15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
         <v>131</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -3447,31 +3411,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" t="n">
         <v>18</v>
       </c>
       <c r="E16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
         <v>175</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>176</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
         <v>177</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>178</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
-        <v>179</v>
-      </c>
-      <c r="K16" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -3482,31 +3446,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" t="n">
         <v>19</v>
       </c>
       <c r="E17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
         <v>181</v>
       </c>
-      <c r="F17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" t="s">
-        <v>183</v>
-      </c>
       <c r="H17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
         <v>131</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -3517,31 +3481,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" t="n">
         <v>20</v>
       </c>
       <c r="E18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
         <v>184</v>
       </c>
-      <c r="F18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s">
-        <v>186</v>
-      </c>
       <c r="H18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
         <v>131</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19">
@@ -3552,31 +3516,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
         <v>187</v>
       </c>
-      <c r="F19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" t="s">
-        <v>189</v>
-      </c>
       <c r="H19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
         <v>178</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -3587,31 +3551,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" t="n">
         <v>22</v>
       </c>
       <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
         <v>190</v>
       </c>
-      <c r="F20" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" t="s">
-        <v>192</v>
-      </c>
       <c r="H20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s">
         <v>178</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -3622,31 +3586,31 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21" t="n">
         <v>23</v>
       </c>
       <c r="E21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
         <v>193</v>
       </c>
-      <c r="F21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" t="s">
-        <v>195</v>
-      </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -3657,31 +3621,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" t="n">
         <v>24</v>
       </c>
       <c r="E22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
         <v>196</v>
       </c>
-      <c r="F22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" t="s">
-        <v>198</v>
-      </c>
       <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" t="s">
         <v>131</v>
-      </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23">
@@ -3692,31 +3656,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" t="n">
         <v>25</v>
       </c>
       <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
         <v>199</v>
       </c>
-      <c r="F23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" t="s">
-        <v>201</v>
-      </c>
       <c r="H23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" t="s">
         <v>131</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="24">
@@ -3727,29 +3691,29 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D24" t="n">
         <v>26</v>
       </c>
       <c r="E24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
         <v>203</v>
-      </c>
-      <c r="F24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" t="s">
-        <v>205</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
         <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -3760,29 +3724,29 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D25" t="n">
         <v>27</v>
       </c>
       <c r="E25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
         <v>207</v>
-      </c>
-      <c r="F25" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" t="s">
-        <v>209</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
         <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -3793,29 +3757,29 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D26" t="n">
         <v>28</v>
       </c>
       <c r="E26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
         <v>210</v>
-      </c>
-      <c r="F26" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" t="s">
-        <v>212</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -3826,29 +3790,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D27" t="n">
         <v>29</v>
       </c>
       <c r="E27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
         <v>213</v>
-      </c>
-      <c r="F27" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" t="s">
-        <v>215</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -3859,29 +3823,29 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D28" t="n">
         <v>30</v>
       </c>
       <c r="E28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
         <v>216</v>
-      </c>
-      <c r="F28" t="s">
-        <v>217</v>
-      </c>
-      <c r="G28" t="s">
-        <v>218</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -3892,29 +3856,29 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" t="n">
         <v>31</v>
       </c>
       <c r="E29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
         <v>219</v>
-      </c>
-      <c r="F29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" t="s">
-        <v>221</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
         <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -3925,29 +3889,29 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D30" t="n">
         <v>32</v>
       </c>
       <c r="E30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
         <v>222</v>
-      </c>
-      <c r="F30" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" t="s">
-        <v>224</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
         <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -3958,29 +3922,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D31" t="n">
         <v>33</v>
       </c>
       <c r="E31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
         <v>225</v>
-      </c>
-      <c r="F31" t="s">
-        <v>226</v>
-      </c>
-      <c r="G31" t="s">
-        <v>227</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
@@ -3991,29 +3955,29 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" t="n">
         <v>8</v>
       </c>
       <c r="E32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
         <v>228</v>
-      </c>
-      <c r="F32" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" t="s">
-        <v>230</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
         <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -4024,29 +3988,29 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" t="n">
         <v>34</v>
       </c>
       <c r="E33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" t="s">
         <v>231</v>
-      </c>
-      <c r="F33" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" t="s">
-        <v>233</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
         <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
@@ -4057,25 +4021,25 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
       </c>
       <c r="E34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
         <v>234</v>
-      </c>
-      <c r="F34" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" t="s">
-        <v>236</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
@@ -4086,29 +4050,29 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D35" t="n">
         <v>35</v>
       </c>
       <c r="E35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" t="s">
         <v>237</v>
-      </c>
-      <c r="F35" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" t="s">
-        <v>239</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
         <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36">
@@ -4119,29 +4083,29 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D36" t="n">
         <v>36</v>
       </c>
       <c r="E36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" t="s">
         <v>240</v>
-      </c>
-      <c r="F36" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" t="s">
-        <v>242</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
         <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37">
@@ -4152,19 +4116,19 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D37" t="n">
         <v>37</v>
       </c>
       <c r="E37" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" t="s">
         <v>244</v>
-      </c>
-      <c r="F37" t="s">
-        <v>245</v>
-      </c>
-      <c r="G37" t="s">
-        <v>246</v>
       </c>
       <c r="H37"/>
       <c r="I37" t="s">
@@ -4172,7 +4136,7 @@
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38">
@@ -4183,19 +4147,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D38" t="n">
         <v>38</v>
       </c>
       <c r="E38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" t="s">
         <v>247</v>
-      </c>
-      <c r="F38" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" t="s">
-        <v>249</v>
       </c>
       <c r="H38"/>
       <c r="I38" t="s">
@@ -4203,7 +4167,7 @@
       </c>
       <c r="J38"/>
       <c r="K38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39">
@@ -4214,19 +4178,19 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D39" t="n">
         <v>39</v>
       </c>
       <c r="E39" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" t="s">
         <v>250</v>
-      </c>
-      <c r="F39" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" t="s">
-        <v>252</v>
       </c>
       <c r="H39"/>
       <c r="I39" t="s">
@@ -4234,7 +4198,7 @@
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40">
@@ -4245,19 +4209,19 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D40" t="n">
         <v>40</v>
       </c>
       <c r="E40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" t="s">
         <v>253</v>
-      </c>
-      <c r="F40" t="s">
-        <v>254</v>
-      </c>
-      <c r="G40" t="s">
-        <v>255</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
@@ -4265,7 +4229,7 @@
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
@@ -4276,19 +4240,19 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D41" t="n">
         <v>41</v>
       </c>
       <c r="E41" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" t="s">
         <v>256</v>
-      </c>
-      <c r="F41" t="s">
-        <v>257</v>
-      </c>
-      <c r="G41" t="s">
-        <v>258</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
@@ -4296,7 +4260,7 @@
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
@@ -4307,19 +4271,19 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D42" t="n">
         <v>42</v>
       </c>
       <c r="E42" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" t="s">
         <v>259</v>
-      </c>
-      <c r="F42" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" t="s">
-        <v>261</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
@@ -4327,7 +4291,7 @@
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43">
@@ -4338,19 +4302,19 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D43" t="n">
         <v>43</v>
       </c>
       <c r="E43" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" t="s">
+        <v>261</v>
+      </c>
+      <c r="G43" t="s">
         <v>262</v>
-      </c>
-      <c r="F43" t="s">
-        <v>263</v>
-      </c>
-      <c r="G43" t="s">
-        <v>264</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="s">
@@ -4358,7 +4322,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44">
@@ -4369,19 +4333,19 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D44" t="n">
         <v>44</v>
       </c>
       <c r="E44" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" t="s">
         <v>265</v>
-      </c>
-      <c r="F44" t="s">
-        <v>266</v>
-      </c>
-      <c r="G44" t="s">
-        <v>267</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="s">
@@ -4389,7 +4353,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
@@ -4400,19 +4364,19 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D45" t="n">
         <v>45</v>
       </c>
       <c r="E45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" t="s">
         <v>268</v>
-      </c>
-      <c r="F45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G45" t="s">
-        <v>270</v>
       </c>
       <c r="H45"/>
       <c r="I45" t="s">
@@ -4420,7 +4384,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
@@ -4431,19 +4395,19 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D46" t="n">
         <v>46</v>
       </c>
       <c r="E46" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" t="s">
         <v>271</v>
-      </c>
-      <c r="F46" t="s">
-        <v>272</v>
-      </c>
-      <c r="G46" t="s">
-        <v>273</v>
       </c>
       <c r="H46"/>
       <c r="I46" t="s">
@@ -4451,7 +4415,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47">
@@ -4462,19 +4426,19 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D47" t="n">
         <v>47</v>
       </c>
       <c r="E47" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" t="s">
         <v>274</v>
-      </c>
-      <c r="F47" t="s">
-        <v>275</v>
-      </c>
-      <c r="G47" t="s">
-        <v>276</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="s">
@@ -4482,7 +4446,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48">
@@ -4493,19 +4457,19 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D48" t="n">
         <v>48</v>
       </c>
       <c r="E48" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G48" t="s">
         <v>277</v>
-      </c>
-      <c r="F48" t="s">
-        <v>278</v>
-      </c>
-      <c r="G48" t="s">
-        <v>279</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="s">
@@ -4513,7 +4477,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
@@ -4524,19 +4488,19 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D49" t="n">
         <v>49</v>
       </c>
       <c r="E49" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" t="s">
         <v>280</v>
-      </c>
-      <c r="F49" t="s">
-        <v>281</v>
-      </c>
-      <c r="G49" t="s">
-        <v>282</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="s">
@@ -4544,7 +4508,7 @@
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
@@ -4555,19 +4519,19 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D50" t="n">
         <v>50</v>
       </c>
       <c r="E50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" t="s">
         <v>283</v>
-      </c>
-      <c r="F50" t="s">
-        <v>284</v>
-      </c>
-      <c r="G50" t="s">
-        <v>285</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="s">
@@ -4575,7 +4539,7 @@
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
@@ -4586,19 +4550,19 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D51" t="n">
         <v>51</v>
       </c>
       <c r="E51" t="s">
+        <v>284</v>
+      </c>
+      <c r="F51" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" t="s">
         <v>286</v>
-      </c>
-      <c r="F51" t="s">
-        <v>287</v>
-      </c>
-      <c r="G51" t="s">
-        <v>288</v>
       </c>
       <c r="H51"/>
       <c r="I51" t="s">
@@ -4606,7 +4570,7 @@
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52">
@@ -4617,19 +4581,19 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D52" t="n">
         <v>52</v>
       </c>
       <c r="E52" t="s">
+        <v>287</v>
+      </c>
+      <c r="F52" t="s">
+        <v>288</v>
+      </c>
+      <c r="G52" t="s">
         <v>289</v>
-      </c>
-      <c r="F52" t="s">
-        <v>290</v>
-      </c>
-      <c r="G52" t="s">
-        <v>291</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="s">
@@ -4637,7 +4601,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53">
@@ -4648,19 +4612,19 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D53" t="n">
         <v>53</v>
       </c>
       <c r="E53" t="s">
+        <v>290</v>
+      </c>
+      <c r="F53" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" t="s">
         <v>292</v>
-      </c>
-      <c r="F53" t="s">
-        <v>293</v>
-      </c>
-      <c r="G53" t="s">
-        <v>294</v>
       </c>
       <c r="H53"/>
       <c r="I53" t="s">
@@ -4668,7 +4632,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54">
@@ -4679,19 +4643,19 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D54" t="n">
         <v>54</v>
       </c>
       <c r="E54" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" t="s">
         <v>295</v>
-      </c>
-      <c r="F54" t="s">
-        <v>296</v>
-      </c>
-      <c r="G54" t="s">
-        <v>297</v>
       </c>
       <c r="H54"/>
       <c r="I54" t="s">
@@ -4699,7 +4663,7 @@
       </c>
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55">
@@ -4710,19 +4674,19 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D55" t="n">
         <v>55</v>
       </c>
       <c r="E55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F55" t="s">
+        <v>297</v>
+      </c>
+      <c r="G55" t="s">
         <v>298</v>
-      </c>
-      <c r="F55" t="s">
-        <v>299</v>
-      </c>
-      <c r="G55" t="s">
-        <v>300</v>
       </c>
       <c r="H55"/>
       <c r="I55" t="s">
@@ -4730,7 +4694,7 @@
       </c>
       <c r="J55"/>
       <c r="K55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56">
@@ -4741,19 +4705,19 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D56" t="n">
         <v>56</v>
       </c>
       <c r="E56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" t="s">
+        <v>300</v>
+      </c>
+      <c r="G56" t="s">
         <v>301</v>
-      </c>
-      <c r="F56" t="s">
-        <v>302</v>
-      </c>
-      <c r="G56" t="s">
-        <v>303</v>
       </c>
       <c r="H56"/>
       <c r="I56" t="s">
@@ -4761,7 +4725,7 @@
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
@@ -4772,19 +4736,19 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D57" t="n">
         <v>57</v>
       </c>
       <c r="E57" t="s">
+        <v>302</v>
+      </c>
+      <c r="F57" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" t="s">
         <v>304</v>
-      </c>
-      <c r="F57" t="s">
-        <v>305</v>
-      </c>
-      <c r="G57" t="s">
-        <v>306</v>
       </c>
       <c r="H57"/>
       <c r="I57" t="s">
@@ -4792,7 +4756,7 @@
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58">
@@ -4803,19 +4767,19 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D58" t="n">
         <v>58</v>
       </c>
       <c r="E58" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" t="s">
         <v>307</v>
-      </c>
-      <c r="F58" t="s">
-        <v>308</v>
-      </c>
-      <c r="G58" t="s">
-        <v>309</v>
       </c>
       <c r="H58"/>
       <c r="I58" t="s">
@@ -4823,7 +4787,7 @@
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59">
@@ -4834,19 +4798,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D59" t="n">
         <v>59</v>
       </c>
       <c r="E59" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" t="s">
         <v>310</v>
-      </c>
-      <c r="F59" t="s">
-        <v>311</v>
-      </c>
-      <c r="G59" t="s">
-        <v>312</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="s">
@@ -4854,7 +4818,7 @@
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60">
@@ -4865,29 +4829,29 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D60" t="n">
         <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G60" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="s">
         <v>48</v>
       </c>
       <c r="J60" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
@@ -4898,29 +4862,29 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D61" t="n">
         <v>61</v>
       </c>
       <c r="E61" t="s">
+        <v>315</v>
+      </c>
+      <c r="F61" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" t="s">
         <v>317</v>
-      </c>
-      <c r="F61" t="s">
-        <v>318</v>
-      </c>
-      <c r="G61" t="s">
-        <v>319</v>
       </c>
       <c r="H61"/>
       <c r="I61" t="s">
         <v>48</v>
       </c>
       <c r="J61" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
@@ -4931,29 +4895,29 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D62" t="n">
         <v>62</v>
       </c>
       <c r="E62" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" t="s">
         <v>321</v>
-      </c>
-      <c r="F62" t="s">
-        <v>322</v>
-      </c>
-      <c r="G62" t="s">
-        <v>323</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="s">
         <v>48</v>
       </c>
       <c r="J62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
@@ -4964,31 +4928,31 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D63" t="n">
         <v>63</v>
       </c>
       <c r="E63" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" t="s">
+        <v>323</v>
+      </c>
+      <c r="G63" t="s">
         <v>324</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>325</v>
       </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" t="s">
         <v>326</v>
       </c>
-      <c r="H63" t="s">
+      <c r="K63" t="s">
         <v>327</v>
-      </c>
-      <c r="I63" t="s">
-        <v>48</v>
-      </c>
-      <c r="J63" t="s">
-        <v>328</v>
-      </c>
-      <c r="K63" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="64">
@@ -4999,22 +4963,22 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D64" t="n">
         <v>64</v>
       </c>
       <c r="E64" t="s">
+        <v>328</v>
+      </c>
+      <c r="F64" t="s">
+        <v>328</v>
+      </c>
+      <c r="G64" t="s">
+        <v>329</v>
+      </c>
+      <c r="H64" t="s">
         <v>330</v>
-      </c>
-      <c r="F64" t="s">
-        <v>330</v>
-      </c>
-      <c r="G64" t="s">
-        <v>331</v>
-      </c>
-      <c r="H64" t="s">
-        <v>332</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
@@ -5023,7 +4987,7 @@
         <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65">
@@ -5034,29 +4998,29 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D65" t="n">
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="s">
         <v>48</v>
       </c>
       <c r="J65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
@@ -5067,29 +5031,29 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D66" t="n">
         <v>2</v>
       </c>
       <c r="E66" t="s">
+        <v>335</v>
+      </c>
+      <c r="F66" t="s">
+        <v>336</v>
+      </c>
+      <c r="G66" t="s">
         <v>337</v>
-      </c>
-      <c r="F66" t="s">
-        <v>338</v>
-      </c>
-      <c r="G66" t="s">
-        <v>339</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="s">
         <v>48</v>
       </c>
       <c r="J66" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5108,19 +5072,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -5132,51 +5096,51 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1" t="s">
         <v>341</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>342</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>343</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>344</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>345</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>346</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>348</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>349</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>350</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>351</v>
-      </c>
-      <c r="U1" t="s">
-        <v>352</v>
-      </c>
-      <c r="V1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -5212,7 +5176,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -5220,7 +5184,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5248,7 +5212,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -5256,7 +5220,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -5284,7 +5248,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -5292,7 +5256,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5318,7 +5282,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -5326,7 +5290,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -5354,21 +5318,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" t="s">
         <v>359</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>360</v>
-      </c>
-      <c r="F7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G7" t="s">
-        <v>362</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -5390,7 +5354,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -5398,7 +5362,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -5426,21 +5390,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" t="s">
         <v>364</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>365</v>
-      </c>
-      <c r="F9" t="s">
-        <v>366</v>
-      </c>
-      <c r="G9" t="s">
-        <v>367</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -5462,7 +5426,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -5494,7 +5458,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -5502,7 +5466,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -5530,7 +5494,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -5538,7 +5502,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -5551,32 +5515,32 @@
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -5584,7 +5548,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -5600,10 +5564,10 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -5616,7 +5580,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5624,7 +5588,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
@@ -5650,7 +5614,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -5658,7 +5622,7 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
         <v>52</v>
@@ -5684,7 +5648,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -5692,7 +5656,7 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -5718,7 +5682,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5726,7 +5690,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -5737,32 +5701,32 @@
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -5770,7 +5734,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -5796,7 +5760,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -5804,7 +5768,7 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -5815,43 +5779,41 @@
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>394</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
@@ -5874,17 +5836,15 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21"/>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
+      <c r="F21"/>
       <c r="G21"/>
       <c r="H21" t="s">
         <v>25</v>
@@ -5906,12 +5866,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -5936,15 +5896,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>393</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
       <c r="G23"/>
       <c r="H23" t="s">
         <v>25</v>
@@ -5966,108 +5930,116 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24"/>
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
       <c r="H24" t="s">
         <v>25</v>
       </c>
       <c r="I24"/>
-      <c r="J24"/>
+      <c r="J24" t="s">
+        <v>395</v>
+      </c>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
+      <c r="M24" t="s">
+        <v>396</v>
+      </c>
+      <c r="N24" t="s">
+        <v>397</v>
+      </c>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24"/>
+      <c r="Q24" t="s">
+        <v>396</v>
+      </c>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24"/>
+      <c r="T24" t="s">
+        <v>398</v>
+      </c>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>397</v>
-      </c>
-      <c r="F25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" t="s">
         <v>77</v>
       </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25"/>
-      <c r="J25" t="s">
-        <v>398</v>
-      </c>
+      <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25" t="s">
-        <v>399</v>
-      </c>
-      <c r="N25" t="s">
-        <v>400</v>
-      </c>
+      <c r="M25"/>
+      <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25" t="s">
-        <v>399</v>
-      </c>
+      <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" t="s">
-        <v>401</v>
-      </c>
+      <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I26"/>
-      <c r="J26"/>
+      <c r="J26" t="s">
+        <v>399</v>
+      </c>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="M26" t="s">
+        <v>400</v>
+      </c>
+      <c r="N26" t="s">
+        <v>401</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26"/>
+      <c r="Q26" t="s">
+        <v>402</v>
+      </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
@@ -6076,39 +6048,41 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27"/>
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>403</v>
+      </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
@@ -6118,37 +6092,33 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28" t="s">
-        <v>408</v>
-      </c>
-      <c r="N28" t="s">
-        <v>409</v>
-      </c>
+      <c r="M28"/>
+      <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="s">
@@ -6156,70 +6126,64 @@
       </c>
       <c r="R28"/>
       <c r="S28"/>
-      <c r="T28"/>
+      <c r="T28" t="s">
+        <v>411</v>
+      </c>
       <c r="U28"/>
       <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>411</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E29"/>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="I29"/>
-      <c r="J29" t="s">
-        <v>412</v>
-      </c>
+      <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-      <c r="Q29" t="s">
-        <v>413</v>
-      </c>
+      <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
-      <c r="T29" t="s">
-        <v>414</v>
-      </c>
+      <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -6238,22 +6202,20 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" t="s">
-        <v>96</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G31"/>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -6272,20 +6234,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32"/>
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -6304,19 +6268,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H33" t="s">
         <v>25</v>
@@ -6338,23 +6302,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -6372,34 +6334,60 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" t="s">
+        <v>413</v>
+      </c>
+      <c r="K35" t="s">
+        <v>414</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35" t="s">
         <v>415</v>
       </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
+      <c r="N35" t="s">
+        <v>416</v>
+      </c>
+      <c r="O35" t="s">
+        <v>417</v>
+      </c>
       <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
+      <c r="Q35" t="s">
+        <v>418</v>
+      </c>
+      <c r="R35" t="s">
+        <v>419</v>
+      </c>
       <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
+      <c r="T35" t="s">
+        <v>420</v>
+      </c>
+      <c r="U35" t="s">
+        <v>421</v>
+      </c>
       <c r="V35"/>
     </row>
     <row r="36">
@@ -6407,57 +6395,43 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
         <v>48</v>
       </c>
-      <c r="I36" t="s">
-        <v>122</v>
-      </c>
-      <c r="J36" t="s">
-        <v>416</v>
-      </c>
-      <c r="K36" t="s">
-        <v>417</v>
-      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>418</v>
-      </c>
-      <c r="N36" t="s">
-        <v>419</v>
-      </c>
-      <c r="O36" t="s">
-        <v>420</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>421</v>
-      </c>
-      <c r="R36" t="s">
-        <v>422</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="R36"/>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>423</v>
-      </c>
-      <c r="U36" t="s">
-        <v>424</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="U36"/>
       <c r="V36"/>
     </row>
     <row r="37">
@@ -6465,43 +6439,59 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37"/>
+        <v>128</v>
+      </c>
+      <c r="G37" t="s">
+        <v>129</v>
+      </c>
       <c r="H37" t="s">
         <v>48</v>
       </c>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" t="s">
+        <v>424</v>
+      </c>
+      <c r="K37" t="s">
+        <v>425</v>
+      </c>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>425</v>
-      </c>
-      <c r="N37"/>
-      <c r="O37"/>
+        <v>426</v>
+      </c>
+      <c r="N37" t="s">
+        <v>427</v>
+      </c>
+      <c r="O37" t="s">
+        <v>428</v>
+      </c>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>426</v>
-      </c>
-      <c r="R37"/>
+        <v>429</v>
+      </c>
+      <c r="R37" t="s">
+        <v>425</v>
+      </c>
       <c r="S37"/>
       <c r="T37" t="s">
-        <v>125</v>
-      </c>
-      <c r="U37"/>
+        <v>126</v>
+      </c>
+      <c r="U37" t="s">
+        <v>430</v>
+      </c>
       <c r="V37"/>
     </row>
     <row r="38">
@@ -6509,59 +6499,47 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" t="s">
         <v>129</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
         <v>130</v>
       </c>
-      <c r="G38" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" t="s">
-        <v>132</v>
-      </c>
-      <c r="J38" t="s">
-        <v>427</v>
-      </c>
-      <c r="K38" t="s">
-        <v>428</v>
-      </c>
+      <c r="J38"/>
+      <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N38" t="s">
-        <v>430</v>
-      </c>
-      <c r="O38" t="s">
-        <v>431</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>432</v>
-      </c>
-      <c r="R38" t="s">
-        <v>428</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="R38"/>
       <c r="S38"/>
-      <c r="T38" t="s">
-        <v>128</v>
-      </c>
-      <c r="U38" t="s">
-        <v>433</v>
-      </c>
+      <c r="T38"/>
+      <c r="U38"/>
       <c r="V38"/>
     </row>
     <row r="39">
@@ -6569,46 +6547,48 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" t="s">
-        <v>131</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G39"/>
       <c r="H39" t="s">
         <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J39"/>
+        <v>120</v>
+      </c>
+      <c r="J39" t="s">
+        <v>434</v>
+      </c>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N39" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
-      <c r="T39"/>
+      <c r="T39" t="s">
+        <v>438</v>
+      </c>
       <c r="U39"/>
       <c r="V39"/>
     </row>
@@ -6617,48 +6597,40 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
         <v>48</v>
       </c>
-      <c r="I40" t="s">
-        <v>122</v>
-      </c>
+      <c r="I40"/>
       <c r="J40" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>438</v>
-      </c>
-      <c r="N40" t="s">
-        <v>439</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40" t="s">
-        <v>440</v>
-      </c>
+      <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
-      <c r="T40" t="s">
-        <v>441</v>
-      </c>
+      <c r="T40"/>
       <c r="U40"/>
       <c r="V40"/>
     </row>
@@ -6667,40 +6639,44 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
         <v>48</v>
       </c>
-      <c r="I41"/>
+      <c r="I41" t="s">
+        <v>120</v>
+      </c>
       <c r="J41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41" t="s">
-        <v>443</v>
-      </c>
+      <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41"/>
+      <c r="Q41" t="s">
+        <v>442</v>
+      </c>
       <c r="R41"/>
       <c r="S41"/>
-      <c r="T41"/>
+      <c r="T41" t="s">
+        <v>443</v>
+      </c>
       <c r="U41"/>
       <c r="V41"/>
     </row>
@@ -6709,34 +6685,38 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
         <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>444</v>
+        <v>146</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="M42" t="s">
+        <v>444</v>
+      </c>
+      <c r="N42" t="s">
+        <v>146</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -6744,9 +6724,7 @@
       </c>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42" t="s">
-        <v>446</v>
-      </c>
+      <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
     </row>
@@ -6755,29 +6733,29 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
         <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>148</v>
+        <v>446</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
@@ -6785,12 +6763,12 @@
         <v>447</v>
       </c>
       <c r="N43" t="s">
-        <v>148</v>
+        <v>448</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
@@ -6803,46 +6781,46 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
         <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N44" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44" t="s">
-        <v>452</v>
-      </c>
+      <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
-      <c r="T44"/>
+      <c r="T44" t="s">
+        <v>453</v>
+      </c>
       <c r="U44"/>
       <c r="V44"/>
     </row>
@@ -6851,46 +6829,46 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
         <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N45" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
-      <c r="Q45"/>
+      <c r="Q45" t="s">
+        <v>457</v>
+      </c>
       <c r="R45"/>
       <c r="S45"/>
-      <c r="T45" t="s">
-        <v>456</v>
-      </c>
+      <c r="T45"/>
       <c r="U45"/>
       <c r="V45"/>
     </row>
@@ -6899,146 +6877,144 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46"/>
+        <v>162</v>
+      </c>
+      <c r="G46" t="s">
+        <v>129</v>
+      </c>
       <c r="H46" t="s">
         <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>457</v>
-      </c>
-      <c r="K46"/>
-      <c r="L46"/>
+        <v>458</v>
+      </c>
+      <c r="K46" t="s">
+        <v>459</v>
+      </c>
+      <c r="L46" t="s">
+        <v>460</v>
+      </c>
       <c r="M46" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="N46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O46"/>
+        <v>462</v>
+      </c>
+      <c r="O46" t="s">
+        <v>463</v>
+      </c>
       <c r="P46"/>
-      <c r="Q46" t="s">
-        <v>460</v>
-      </c>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
+      <c r="Q46"/>
+      <c r="R46" t="s">
+        <v>464</v>
+      </c>
+      <c r="S46" t="n">
+        <v>88</v>
+      </c>
+      <c r="T46" t="s">
+        <v>465</v>
+      </c>
+      <c r="U46" t="s">
+        <v>466</v>
+      </c>
+      <c r="V46" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H47" t="s">
         <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
-      </c>
-      <c r="J47" t="s">
-        <v>461</v>
-      </c>
-      <c r="K47" t="s">
-        <v>462</v>
-      </c>
-      <c r="L47" t="s">
-        <v>463</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
       <c r="M47" t="s">
-        <v>464</v>
-      </c>
-      <c r="N47" t="s">
-        <v>465</v>
-      </c>
-      <c r="O47" t="s">
-        <v>466</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" t="s">
-        <v>467</v>
-      </c>
-      <c r="S47" t="n">
-        <v>88</v>
-      </c>
+      <c r="R47"/>
+      <c r="S47"/>
       <c r="T47" t="s">
-        <v>468</v>
-      </c>
-      <c r="U47" t="s">
-        <v>469</v>
-      </c>
-      <c r="V47" t="s">
-        <v>470</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="U47"/>
+      <c r="V47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="H48" t="s">
         <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -7047,7 +7023,7 @@
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>166</v>
+        <v>470</v>
       </c>
       <c r="U48"/>
       <c r="V48"/>
@@ -7057,45 +7033,59 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" t="s">
         <v>173</v>
       </c>
-      <c r="G49" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49"/>
+      <c r="K49" t="s">
+        <v>471</v>
+      </c>
       <c r="L49"/>
       <c r="M49" t="s">
+        <v>173</v>
+      </c>
+      <c r="N49" t="s">
+        <v>173</v>
+      </c>
+      <c r="O49" t="s">
         <v>472</v>
       </c>
-      <c r="N49"/>
-      <c r="O49"/>
       <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
+      <c r="Q49" t="s">
+        <v>473</v>
+      </c>
+      <c r="R49" t="s">
+        <v>474</v>
+      </c>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>473</v>
-      </c>
-      <c r="U49"/>
+        <v>173</v>
+      </c>
+      <c r="U49" t="s">
+        <v>471</v>
+      </c>
       <c r="V49"/>
     </row>
     <row r="50">
@@ -7103,58 +7093,56 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G50" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="H50" t="s">
         <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>175</v>
+        <v>475</v>
       </c>
       <c r="K50" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>175</v>
+        <v>476</v>
       </c>
       <c r="N50" t="s">
-        <v>175</v>
+        <v>477</v>
       </c>
       <c r="O50" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="R50" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S50"/>
-      <c r="T50" t="s">
-        <v>175</v>
-      </c>
+      <c r="T50"/>
       <c r="U50" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="V50"/>
     </row>
@@ -7163,56 +7151,54 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H51" t="s">
         <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K51" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N51" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O51" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="P51"/>
-      <c r="Q51" t="s">
-        <v>482</v>
-      </c>
+      <c r="Q51"/>
       <c r="R51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="V51"/>
     </row>
@@ -7221,55 +7207,49 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
-      </c>
-      <c r="J52" t="s">
-        <v>483</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="J52"/>
       <c r="K52" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>484</v>
-      </c>
-      <c r="N52" t="s">
-        <v>485</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N52"/>
       <c r="O52" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52" t="s">
-        <v>477</v>
-      </c>
+      <c r="R52"/>
       <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52" t="s">
-        <v>474</v>
-      </c>
+      <c r="T52" t="s">
+        <v>185</v>
+      </c>
+      <c r="U52"/>
       <c r="V52"/>
     </row>
     <row r="53">
@@ -7277,47 +7257,47 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H53" t="s">
         <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U53"/>
       <c r="V53"/>
@@ -7327,48 +7307,48 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="H54" t="s">
         <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
-      </c>
-      <c r="J54"/>
+        <v>130</v>
+      </c>
+      <c r="J54" t="s">
+        <v>484</v>
+      </c>
       <c r="K54" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L54"/>
-      <c r="M54" t="s">
-        <v>190</v>
-      </c>
+      <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P54"/>
-      <c r="Q54"/>
+      <c r="Q54" t="s">
+        <v>485</v>
+      </c>
       <c r="R54"/>
       <c r="S54"/>
-      <c r="T54" t="s">
-        <v>190</v>
-      </c>
+      <c r="T54"/>
       <c r="U54"/>
       <c r="V54"/>
     </row>
@@ -7377,49 +7357,53 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H55" t="s">
         <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
+        <v>486</v>
+      </c>
+      <c r="K55" t="s">
         <v>487</v>
       </c>
-      <c r="K55" t="s">
-        <v>474</v>
-      </c>
       <c r="L55"/>
-      <c r="M55"/>
+      <c r="M55" t="s">
+        <v>488</v>
+      </c>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="P55"/>
-      <c r="Q55" t="s">
-        <v>488</v>
-      </c>
+      <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
+      <c r="T55" t="s">
+        <v>489</v>
+      </c>
+      <c r="U55" t="s">
+        <v>478</v>
+      </c>
       <c r="V55"/>
     </row>
     <row r="56">
@@ -7427,52 +7411,48 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H56" t="s">
         <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>132</v>
-      </c>
-      <c r="J56" t="s">
-        <v>489</v>
-      </c>
-      <c r="K56" t="s">
-        <v>490</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U56" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="V56"/>
     </row>
@@ -7481,49 +7461,39 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
-        <v>201</v>
-      </c>
-      <c r="G57" t="s">
-        <v>131</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G57"/>
       <c r="H57" t="s">
         <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57" t="s">
-        <v>493</v>
-      </c>
+      <c r="M57"/>
       <c r="N57"/>
-      <c r="O57" t="s">
-        <v>481</v>
-      </c>
+      <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
       <c r="S57"/>
-      <c r="T57" t="s">
-        <v>494</v>
-      </c>
-      <c r="U57" t="s">
-        <v>481</v>
-      </c>
+      <c r="T57"/>
+      <c r="U57"/>
       <c r="V57"/>
     </row>
     <row r="58">
@@ -7531,26 +7501,26 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
         <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -7571,26 +7541,26 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C59" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
         <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -7611,26 +7581,26 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C60" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
         <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
@@ -7651,26 +7621,26 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
         <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -7691,26 +7661,26 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
         <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -7731,26 +7701,26 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
         <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
@@ -7771,26 +7741,26 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
         <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -7811,35 +7781,39 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="C65" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
         <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
-      <c r="M65"/>
+      <c r="M65" t="s">
+        <v>492</v>
+      </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65"/>
+      <c r="Q65" t="s">
+        <v>493</v>
+      </c>
       <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
@@ -7851,39 +7825,35 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
         <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
-      <c r="M66" t="s">
-        <v>495</v>
-      </c>
+      <c r="M66"/>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
-      <c r="Q66" t="s">
-        <v>496</v>
-      </c>
+      <c r="Q66"/>
       <c r="R66"/>
       <c r="S66"/>
       <c r="T66"/>
@@ -7895,27 +7865,23 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="C67" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G67"/>
-      <c r="H67" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" t="s">
-        <v>206</v>
-      </c>
+      <c r="H67"/>
+      <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
@@ -7935,23 +7901,27 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>204</v>
+      </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -7971,26 +7941,26 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
         <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
@@ -8011,27 +7981,25 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C70" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G70"/>
       <c r="H70" t="s">
         <v>48</v>
       </c>
-      <c r="I70" t="s">
-        <v>243</v>
-      </c>
+      <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -8051,19 +8019,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C71" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
@@ -8089,19 +8057,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C72" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
@@ -8127,19 +8095,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C73" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
@@ -8165,19 +8133,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
@@ -8203,19 +8171,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C75" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
@@ -8241,19 +8209,19 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C76" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
@@ -8279,19 +8247,19 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C77" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
@@ -8317,19 +8285,19 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C78" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G78"/>
       <c r="H78" t="s">
@@ -8355,19 +8323,19 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E79" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F79" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
@@ -8393,19 +8361,19 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C80" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
@@ -8431,19 +8399,19 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C81" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F81" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G81"/>
       <c r="H81" t="s">
@@ -8469,19 +8437,19 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C82" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
@@ -8507,19 +8475,19 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C83" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
@@ -8545,19 +8513,19 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C84" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F84" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="s">
@@ -8583,19 +8551,19 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C85" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F85" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
@@ -8621,19 +8589,19 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C86" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
@@ -8659,19 +8627,19 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C87" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
@@ -8697,19 +8665,19 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C88" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F88" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G88"/>
       <c r="H88" t="s">
@@ -8735,19 +8703,19 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C89" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E89" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F89" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
@@ -8773,19 +8741,19 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C90" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E90" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F90" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G90"/>
       <c r="H90" t="s">
@@ -8811,19 +8779,19 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C91" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E91" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F91" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="s">
@@ -8849,19 +8817,19 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C92" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="s">
@@ -8887,25 +8855,27 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="C93" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="s">
         <v>48</v>
       </c>
-      <c r="I93"/>
+      <c r="I93" t="s">
+        <v>314</v>
+      </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
@@ -8913,10 +8883,14 @@
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
-      <c r="Q93"/>
+      <c r="Q93" t="s">
+        <v>494</v>
+      </c>
       <c r="R93"/>
       <c r="S93"/>
-      <c r="T93"/>
+      <c r="T93" t="s">
+        <v>495</v>
+      </c>
       <c r="U93"/>
       <c r="V93"/>
     </row>
@@ -8925,42 +8899,42 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C94" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D94" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E94" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F94" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
         <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
-      <c r="M94"/>
+      <c r="M94" t="s">
+        <v>315</v>
+      </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R94"/>
       <c r="S94"/>
-      <c r="T94" t="s">
-        <v>498</v>
-      </c>
+      <c r="T94"/>
       <c r="U94"/>
       <c r="V94"/>
     </row>
@@ -8969,38 +8943,38 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C95" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D95" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F95" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
         <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
@@ -9013,38 +8987,40 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C96" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>323</v>
-      </c>
-      <c r="G96"/>
+        <v>324</v>
+      </c>
+      <c r="G96" t="s">
+        <v>325</v>
+      </c>
       <c r="H96" t="s">
         <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="R96"/>
       <c r="S96"/>
@@ -9057,41 +9033,39 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C97" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D97" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G97" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H97" t="s">
         <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
-      <c r="Q97" t="s">
-        <v>501</v>
-      </c>
+      <c r="Q97"/>
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
@@ -9103,39 +9077,39 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C98" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E98" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F98" t="s">
-        <v>331</v>
-      </c>
-      <c r="G98" t="s">
-        <v>332</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G98"/>
       <c r="H98" t="s">
         <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98" t="s">
-        <v>330</v>
+        <v>499</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
-      <c r="Q98"/>
+      <c r="Q98" t="s">
+        <v>500</v>
+      </c>
       <c r="R98"/>
       <c r="S98"/>
       <c r="T98"/>
@@ -9147,85 +9121,41 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C99" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E99" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F99" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
         <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
-      <c r="M99" t="s">
-        <v>502</v>
-      </c>
+      <c r="M99"/>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
-      <c r="Q99" t="s">
-        <v>503</v>
-      </c>
+      <c r="Q99"/>
       <c r="R99"/>
       <c r="S99"/>
       <c r="T99"/>
       <c r="U99"/>
       <c r="V99"/>
     </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s">
-        <v>337</v>
-      </c>
-      <c r="E100" t="s">
-        <v>338</v>
-      </c>
-      <c r="F100" t="s">
-        <v>339</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100" t="s">
-        <v>48</v>
-      </c>
-      <c r="I100" t="s">
-        <v>340</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-      <c r="Q100"/>
-      <c r="R100"/>
-      <c r="S100"/>
-      <c r="T100"/>
-      <c r="U100"/>
-      <c r="V100"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -1155,6 +1155,9 @@
     <t xml:space="preserve">StreamName</t>
   </si>
   <si>
+    <t xml:space="preserve">Stream</t>
+  </si>
+  <si>
     <t xml:space="preserve">Standard Latitude</t>
   </si>
   <si>
@@ -1236,6 +1239,9 @@
     <t xml:space="preserve">DATE_COL</t>
   </si>
   <si>
+    <t xml:space="preserve">SampDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sampling Protocol</t>
   </si>
   <si>
@@ -1251,6 +1257,9 @@
     <t xml:space="preserve">VALXSITE</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sample Year</t>
   </si>
   <si>
@@ -1329,6 +1338,9 @@
     <t xml:space="preserve">PCT_DRS</t>
   </si>
   <si>
+    <t xml:space="preserve">StrmFlow</t>
+  </si>
+  <si>
     <t xml:space="preserve">REACH_LENGTH</t>
   </si>
   <si>
@@ -1467,6 +1479,9 @@
     <t xml:space="preserve">PCT_SAFN</t>
   </si>
   <si>
+    <t xml:space="preserve">Fines2</t>
+  </si>
+  <si>
     <t xml:space="preserve">pect_fines_tran6</t>
   </si>
   <si>
@@ -1476,6 +1491,9 @@
     <t xml:space="preserve">PctFinesLessThan6mm</t>
   </si>
   <si>
+    <t xml:space="preserve">Fines6</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
   </si>
   <si>
@@ -1494,13 +1512,7 @@
     <t xml:space="preserve">PL_TL_FN</t>
   </si>
   <si>
-    <t xml:space="preserve">Fines2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PL_TL_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fines6</t>
   </si>
   <si>
     <t xml:space="preserve">ThalwegDepthMean</t>
@@ -5574,7 +5586,9 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="T13"/>
+      <c r="T13" t="s">
+        <v>376</v>
+      </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
@@ -5588,7 +5602,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
@@ -5622,7 +5636,7 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F15" t="s">
         <v>52</v>
@@ -5656,7 +5670,7 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -5690,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -5701,25 +5715,25 @@
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
@@ -5734,7 +5748,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -5768,7 +5782,7 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -5779,25 +5793,25 @@
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
@@ -5896,7 +5910,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -5904,7 +5918,7 @@
         <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
@@ -5930,7 +5944,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -5938,7 +5952,7 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -5951,32 +5965,32 @@
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N24" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -6006,7 +6020,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -6025,30 +6039,32 @@
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
-      <c r="T26"/>
+      <c r="T26" t="s">
+        <v>404</v>
+      </c>
       <c r="U26"/>
       <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -6056,7 +6072,7 @@
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
@@ -6069,30 +6085,32 @@
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N27" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
-      <c r="T27"/>
+      <c r="T27" t="s">
+        <v>410</v>
+      </c>
       <c r="U27"/>
       <c r="V27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -6100,7 +6118,7 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
@@ -6113,7 +6131,7 @@
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -6122,19 +6140,19 @@
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -6168,7 +6186,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -6202,7 +6220,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -6234,7 +6252,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -6268,7 +6286,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -6302,7 +6320,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -6359,34 +6377,34 @@
         <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K35" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N35" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="O35" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="R35" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="S35"/>
       <c r="T35" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="U35" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="V35"/>
     </row>
@@ -6418,13 +6436,13 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
@@ -6463,34 +6481,34 @@
         <v>130</v>
       </c>
       <c r="J37" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K37" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N37" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="O37" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="R37" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="S37"/>
       <c r="T37" t="s">
         <v>126</v>
       </c>
       <c r="U37" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V37"/>
     </row>
@@ -6526,19 +6544,21 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
-      <c r="T38"/>
+      <c r="T38" t="s">
+        <v>437</v>
+      </c>
       <c r="U38"/>
       <c r="V38"/>
     </row>
@@ -6569,25 +6589,25 @@
         <v>120</v>
       </c>
       <c r="J39" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N39" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="U39"/>
       <c r="V39"/>
@@ -6617,12 +6637,12 @@
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -6661,7 +6681,7 @@
         <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -6670,12 +6690,12 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -6712,7 +6732,7 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N42" t="s">
         <v>146</v>
@@ -6720,7 +6740,7 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
@@ -6755,20 +6775,20 @@
         <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N43" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
@@ -6803,15 +6823,15 @@
         <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N44" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
@@ -6819,7 +6839,7 @@
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="U44"/>
       <c r="V44"/>
@@ -6851,20 +6871,20 @@
         <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N45" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
@@ -6901,39 +6921,39 @@
         <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K46" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L46" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M46" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N46" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O46" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="S46" t="n">
         <v>88</v>
       </c>
       <c r="T46" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="U46" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="V46" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47">
@@ -6968,7 +6988,7 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -7014,7 +7034,7 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -7023,7 +7043,7 @@
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="U48"/>
       <c r="V48"/>
@@ -7060,7 +7080,7 @@
         <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
@@ -7070,21 +7090,21 @@
         <v>173</v>
       </c>
       <c r="O49" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P49"/>
       <c r="Q49" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="R49" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="s">
         <v>173</v>
       </c>
       <c r="U49" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="V49"/>
     </row>
@@ -7117,32 +7137,34 @@
         <v>130</v>
       </c>
       <c r="J50" t="s">
+        <v>479</v>
+      </c>
+      <c r="K50" t="s">
         <v>475</v>
-      </c>
-      <c r="K50" t="s">
-        <v>471</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="N50" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="O50" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="R50" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="S50"/>
-      <c r="T50"/>
+      <c r="T50" t="s">
+        <v>484</v>
+      </c>
       <c r="U50" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="V50"/>
     </row>
@@ -7175,30 +7197,32 @@
         <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K51" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="N51" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="O51" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="S51"/>
-      <c r="T51"/>
+      <c r="T51" t="s">
+        <v>488</v>
+      </c>
       <c r="U51" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="V51"/>
     </row>
@@ -7232,7 +7256,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
@@ -7240,7 +7264,7 @@
       </c>
       <c r="N52"/>
       <c r="O52" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
@@ -7282,7 +7306,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
@@ -7290,7 +7314,7 @@
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
@@ -7331,20 +7355,20 @@
         <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K54" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="R54"/>
       <c r="S54"/>
@@ -7381,28 +7405,28 @@
         <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K55" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="L55"/>
       <c r="M55" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="U55" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="V55"/>
     </row>
@@ -7438,21 +7462,21 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="U56" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="V56"/>
     </row>
@@ -7806,13 +7830,13 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="R65"/>
       <c r="S65"/>
@@ -8884,12 +8908,12 @@
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="R93"/>
       <c r="S93"/>
       <c r="T93" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="U93"/>
       <c r="V93"/>
@@ -8930,7 +8954,7 @@
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="R94"/>
       <c r="S94"/>
@@ -8974,7 +8998,7 @@
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
@@ -9020,7 +9044,7 @@
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="R96"/>
       <c r="S96"/>
@@ -9102,13 +9126,13 @@
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="R98"/>
       <c r="S98"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -1344,6 +1344,9 @@
     <t xml:space="preserve">REACH_LENGTH</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOT_RCH_LEN</t>
   </si>
   <si>
@@ -1392,15 +1395,27 @@
     <t xml:space="preserve">ave_residual_depth</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
     <t xml:space="preserve">RES_PL_DEP</t>
   </si>
   <si>
     <t xml:space="preserve">ResPoolDepthAvg</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6875</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoolDp</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
     <t xml:space="preserve">wettedWidth_ave</t>
   </si>
   <si>
@@ -1416,9 +1431,6 @@
     <t xml:space="preserve">PctReachInPools</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
   </si>
   <si>
@@ -1428,30 +1440,27 @@
     <t xml:space="preserve">PctPools</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6875</t>
-  </si>
-  <si>
     <t xml:space="preserve">PoolPct</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
   </si>
   <si>
     <t xml:space="preserve">BNK_AN</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
     <t xml:space="preserve">BNK_STBLTY</t>
   </si>
   <si>
     <t xml:space="preserve">Stab</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
   </si>
   <si>
@@ -1521,12 +1530,21 @@
     <t xml:space="preserve">XDEPTH_CM</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/5537</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSS</t>
   </si>
   <si>
     <t xml:space="preserve">Cond</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
+  </si>
+  <si>
     <t xml:space="preserve">NTL</t>
   </si>
   <si>
@@ -1540,6 +1558,9 @@
   </si>
   <si>
     <t xml:space="preserve">TURB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3806</t>
   </si>
 </sst>
 </file>
@@ -6591,25 +6612,29 @@
       <c r="J39" t="s">
         <v>438</v>
       </c>
-      <c r="K39"/>
+      <c r="K39" t="s">
+        <v>439</v>
+      </c>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N39" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39" t="s">
-        <v>442</v>
-      </c>
-      <c r="U39"/>
+        <v>443</v>
+      </c>
+      <c r="U39" t="s">
+        <v>433</v>
+      </c>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -6637,12 +6662,12 @@
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -6681,7 +6706,7 @@
         <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -6690,12 +6715,12 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -6732,7 +6757,7 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N42" t="s">
         <v>146</v>
@@ -6740,7 +6765,7 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
@@ -6775,20 +6800,20 @@
         <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
@@ -6823,25 +6848,33 @@
         <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>454</v>
-      </c>
-      <c r="K44"/>
+        <v>455</v>
+      </c>
+      <c r="K44" t="s">
+        <v>456</v>
+      </c>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N44" t="s">
-        <v>456</v>
-      </c>
-      <c r="O44"/>
+        <v>458</v>
+      </c>
+      <c r="O44" t="s">
+        <v>459</v>
+      </c>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
+      <c r="R44" t="s">
+        <v>460</v>
+      </c>
       <c r="S44"/>
       <c r="T44" t="s">
-        <v>457</v>
-      </c>
-      <c r="U44"/>
+        <v>461</v>
+      </c>
+      <c r="U44" t="s">
+        <v>462</v>
+      </c>
       <c r="V44"/>
     </row>
     <row r="45">
@@ -6871,20 +6904,20 @@
         <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="N45" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
@@ -6921,39 +6954,39 @@
         <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K46" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="L46" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M46" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N46" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O46" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="S46" t="n">
         <v>88</v>
       </c>
       <c r="T46" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="U46" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="V46" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47">
@@ -6988,7 +7021,7 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -6999,7 +7032,9 @@
       <c r="T47" t="s">
         <v>164</v>
       </c>
-      <c r="U47"/>
+      <c r="U47" t="s">
+        <v>474</v>
+      </c>
       <c r="V47"/>
     </row>
     <row r="48">
@@ -7034,7 +7069,7 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -7043,9 +7078,11 @@
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>474</v>
-      </c>
-      <c r="U48"/>
+        <v>476</v>
+      </c>
+      <c r="U48" t="s">
+        <v>477</v>
+      </c>
       <c r="V48"/>
     </row>
     <row r="49">
@@ -7080,7 +7117,7 @@
         <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
@@ -7090,21 +7127,21 @@
         <v>173</v>
       </c>
       <c r="O49" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P49"/>
       <c r="Q49" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="R49" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="s">
         <v>173</v>
       </c>
       <c r="U49" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="V49"/>
     </row>
@@ -7137,34 +7174,34 @@
         <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K50" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="N50" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="O50" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="R50" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="S50"/>
       <c r="T50" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="U50" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="V50"/>
     </row>
@@ -7197,32 +7234,32 @@
         <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K51" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N51" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="O51" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="S51"/>
       <c r="T51" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="U51" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="V51"/>
     </row>
@@ -7256,7 +7293,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
@@ -7264,16 +7301,20 @@
       </c>
       <c r="N52"/>
       <c r="O52" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
+      <c r="R52" t="s">
+        <v>481</v>
+      </c>
       <c r="S52"/>
       <c r="T52" t="s">
         <v>185</v>
       </c>
-      <c r="U52"/>
+      <c r="U52" t="s">
+        <v>478</v>
+      </c>
       <c r="V52"/>
     </row>
     <row r="53">
@@ -7306,7 +7347,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
@@ -7314,16 +7355,20 @@
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="s">
+        <v>481</v>
+      </c>
       <c r="S53"/>
       <c r="T53" t="s">
         <v>188</v>
       </c>
-      <c r="U53"/>
+      <c r="U53" t="s">
+        <v>478</v>
+      </c>
       <c r="V53"/>
     </row>
     <row r="54">
@@ -7355,20 +7400,20 @@
         <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K54" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="R54"/>
       <c r="S54"/>
@@ -7405,28 +7450,28 @@
         <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K55" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L55"/>
       <c r="M55" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="U55" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="V55"/>
     </row>
@@ -7462,21 +7507,21 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="U56" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="V56"/>
     </row>
@@ -7830,13 +7875,13 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="R65"/>
       <c r="S65"/>
@@ -7917,7 +7962,9 @@
       <c r="R67"/>
       <c r="S67"/>
       <c r="T67"/>
-      <c r="U67"/>
+      <c r="U67" t="s">
+        <v>501</v>
+      </c>
       <c r="V67"/>
     </row>
     <row r="68">
@@ -8901,21 +8948,25 @@
         <v>314</v>
       </c>
       <c r="J93"/>
-      <c r="K93"/>
+      <c r="K93" t="s">
+        <v>502</v>
+      </c>
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="R93"/>
       <c r="S93"/>
       <c r="T93" t="s">
-        <v>499</v>
-      </c>
-      <c r="U93"/>
+        <v>504</v>
+      </c>
+      <c r="U93" t="s">
+        <v>505</v>
+      </c>
       <c r="V93"/>
     </row>
     <row r="94">
@@ -8954,7 +9005,7 @@
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="R94"/>
       <c r="S94"/>
@@ -8998,7 +9049,7 @@
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
@@ -9044,7 +9095,7 @@
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="R96"/>
       <c r="S96"/>
@@ -9093,7 +9144,9 @@
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
-      <c r="U97"/>
+      <c r="U97" t="s">
+        <v>505</v>
+      </c>
       <c r="V97"/>
     </row>
     <row r="98">
@@ -9126,13 +9179,13 @@
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="R98"/>
       <c r="S98"/>
@@ -9167,7 +9220,9 @@
         <v>338</v>
       </c>
       <c r="J99"/>
-      <c r="K99"/>
+      <c r="K99" t="s">
+        <v>511</v>
+      </c>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -620,84 +620,6 @@
     <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
   </si>
   <si>
-    <t xml:space="preserve">Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean annual tempeature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of mean daily temperatures during a year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degrees Celsius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WinterMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean winter temperature (Dec, Jan, Feb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of mean daily temperatures during December, January, and February</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpringMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean spring temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of mean daily temperatures during March, April, and May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SummerMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean summer temperatures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of mean daily temperatures during June, July, and August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AugustMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean august temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of mean daily temperatures during August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanFall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean fall temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of mean daily temperatures during September, October, and November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LowMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum daily temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest mean daily temperature during a year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LowSevenDayAverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum weekly average temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest seven-day running average of mean daily temperature during a year</t>
-  </si>
-  <si>
     <t xml:space="preserve">MeanThalwegDepth</t>
   </si>
   <si>
@@ -707,15 +629,6 @@
     <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
   </si>
   <si>
-    <t xml:space="preserve">HighMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum daily temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest mean daily temperature during a year</t>
-  </si>
-  <si>
     <t xml:space="preserve">countTransects</t>
   </si>
   <si>
@@ -723,241 +636,6 @@
   </si>
   <si>
     <t xml:space="preserve">Number of transects in the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighSevenDayAverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum weekly average temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest seven-day running average of mean daily temperature during a year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DegreeDays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annual degree day s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative total of degree days during a year (1°C for 24 h = 1 degree day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMeanDaily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual Standard Deivation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard deviation of mean daily temperature during a year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMeanWinterDaily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Standard Deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard deviation of mean daily temperature during winter months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMeanSpring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Standard Deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard deviation of mean daily temperature during spring months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMeanSummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard deviation of mean daily temperature during summer months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMeanAugust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard deviation of mean daily temperature during the month of August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMeanFall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fall SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard deviation of mean daily temperature during fall months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiffMinMax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range in extream daily termperature s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between minimum and maximum mean daily temperatures during a
-year (M9 minus M7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DifMinMaxWeekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range in streme weekly temperatures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between minimum and maximum weekly average temperatures
-during a year (M10 minus M8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDAnnual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation of mean
-annual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation in mean annual temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMinWeekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation of
-minimum weekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation in minimum weekly average temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMaxWeekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation of
-maximum weekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation in maximum weekly average temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD5PercentDegreeDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation of 5%
-degree days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation in date of 5% of degree days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD50PercentDegreeDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation of 50%
-degree days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interannual standard deviation in date of 50% of degree days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberMeanGT20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency of hot days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of days with mean daily temperatures &gt;20°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberMeanLT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency of cold days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of days with mean daily temperatures &lt;2°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberDaysDec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of 5% degree days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of days from December 1 until 5% of degree days are accumulated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberDaysDec25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of 25% degree days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of days from December 1 until 25% of degree days are accumulated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberDaysDec50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of 50% degrees days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of days from December 1 until 50% of degree days are accumulated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberDaysDec95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of 95% degree days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of days from December 1 until 95% of degree days are accumulated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberDaysBetween95and5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Growing Season length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of days between the 95% and 5% of degree days (T5 minus T1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongestDaysGT20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration of hot days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest number of consecutive days with mean daily temperatures &gt;20°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongestDaysLT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration of cold days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest number of consecutive days with mean daily temperatures &lt;2°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberDaysDec75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of 75% degree days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of days from December 1 until 75% of degree days are accumulated</t>
   </si>
   <si>
     <t xml:space="preserve">Water chemistry</t>
@@ -3724,29 +3402,29 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>200</v>
       </c>
-      <c r="D24" t="n">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>201</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>202</v>
-      </c>
-      <c r="G24" t="s">
-        <v>203</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
         <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -3757,27 +3435,23 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
         <v>205</v>
       </c>
-      <c r="F25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" t="s">
-        <v>207</v>
-      </c>
       <c r="H25"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" t="s">
-        <v>204</v>
-      </c>
+      <c r="I25"/>
+      <c r="J25"/>
       <c r="K25" t="s">
         <v>145</v>
       </c>
@@ -3790,26 +3464,26 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
         <v>208</v>
-      </c>
-      <c r="F26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" t="s">
-        <v>210</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
         <v>145</v>
@@ -3823,29 +3497,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" t="s">
         <v>211</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>212</v>
-      </c>
-      <c r="G27" t="s">
-        <v>213</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -3856,10 +3530,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>214</v>
@@ -3875,10 +3549,10 @@
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -3889,10 +3563,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>217</v>
@@ -3903,15 +3577,17 @@
       <c r="G29" t="s">
         <v>219</v>
       </c>
-      <c r="H29"/>
+      <c r="H29" t="s">
+        <v>220</v>
+      </c>
       <c r="I29" t="s">
         <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30">
@@ -3922,29 +3598,31 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>222</v>
-      </c>
-      <c r="H30"/>
+        <v>224</v>
+      </c>
+      <c r="H30" t="s">
+        <v>225</v>
+      </c>
       <c r="I30" t="s">
         <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
@@ -3955,29 +3633,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -3991,1101 +3669,25 @@
         <v>116</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
         <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" t="n">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F33" t="s">
-        <v>230</v>
-      </c>
-      <c r="G33" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33"/>
-      <c r="I33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" t="n">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" t="n">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" t="s">
-        <v>236</v>
-      </c>
-      <c r="G35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H35"/>
-      <c r="I35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" t="s">
-        <v>204</v>
-      </c>
-      <c r="K35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" t="n">
-        <v>36</v>
-      </c>
-      <c r="E36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" t="s">
-        <v>240</v>
-      </c>
-      <c r="H36"/>
-      <c r="I36" t="s">
-        <v>48</v>
-      </c>
-      <c r="J36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" t="n">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>242</v>
-      </c>
-      <c r="F37" t="s">
-        <v>243</v>
-      </c>
-      <c r="G37" t="s">
-        <v>244</v>
-      </c>
-      <c r="H37"/>
-      <c r="I37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" t="n">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" t="s">
-        <v>247</v>
-      </c>
-      <c r="H38"/>
-      <c r="I38" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" t="n">
-        <v>39</v>
-      </c>
-      <c r="E39" t="s">
-        <v>248</v>
-      </c>
-      <c r="F39" t="s">
-        <v>249</v>
-      </c>
-      <c r="G39" t="s">
-        <v>250</v>
-      </c>
-      <c r="H39"/>
-      <c r="I39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" t="n">
-        <v>40</v>
-      </c>
-      <c r="E40" t="s">
-        <v>251</v>
-      </c>
-      <c r="F40" t="s">
-        <v>252</v>
-      </c>
-      <c r="G40" t="s">
-        <v>253</v>
-      </c>
-      <c r="H40"/>
-      <c r="I40" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" t="n">
-        <v>41</v>
-      </c>
-      <c r="E41" t="s">
-        <v>254</v>
-      </c>
-      <c r="F41" t="s">
-        <v>255</v>
-      </c>
-      <c r="G41" t="s">
-        <v>256</v>
-      </c>
-      <c r="H41"/>
-      <c r="I41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41"/>
-      <c r="K41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" t="n">
-        <v>42</v>
-      </c>
-      <c r="E42" t="s">
-        <v>257</v>
-      </c>
-      <c r="F42" t="s">
-        <v>258</v>
-      </c>
-      <c r="G42" t="s">
-        <v>259</v>
-      </c>
-      <c r="H42"/>
-      <c r="I42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" t="n">
-        <v>43</v>
-      </c>
-      <c r="E43" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" t="s">
-        <v>261</v>
-      </c>
-      <c r="G43" t="s">
-        <v>262</v>
-      </c>
-      <c r="H43"/>
-      <c r="I43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" t="n">
-        <v>44</v>
-      </c>
-      <c r="E44" t="s">
-        <v>263</v>
-      </c>
-      <c r="F44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G44" t="s">
-        <v>265</v>
-      </c>
-      <c r="H44"/>
-      <c r="I44" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44"/>
-      <c r="K44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" t="n">
-        <v>45</v>
-      </c>
-      <c r="E45" t="s">
-        <v>266</v>
-      </c>
-      <c r="F45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G45" t="s">
-        <v>268</v>
-      </c>
-      <c r="H45"/>
-      <c r="I45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" t="n">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>269</v>
-      </c>
-      <c r="F46" t="s">
-        <v>270</v>
-      </c>
-      <c r="G46" t="s">
-        <v>271</v>
-      </c>
-      <c r="H46"/>
-      <c r="I46" t="s">
-        <v>48</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" t="n">
-        <v>47</v>
-      </c>
-      <c r="E47" t="s">
-        <v>272</v>
-      </c>
-      <c r="F47" t="s">
-        <v>273</v>
-      </c>
-      <c r="G47" t="s">
-        <v>274</v>
-      </c>
-      <c r="H47"/>
-      <c r="I47" t="s">
-        <v>48</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" t="n">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" t="s">
-        <v>276</v>
-      </c>
-      <c r="G48" t="s">
-        <v>277</v>
-      </c>
-      <c r="H48"/>
-      <c r="I48" t="s">
-        <v>48</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>200</v>
-      </c>
-      <c r="D49" t="n">
-        <v>49</v>
-      </c>
-      <c r="E49" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" t="s">
-        <v>279</v>
-      </c>
-      <c r="G49" t="s">
-        <v>280</v>
-      </c>
-      <c r="H49"/>
-      <c r="I49" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" t="n">
-        <v>50</v>
-      </c>
-      <c r="E50" t="s">
-        <v>281</v>
-      </c>
-      <c r="F50" t="s">
-        <v>282</v>
-      </c>
-      <c r="G50" t="s">
-        <v>283</v>
-      </c>
-      <c r="H50"/>
-      <c r="I50" t="s">
-        <v>48</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" t="n">
-        <v>51</v>
-      </c>
-      <c r="E51" t="s">
-        <v>284</v>
-      </c>
-      <c r="F51" t="s">
-        <v>285</v>
-      </c>
-      <c r="G51" t="s">
-        <v>286</v>
-      </c>
-      <c r="H51"/>
-      <c r="I51" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" t="n">
-        <v>52</v>
-      </c>
-      <c r="E52" t="s">
-        <v>287</v>
-      </c>
-      <c r="F52" t="s">
-        <v>288</v>
-      </c>
-      <c r="G52" t="s">
-        <v>289</v>
-      </c>
-      <c r="H52"/>
-      <c r="I52" t="s">
-        <v>48</v>
-      </c>
-      <c r="J52"/>
-      <c r="K52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" t="n">
-        <v>53</v>
-      </c>
-      <c r="E53" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53" t="s">
-        <v>292</v>
-      </c>
-      <c r="H53"/>
-      <c r="I53" t="s">
-        <v>48</v>
-      </c>
-      <c r="J53"/>
-      <c r="K53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D54" t="n">
-        <v>54</v>
-      </c>
-      <c r="E54" t="s">
-        <v>293</v>
-      </c>
-      <c r="F54" t="s">
-        <v>294</v>
-      </c>
-      <c r="G54" t="s">
-        <v>295</v>
-      </c>
-      <c r="H54"/>
-      <c r="I54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54"/>
-      <c r="K54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" t="n">
-        <v>55</v>
-      </c>
-      <c r="E55" t="s">
-        <v>296</v>
-      </c>
-      <c r="F55" t="s">
-        <v>297</v>
-      </c>
-      <c r="G55" t="s">
-        <v>298</v>
-      </c>
-      <c r="H55"/>
-      <c r="I55" t="s">
-        <v>48</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" t="n">
-        <v>56</v>
-      </c>
-      <c r="E56" t="s">
-        <v>299</v>
-      </c>
-      <c r="F56" t="s">
-        <v>300</v>
-      </c>
-      <c r="G56" t="s">
-        <v>301</v>
-      </c>
-      <c r="H56"/>
-      <c r="I56" t="s">
-        <v>48</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" t="n">
-        <v>57</v>
-      </c>
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-      <c r="F57" t="s">
-        <v>303</v>
-      </c>
-      <c r="G57" t="s">
-        <v>304</v>
-      </c>
-      <c r="H57"/>
-      <c r="I57" t="s">
-        <v>48</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" t="n">
-        <v>58</v>
-      </c>
-      <c r="E58" t="s">
-        <v>305</v>
-      </c>
-      <c r="F58" t="s">
-        <v>306</v>
-      </c>
-      <c r="G58" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58"/>
-      <c r="I58" t="s">
-        <v>48</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" t="n">
-        <v>59</v>
-      </c>
-      <c r="E59" t="s">
-        <v>308</v>
-      </c>
-      <c r="F59" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" t="s">
-        <v>310</v>
-      </c>
-      <c r="H59"/>
-      <c r="I59" t="s">
-        <v>48</v>
-      </c>
-      <c r="J59"/>
-      <c r="K59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D60" t="n">
-        <v>60</v>
-      </c>
-      <c r="E60" t="s">
-        <v>312</v>
-      </c>
-      <c r="F60" t="s">
-        <v>312</v>
-      </c>
-      <c r="G60" t="s">
-        <v>313</v>
-      </c>
-      <c r="H60"/>
-      <c r="I60" t="s">
-        <v>48</v>
-      </c>
-      <c r="J60" t="s">
-        <v>314</v>
-      </c>
-      <c r="K60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" t="n">
-        <v>61</v>
-      </c>
-      <c r="E61" t="s">
-        <v>315</v>
-      </c>
-      <c r="F61" t="s">
-        <v>316</v>
-      </c>
-      <c r="G61" t="s">
-        <v>317</v>
-      </c>
-      <c r="H61"/>
-      <c r="I61" t="s">
-        <v>48</v>
-      </c>
-      <c r="J61" t="s">
-        <v>318</v>
-      </c>
-      <c r="K61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>311</v>
-      </c>
-      <c r="D62" t="n">
-        <v>62</v>
-      </c>
-      <c r="E62" t="s">
-        <v>319</v>
-      </c>
-      <c r="F62" t="s">
-        <v>320</v>
-      </c>
-      <c r="G62" t="s">
-        <v>321</v>
-      </c>
-      <c r="H62"/>
-      <c r="I62" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" t="s">
-        <v>318</v>
-      </c>
-      <c r="K62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>311</v>
-      </c>
-      <c r="D63" t="n">
-        <v>63</v>
-      </c>
-      <c r="E63" t="s">
-        <v>322</v>
-      </c>
-      <c r="F63" t="s">
-        <v>323</v>
-      </c>
-      <c r="G63" t="s">
-        <v>324</v>
-      </c>
-      <c r="H63" t="s">
-        <v>325</v>
-      </c>
-      <c r="I63" t="s">
-        <v>48</v>
-      </c>
-      <c r="J63" t="s">
-        <v>326</v>
-      </c>
-      <c r="K63" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>311</v>
-      </c>
-      <c r="D64" t="n">
-        <v>64</v>
-      </c>
-      <c r="E64" t="s">
-        <v>328</v>
-      </c>
-      <c r="F64" t="s">
-        <v>328</v>
-      </c>
-      <c r="G64" t="s">
-        <v>329</v>
-      </c>
-      <c r="H64" t="s">
-        <v>330</v>
-      </c>
-      <c r="I64" t="s">
-        <v>48</v>
-      </c>
-      <c r="J64" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>311</v>
-      </c>
-      <c r="D65" t="n">
-        <v>65</v>
-      </c>
-      <c r="E65" t="s">
-        <v>332</v>
-      </c>
-      <c r="F65" t="s">
-        <v>332</v>
-      </c>
-      <c r="G65" t="s">
-        <v>333</v>
-      </c>
-      <c r="H65"/>
-      <c r="I65" t="s">
-        <v>48</v>
-      </c>
-      <c r="J65" t="s">
-        <v>334</v>
-      </c>
-      <c r="K65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>335</v>
-      </c>
-      <c r="F66" t="s">
-        <v>336</v>
-      </c>
-      <c r="G66" t="s">
-        <v>337</v>
-      </c>
-      <c r="H66"/>
-      <c r="I66" t="s">
-        <v>48</v>
-      </c>
-      <c r="J66" t="s">
-        <v>338</v>
-      </c>
-      <c r="K66" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5132,48 +3734,48 @@
         <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="K1" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="L1" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="M1" t="s">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="N1" t="s">
-        <v>343</v>
+        <v>238</v>
       </c>
       <c r="O1" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="P1" t="s">
-        <v>345</v>
+        <v>240</v>
       </c>
       <c r="Q1" t="s">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c r="R1" t="s">
-        <v>347</v>
+        <v>242</v>
       </c>
       <c r="S1" t="s">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="T1" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="U1" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="V1" t="s">
-        <v>351</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -5209,7 +3811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -5217,7 +3819,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5245,7 +3847,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -5253,7 +3855,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -5281,7 +3883,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -5289,7 +3891,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5315,7 +3917,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -5323,7 +3925,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -5351,21 +3953,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -5387,7 +3989,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -5395,7 +3997,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -5423,21 +4025,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -5459,7 +4061,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -5491,7 +4093,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -5499,7 +4101,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -5527,7 +4129,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -5535,7 +4137,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -5548,32 +4150,32 @@
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="N12" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -5581,7 +4183,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -5597,10 +4199,10 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="N13" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -5608,14 +4210,14 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5623,7 +4225,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
@@ -5649,7 +4251,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -5657,7 +4259,7 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="F15" t="s">
         <v>52</v>
@@ -5683,7 +4285,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -5691,7 +4293,7 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -5717,7 +4319,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5725,7 +4327,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -5736,32 +4338,32 @@
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
       <c r="N17" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -5769,7 +4371,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -5795,7 +4397,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -5803,7 +4405,7 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -5814,32 +4416,32 @@
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="N19" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -5871,7 +4473,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -5901,7 +4503,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -5931,7 +4533,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -5939,7 +4541,7 @@
         <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
@@ -5965,7 +4567,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -5973,7 +4575,7 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>395</v>
+        <v>290</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -5986,32 +4588,32 @@
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
       <c r="N24" t="s">
-        <v>398</v>
+        <v>293</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -6041,7 +4643,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -6060,32 +4662,32 @@
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
       <c r="U26"/>
       <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -6093,7 +4695,7 @@
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
@@ -6106,32 +4708,32 @@
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>406</v>
+        <v>301</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>407</v>
+        <v>302</v>
       </c>
       <c r="N27" t="s">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>409</v>
+        <v>304</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27" t="s">
-        <v>410</v>
+        <v>305</v>
       </c>
       <c r="U27"/>
       <c r="V27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -6139,7 +4741,7 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>411</v>
+        <v>306</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
@@ -6152,7 +4754,7 @@
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -6161,19 +4763,19 @@
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>413</v>
+        <v>308</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28" t="s">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -6207,7 +4809,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -6241,7 +4843,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -6273,7 +4875,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -6307,7 +4909,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -6341,7 +4943,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -6398,34 +5000,34 @@
         <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>418</v>
+        <v>313</v>
       </c>
       <c r="N35" t="s">
-        <v>419</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>421</v>
+        <v>316</v>
       </c>
       <c r="R35" t="s">
-        <v>422</v>
+        <v>317</v>
       </c>
       <c r="S35"/>
       <c r="T35" t="s">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="U35" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="V35"/>
     </row>
@@ -6457,13 +5059,13 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>426</v>
+        <v>321</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
@@ -6502,34 +5104,34 @@
         <v>130</v>
       </c>
       <c r="J37" t="s">
-        <v>427</v>
+        <v>322</v>
       </c>
       <c r="K37" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>429</v>
+        <v>324</v>
       </c>
       <c r="N37" t="s">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="O37" t="s">
-        <v>431</v>
+        <v>326</v>
       </c>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="R37" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="S37"/>
       <c r="T37" t="s">
         <v>126</v>
       </c>
       <c r="U37" t="s">
-        <v>433</v>
+        <v>328</v>
       </c>
       <c r="V37"/>
     </row>
@@ -6565,20 +5167,20 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>434</v>
+        <v>329</v>
       </c>
       <c r="N38" t="s">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>436</v>
+        <v>331</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38" t="s">
-        <v>437</v>
+        <v>332</v>
       </c>
       <c r="U38"/>
       <c r="V38"/>
@@ -6610,30 +5212,30 @@
         <v>120</v>
       </c>
       <c r="J39" t="s">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>440</v>
+        <v>335</v>
       </c>
       <c r="N39" t="s">
-        <v>441</v>
+        <v>336</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>442</v>
+        <v>337</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39" t="s">
-        <v>443</v>
+        <v>338</v>
       </c>
       <c r="U39" t="s">
-        <v>433</v>
+        <v>328</v>
       </c>
       <c r="V39"/>
     </row>
@@ -6662,12 +5264,12 @@
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>444</v>
+        <v>339</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -6706,7 +5308,7 @@
         <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>446</v>
+        <v>341</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -6715,12 +5317,12 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>447</v>
+        <v>342</v>
       </c>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -6757,7 +5359,7 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
       <c r="N42" t="s">
         <v>146</v>
@@ -6765,7 +5367,7 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
@@ -6800,20 +5402,20 @@
         <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>451</v>
+        <v>346</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>452</v>
+        <v>347</v>
       </c>
       <c r="N43" t="s">
-        <v>453</v>
+        <v>348</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>454</v>
+        <v>349</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
@@ -6848,32 +5450,32 @@
         <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>455</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s">
-        <v>456</v>
+        <v>351</v>
       </c>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>457</v>
+        <v>352</v>
       </c>
       <c r="N44" t="s">
-        <v>458</v>
+        <v>353</v>
       </c>
       <c r="O44" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>460</v>
+        <v>355</v>
       </c>
       <c r="S44"/>
       <c r="T44" t="s">
-        <v>461</v>
+        <v>356</v>
       </c>
       <c r="U44" t="s">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="V44"/>
     </row>
@@ -6904,20 +5506,20 @@
         <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>463</v>
+        <v>358</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>464</v>
+        <v>359</v>
       </c>
       <c r="N45" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>466</v>
+        <v>361</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
@@ -6954,39 +5556,39 @@
         <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>467</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s">
-        <v>456</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s">
-        <v>468</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s">
-        <v>469</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="O46" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>460</v>
+        <v>355</v>
       </c>
       <c r="S46" t="n">
         <v>88</v>
       </c>
       <c r="T46" t="s">
-        <v>471</v>
+        <v>366</v>
       </c>
       <c r="U46" t="s">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="V46" t="s">
-        <v>472</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47">
@@ -7021,7 +5623,7 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>473</v>
+        <v>368</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -7033,7 +5635,7 @@
         <v>164</v>
       </c>
       <c r="U47" t="s">
-        <v>474</v>
+        <v>369</v>
       </c>
       <c r="V47"/>
     </row>
@@ -7069,7 +5671,7 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>475</v>
+        <v>370</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -7078,10 +5680,10 @@
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>476</v>
+        <v>371</v>
       </c>
       <c r="U48" t="s">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="V48"/>
     </row>
@@ -7117,7 +5719,7 @@
         <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
@@ -7127,21 +5729,21 @@
         <v>173</v>
       </c>
       <c r="O49" t="s">
-        <v>479</v>
+        <v>374</v>
       </c>
       <c r="P49"/>
       <c r="Q49" t="s">
-        <v>480</v>
+        <v>375</v>
       </c>
       <c r="R49" t="s">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="s">
         <v>173</v>
       </c>
       <c r="U49" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="V49"/>
     </row>
@@ -7174,34 +5776,34 @@
         <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>482</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>483</v>
+        <v>378</v>
       </c>
       <c r="N50" t="s">
-        <v>484</v>
+        <v>379</v>
       </c>
       <c r="O50" t="s">
-        <v>485</v>
+        <v>380</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>486</v>
+        <v>381</v>
       </c>
       <c r="R50" t="s">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="S50"/>
       <c r="T50" t="s">
-        <v>487</v>
+        <v>382</v>
       </c>
       <c r="U50" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="V50"/>
     </row>
@@ -7234,32 +5836,32 @@
         <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>488</v>
+        <v>383</v>
       </c>
       <c r="K51" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="N51" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s">
-        <v>479</v>
+        <v>374</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="S51"/>
       <c r="T51" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
       <c r="U51" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="V51"/>
     </row>
@@ -7293,7 +5895,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
@@ -7301,19 +5903,19 @@
       </c>
       <c r="N52"/>
       <c r="O52" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="S52"/>
       <c r="T52" t="s">
         <v>185</v>
       </c>
       <c r="U52" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="V52"/>
     </row>
@@ -7347,7 +5949,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
@@ -7355,19 +5957,19 @@
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="S53"/>
       <c r="T53" t="s">
         <v>188</v>
       </c>
       <c r="U53" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="V53"/>
     </row>
@@ -7400,20 +6002,20 @@
         <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="K54" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>494</v>
+        <v>389</v>
       </c>
       <c r="R54"/>
       <c r="S54"/>
@@ -7450,28 +6052,28 @@
         <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>495</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s">
-        <v>496</v>
+        <v>391</v>
       </c>
       <c r="L55"/>
       <c r="M55" t="s">
-        <v>497</v>
+        <v>392</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>485</v>
+        <v>380</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55" t="s">
-        <v>487</v>
+        <v>382</v>
       </c>
       <c r="U55" t="s">
-        <v>485</v>
+        <v>380</v>
       </c>
       <c r="V55"/>
     </row>
@@ -7507,21 +6109,21 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>498</v>
+        <v>393</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>485</v>
+        <v>380</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
       <c r="U56" t="s">
-        <v>485</v>
+        <v>380</v>
       </c>
       <c r="V56"/>
     </row>
@@ -7530,35 +6132,39 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
         <v>200</v>
       </c>
-      <c r="C57" t="n">
-        <v>26</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>201</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>202</v>
-      </c>
-      <c r="F57" t="s">
-        <v>203</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
         <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57"/>
+      <c r="M57" t="s">
+        <v>394</v>
+      </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57"/>
+      <c r="Q57" t="s">
+        <v>395</v>
+      </c>
       <c r="R57"/>
       <c r="S57"/>
       <c r="T57"/>
@@ -7570,27 +6176,23 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="C58" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" t="s">
         <v>205</v>
       </c>
-      <c r="E58" t="s">
-        <v>206</v>
-      </c>
-      <c r="F58" t="s">
-        <v>207</v>
-      </c>
       <c r="G58"/>
-      <c r="H58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I58" t="s">
-        <v>204</v>
-      </c>
+      <c r="H58"/>
+      <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -7602,7 +6204,9 @@
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
-      <c r="U58"/>
+      <c r="U58" t="s">
+        <v>396</v>
+      </c>
       <c r="V58"/>
     </row>
     <row r="59">
@@ -7610,39 +6214,47 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C59" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" t="s">
+        <v>207</v>
+      </c>
+      <c r="F59" t="s">
         <v>208</v>
-      </c>
-      <c r="E59" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" t="s">
-        <v>210</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
         <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="J59"/>
-      <c r="K59"/>
+      <c r="K59" t="s">
+        <v>397</v>
+      </c>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59"/>
+      <c r="Q59" t="s">
+        <v>398</v>
+      </c>
       <c r="R59"/>
       <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
+      <c r="T59" t="s">
+        <v>399</v>
+      </c>
+      <c r="U59" t="s">
+        <v>400</v>
+      </c>
       <c r="V59"/>
     </row>
     <row r="60">
@@ -7650,35 +6262,39 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C60" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" t="s">
         <v>211</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>212</v>
-      </c>
-      <c r="F60" t="s">
-        <v>213</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
         <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
-      <c r="M60"/>
+      <c r="M60" t="s">
+        <v>210</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
-      <c r="Q60"/>
+      <c r="Q60" t="s">
+        <v>401</v>
+      </c>
       <c r="R60"/>
       <c r="S60"/>
       <c r="T60"/>
@@ -7690,10 +6306,10 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
         <v>214</v>
@@ -7709,16 +6325,20 @@
         <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
-      <c r="M61"/>
+      <c r="M61" t="s">
+        <v>214</v>
+      </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
-      <c r="Q61"/>
+      <c r="Q61" t="s">
+        <v>402</v>
+      </c>
       <c r="R61"/>
       <c r="S61"/>
       <c r="T61"/>
@@ -7730,10 +6350,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C62" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
         <v>217</v>
@@ -7744,21 +6364,27 @@
       <c r="F62" t="s">
         <v>219</v>
       </c>
-      <c r="G62"/>
+      <c r="G62" t="s">
+        <v>220</v>
+      </c>
       <c r="H62" t="s">
         <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
-      <c r="M62"/>
+      <c r="M62" t="s">
+        <v>217</v>
+      </c>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
-      <c r="Q62"/>
+      <c r="Q62" t="s">
+        <v>403</v>
+      </c>
       <c r="R62"/>
       <c r="S62"/>
       <c r="T62"/>
@@ -7770,31 +6396,35 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C63" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
-        <v>222</v>
-      </c>
-      <c r="G63"/>
+        <v>224</v>
+      </c>
+      <c r="G63" t="s">
+        <v>225</v>
+      </c>
       <c r="H63" t="s">
         <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
-      <c r="M63"/>
+      <c r="M63" t="s">
+        <v>223</v>
+      </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
@@ -7802,7 +6432,9 @@
       <c r="R63"/>
       <c r="S63"/>
       <c r="T63"/>
-      <c r="U63"/>
+      <c r="U63" t="s">
+        <v>400</v>
+      </c>
       <c r="V63"/>
     </row>
     <row r="64">
@@ -7810,35 +6442,39 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C64" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F64" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
         <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
-      <c r="M64"/>
+      <c r="M64" t="s">
+        <v>404</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64"/>
+      <c r="Q64" t="s">
+        <v>405</v>
+      </c>
       <c r="R64"/>
       <c r="S64"/>
       <c r="T64"/>
@@ -7853,1388 +6489,40 @@
         <v>116</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
         <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="J65"/>
-      <c r="K65"/>
+      <c r="K65" t="s">
+        <v>406</v>
+      </c>
       <c r="L65"/>
-      <c r="M65" t="s">
-        <v>499</v>
-      </c>
+      <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65" t="s">
-        <v>500</v>
-      </c>
+      <c r="Q65"/>
       <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65"/>
       <c r="V65"/>
     </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" t="n">
-        <v>34</v>
-      </c>
-      <c r="D66" t="s">
-        <v>229</v>
-      </c>
-      <c r="E66" t="s">
-        <v>230</v>
-      </c>
-      <c r="F66" t="s">
-        <v>231</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" t="s">
-        <v>204</v>
-      </c>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" t="n">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" t="s">
-        <v>233</v>
-      </c>
-      <c r="F67" t="s">
-        <v>234</v>
-      </c>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67" t="s">
-        <v>501</v>
-      </c>
-      <c r="V67"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" t="n">
-        <v>35</v>
-      </c>
-      <c r="D68" t="s">
-        <v>235</v>
-      </c>
-      <c r="E68" t="s">
-        <v>236</v>
-      </c>
-      <c r="F68" t="s">
-        <v>237</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" t="s">
-        <v>204</v>
-      </c>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" t="n">
-        <v>36</v>
-      </c>
-      <c r="D69" t="s">
-        <v>238</v>
-      </c>
-      <c r="E69" t="s">
-        <v>239</v>
-      </c>
-      <c r="F69" t="s">
-        <v>240</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" t="s">
-        <v>241</v>
-      </c>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" t="n">
-        <v>37</v>
-      </c>
-      <c r="D70" t="s">
-        <v>242</v>
-      </c>
-      <c r="E70" t="s">
-        <v>243</v>
-      </c>
-      <c r="F70" t="s">
-        <v>244</v>
-      </c>
-      <c r="G70"/>
-      <c r="H70" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" t="n">
-        <v>38</v>
-      </c>
-      <c r="D71" t="s">
-        <v>245</v>
-      </c>
-      <c r="E71" t="s">
-        <v>246</v>
-      </c>
-      <c r="F71" t="s">
-        <v>247</v>
-      </c>
-      <c r="G71"/>
-      <c r="H71" t="s">
-        <v>48</v>
-      </c>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" t="n">
-        <v>39</v>
-      </c>
-      <c r="D72" t="s">
-        <v>248</v>
-      </c>
-      <c r="E72" t="s">
-        <v>249</v>
-      </c>
-      <c r="F72" t="s">
-        <v>250</v>
-      </c>
-      <c r="G72"/>
-      <c r="H72" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" t="n">
-        <v>40</v>
-      </c>
-      <c r="D73" t="s">
-        <v>251</v>
-      </c>
-      <c r="E73" t="s">
-        <v>252</v>
-      </c>
-      <c r="F73" t="s">
-        <v>253</v>
-      </c>
-      <c r="G73"/>
-      <c r="H73" t="s">
-        <v>48</v>
-      </c>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" t="n">
-        <v>41</v>
-      </c>
-      <c r="D74" t="s">
-        <v>254</v>
-      </c>
-      <c r="E74" t="s">
-        <v>255</v>
-      </c>
-      <c r="F74" t="s">
-        <v>256</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" t="n">
-        <v>42</v>
-      </c>
-      <c r="D75" t="s">
-        <v>257</v>
-      </c>
-      <c r="E75" t="s">
-        <v>258</v>
-      </c>
-      <c r="F75" t="s">
-        <v>259</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75" t="s">
-        <v>48</v>
-      </c>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" t="n">
-        <v>43</v>
-      </c>
-      <c r="D76" t="s">
-        <v>260</v>
-      </c>
-      <c r="E76" t="s">
-        <v>261</v>
-      </c>
-      <c r="F76" t="s">
-        <v>262</v>
-      </c>
-      <c r="G76"/>
-      <c r="H76" t="s">
-        <v>48</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>200</v>
-      </c>
-      <c r="C77" t="n">
-        <v>44</v>
-      </c>
-      <c r="D77" t="s">
-        <v>263</v>
-      </c>
-      <c r="E77" t="s">
-        <v>264</v>
-      </c>
-      <c r="F77" t="s">
-        <v>265</v>
-      </c>
-      <c r="G77"/>
-      <c r="H77" t="s">
-        <v>48</v>
-      </c>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" t="n">
-        <v>45</v>
-      </c>
-      <c r="D78" t="s">
-        <v>266</v>
-      </c>
-      <c r="E78" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" t="s">
-        <v>268</v>
-      </c>
-      <c r="G78"/>
-      <c r="H78" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>200</v>
-      </c>
-      <c r="C79" t="n">
-        <v>46</v>
-      </c>
-      <c r="D79" t="s">
-        <v>269</v>
-      </c>
-      <c r="E79" t="s">
-        <v>270</v>
-      </c>
-      <c r="F79" t="s">
-        <v>271</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79" t="s">
-        <v>48</v>
-      </c>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" t="n">
-        <v>47</v>
-      </c>
-      <c r="D80" t="s">
-        <v>272</v>
-      </c>
-      <c r="E80" t="s">
-        <v>273</v>
-      </c>
-      <c r="F80" t="s">
-        <v>274</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80" t="s">
-        <v>48</v>
-      </c>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" t="n">
-        <v>48</v>
-      </c>
-      <c r="D81" t="s">
-        <v>275</v>
-      </c>
-      <c r="E81" t="s">
-        <v>276</v>
-      </c>
-      <c r="F81" t="s">
-        <v>277</v>
-      </c>
-      <c r="G81"/>
-      <c r="H81" t="s">
-        <v>48</v>
-      </c>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" t="n">
-        <v>49</v>
-      </c>
-      <c r="D82" t="s">
-        <v>278</v>
-      </c>
-      <c r="E82" t="s">
-        <v>279</v>
-      </c>
-      <c r="F82" t="s">
-        <v>280</v>
-      </c>
-      <c r="G82"/>
-      <c r="H82" t="s">
-        <v>48</v>
-      </c>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83" t="n">
-        <v>50</v>
-      </c>
-      <c r="D83" t="s">
-        <v>281</v>
-      </c>
-      <c r="E83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F83" t="s">
-        <v>283</v>
-      </c>
-      <c r="G83"/>
-      <c r="H83" t="s">
-        <v>48</v>
-      </c>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>200</v>
-      </c>
-      <c r="C84" t="n">
-        <v>51</v>
-      </c>
-      <c r="D84" t="s">
-        <v>284</v>
-      </c>
-      <c r="E84" t="s">
-        <v>285</v>
-      </c>
-      <c r="F84" t="s">
-        <v>286</v>
-      </c>
-      <c r="G84"/>
-      <c r="H84" t="s">
-        <v>48</v>
-      </c>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85" t="n">
-        <v>52</v>
-      </c>
-      <c r="D85" t="s">
-        <v>287</v>
-      </c>
-      <c r="E85" t="s">
-        <v>288</v>
-      </c>
-      <c r="F85" t="s">
-        <v>289</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85" t="s">
-        <v>48</v>
-      </c>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" t="n">
-        <v>53</v>
-      </c>
-      <c r="D86" t="s">
-        <v>290</v>
-      </c>
-      <c r="E86" t="s">
-        <v>291</v>
-      </c>
-      <c r="F86" t="s">
-        <v>292</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86" t="s">
-        <v>48</v>
-      </c>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" t="n">
-        <v>54</v>
-      </c>
-      <c r="D87" t="s">
-        <v>293</v>
-      </c>
-      <c r="E87" t="s">
-        <v>294</v>
-      </c>
-      <c r="F87" t="s">
-        <v>295</v>
-      </c>
-      <c r="G87"/>
-      <c r="H87" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" t="n">
-        <v>55</v>
-      </c>
-      <c r="D88" t="s">
-        <v>296</v>
-      </c>
-      <c r="E88" t="s">
-        <v>297</v>
-      </c>
-      <c r="F88" t="s">
-        <v>298</v>
-      </c>
-      <c r="G88"/>
-      <c r="H88" t="s">
-        <v>48</v>
-      </c>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" t="n">
-        <v>56</v>
-      </c>
-      <c r="D89" t="s">
-        <v>299</v>
-      </c>
-      <c r="E89" t="s">
-        <v>300</v>
-      </c>
-      <c r="F89" t="s">
-        <v>301</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89" t="s">
-        <v>48</v>
-      </c>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
-      <c r="R89"/>
-      <c r="S89"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90" t="n">
-        <v>57</v>
-      </c>
-      <c r="D90" t="s">
-        <v>302</v>
-      </c>
-      <c r="E90" t="s">
-        <v>303</v>
-      </c>
-      <c r="F90" t="s">
-        <v>304</v>
-      </c>
-      <c r="G90"/>
-      <c r="H90" t="s">
-        <v>48</v>
-      </c>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
-      <c r="R90"/>
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" t="n">
-        <v>58</v>
-      </c>
-      <c r="D91" t="s">
-        <v>305</v>
-      </c>
-      <c r="E91" t="s">
-        <v>306</v>
-      </c>
-      <c r="F91" t="s">
-        <v>307</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91" t="s">
-        <v>48</v>
-      </c>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" t="n">
-        <v>59</v>
-      </c>
-      <c r="D92" t="s">
-        <v>308</v>
-      </c>
-      <c r="E92" t="s">
-        <v>309</v>
-      </c>
-      <c r="F92" t="s">
-        <v>310</v>
-      </c>
-      <c r="G92"/>
-      <c r="H92" t="s">
-        <v>48</v>
-      </c>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="O92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
-      <c r="R92"/>
-      <c r="S92"/>
-      <c r="T92"/>
-      <c r="U92"/>
-      <c r="V92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>311</v>
-      </c>
-      <c r="C93" t="n">
-        <v>60</v>
-      </c>
-      <c r="D93" t="s">
-        <v>312</v>
-      </c>
-      <c r="E93" t="s">
-        <v>312</v>
-      </c>
-      <c r="F93" t="s">
-        <v>313</v>
-      </c>
-      <c r="G93"/>
-      <c r="H93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I93" t="s">
-        <v>314</v>
-      </c>
-      <c r="J93"/>
-      <c r="K93" t="s">
-        <v>502</v>
-      </c>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-      <c r="P93"/>
-      <c r="Q93" t="s">
-        <v>503</v>
-      </c>
-      <c r="R93"/>
-      <c r="S93"/>
-      <c r="T93" t="s">
-        <v>504</v>
-      </c>
-      <c r="U93" t="s">
-        <v>505</v>
-      </c>
-      <c r="V93"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" t="s">
-        <v>311</v>
-      </c>
-      <c r="C94" t="n">
-        <v>61</v>
-      </c>
-      <c r="D94" t="s">
-        <v>315</v>
-      </c>
-      <c r="E94" t="s">
-        <v>316</v>
-      </c>
-      <c r="F94" t="s">
-        <v>317</v>
-      </c>
-      <c r="G94"/>
-      <c r="H94" t="s">
-        <v>48</v>
-      </c>
-      <c r="I94" t="s">
-        <v>318</v>
-      </c>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94" t="s">
-        <v>315</v>
-      </c>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94" t="s">
-        <v>506</v>
-      </c>
-      <c r="R94"/>
-      <c r="S94"/>
-      <c r="T94"/>
-      <c r="U94"/>
-      <c r="V94"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" t="s">
-        <v>311</v>
-      </c>
-      <c r="C95" t="n">
-        <v>62</v>
-      </c>
-      <c r="D95" t="s">
-        <v>319</v>
-      </c>
-      <c r="E95" t="s">
-        <v>320</v>
-      </c>
-      <c r="F95" t="s">
-        <v>321</v>
-      </c>
-      <c r="G95"/>
-      <c r="H95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I95" t="s">
-        <v>318</v>
-      </c>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95" t="s">
-        <v>319</v>
-      </c>
-      <c r="N95"/>
-      <c r="O95"/>
-      <c r="P95"/>
-      <c r="Q95" t="s">
-        <v>507</v>
-      </c>
-      <c r="R95"/>
-      <c r="S95"/>
-      <c r="T95"/>
-      <c r="U95"/>
-      <c r="V95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" t="s">
-        <v>311</v>
-      </c>
-      <c r="C96" t="n">
-        <v>63</v>
-      </c>
-      <c r="D96" t="s">
-        <v>322</v>
-      </c>
-      <c r="E96" t="s">
-        <v>323</v>
-      </c>
-      <c r="F96" t="s">
-        <v>324</v>
-      </c>
-      <c r="G96" t="s">
-        <v>325</v>
-      </c>
-      <c r="H96" t="s">
-        <v>48</v>
-      </c>
-      <c r="I96" t="s">
-        <v>326</v>
-      </c>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96" t="s">
-        <v>322</v>
-      </c>
-      <c r="N96"/>
-      <c r="O96"/>
-      <c r="P96"/>
-      <c r="Q96" t="s">
-        <v>508</v>
-      </c>
-      <c r="R96"/>
-      <c r="S96"/>
-      <c r="T96"/>
-      <c r="U96"/>
-      <c r="V96"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>311</v>
-      </c>
-      <c r="C97" t="n">
-        <v>64</v>
-      </c>
-      <c r="D97" t="s">
-        <v>328</v>
-      </c>
-      <c r="E97" t="s">
-        <v>328</v>
-      </c>
-      <c r="F97" t="s">
-        <v>329</v>
-      </c>
-      <c r="G97" t="s">
-        <v>330</v>
-      </c>
-      <c r="H97" t="s">
-        <v>48</v>
-      </c>
-      <c r="I97" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97" t="s">
-        <v>328</v>
-      </c>
-      <c r="N97"/>
-      <c r="O97"/>
-      <c r="P97"/>
-      <c r="Q97"/>
-      <c r="R97"/>
-      <c r="S97"/>
-      <c r="T97"/>
-      <c r="U97" t="s">
-        <v>505</v>
-      </c>
-      <c r="V97"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" t="s">
-        <v>311</v>
-      </c>
-      <c r="C98" t="n">
-        <v>65</v>
-      </c>
-      <c r="D98" t="s">
-        <v>332</v>
-      </c>
-      <c r="E98" t="s">
-        <v>332</v>
-      </c>
-      <c r="F98" t="s">
-        <v>333</v>
-      </c>
-      <c r="G98"/>
-      <c r="H98" t="s">
-        <v>48</v>
-      </c>
-      <c r="I98" t="s">
-        <v>334</v>
-      </c>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98" t="s">
-        <v>509</v>
-      </c>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98" t="s">
-        <v>510</v>
-      </c>
-      <c r="R98"/>
-      <c r="S98"/>
-      <c r="T98"/>
-      <c r="U98"/>
-      <c r="V98"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>335</v>
-      </c>
-      <c r="E99" t="s">
-        <v>336</v>
-      </c>
-      <c r="F99" t="s">
-        <v>337</v>
-      </c>
-      <c r="G99"/>
-      <c r="H99" t="s">
-        <v>48</v>
-      </c>
-      <c r="I99" t="s">
-        <v>338</v>
-      </c>
-      <c r="J99"/>
-      <c r="K99" t="s">
-        <v>511</v>
-      </c>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
-      <c r="R99"/>
-      <c r="S99"/>
-      <c r="T99"/>
-      <c r="U99"/>
-      <c r="V99"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Integer identifier referencing the record in the ISOMetadata table for this source.</t>
   </si>
   <si>
-    <t xml:space="preserve">SamplingFeatureID</t>
+    <t xml:space="preserve">locationID</t>
   </si>
   <si>
     <t xml:space="preserve">This is the location identification for the integrated data set the value is the concatenation of the verbatimlocationID and the institutionCode.</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Example) 5483AIM, 88963AREMP, WtR563EPA</t>
   </si>
   <si>
-    <t xml:space="preserve">verbatimSamplingFeatureID</t>
+    <t xml:space="preserve">verbatimlocationID</t>
   </si>
   <si>
     <t xml:space="preserve">A code or number that identifies a unique sampling location. A site is a stream segment with a fixed starting and ending location for sampling. Code will remain the same across all site visits.</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Recommended best practice is to use the EPSG code of the SRS, if known. Otherwise use a controlled vocabulary for the name or code of the geodetic datum, if known. Otherwise use a controlled vocabulary for the name or code of the ellipsoid, if known. If none of these is known, use the value unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">samplingFeatureName</t>
+    <t xml:space="preserve">verbatimWaterbody</t>
   </si>
   <si>
     <t xml:space="preserve">The water body name from the original data set.</t>
@@ -235,13 +235,25 @@
     <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/samplingfeaturegeotype/?format=skos</t>
   </si>
   <si>
-    <t xml:space="preserve">ActionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimActionID</t>
+    <t xml:space="preserve">LocationInReach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location in the reach the latitude and longitude represent, either the top of the bottom of the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PickList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An identifier for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. eventID coorsponds to ODM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbatimEventID</t>
   </si>
   <si>
     <t xml:space="preserve">Unique number that identifies one sample of a particular site.</t>
@@ -455,9 +467,6 @@
     <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">StreamOrder</t>
   </si>
   <si>
@@ -824,7 +833,7 @@
     <t xml:space="preserve">SiteID</t>
   </si>
   <si>
-    <t xml:space="preserve">Stream Name From the Dataset</t>
+    <t xml:space="preserve">Stream Name From The Data Set</t>
   </si>
   <si>
     <t xml:space="preserve">STRM_NM</t>
@@ -882,6 +891,9 @@
   </si>
   <si>
     <t xml:space="preserve">Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location In Reach</t>
   </si>
   <si>
     <t xml:space="preserve">Event</t>
@@ -2169,6 +2181,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2223,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
@@ -2250,13 +2285,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -2277,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2288,7 +2323,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -2298,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -2325,13 +2360,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -2339,7 +2374,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
@@ -2352,13 +2387,13 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -2428,13 +2463,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2457,13 +2492,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -2473,10 +2508,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -2490,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
@@ -2504,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -2519,13 +2554,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2536,7 +2571,7 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -2550,13 +2585,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -2577,13 +2612,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2613,22 +2648,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2640,7 +2675,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2654,29 +2689,29 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -2687,19 +2722,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
@@ -2718,31 +2753,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -2753,31 +2788,31 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
         <v>133</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
         <v>134</v>
       </c>
-      <c r="H5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
@@ -2788,29 +2823,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -2821,19 +2856,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -2852,29 +2887,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -2885,19 +2920,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
@@ -2907,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -2918,29 +2953,29 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
         <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -2951,29 +2986,29 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -2984,29 +3019,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -3017,31 +3052,31 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -3052,28 +3087,28 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D14" t="n">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
         <v>54</v>
@@ -3087,31 +3122,31 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D15" t="n">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -3122,31 +3157,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D16" t="n">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I16" t="s">
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -3157,31 +3192,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D17" t="n">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -3192,31 +3227,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D18" t="n">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -3227,31 +3262,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -3262,31 +3297,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D20" t="n">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -3297,31 +3332,31 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D21" t="n">
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3332,31 +3367,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D22" t="n">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -3367,31 +3402,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D23" t="n">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
@@ -3402,29 +3437,29 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D24" t="n">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
         <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -3435,25 +3470,25 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D25" t="n">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3464,29 +3499,29 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D26" t="n">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -3497,29 +3532,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D27" t="n">
         <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -3530,29 +3565,29 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D28" t="n">
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -3563,31 +3598,31 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D29" t="n">
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
@@ -3598,22 +3633,22 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D30" t="n">
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
@@ -3622,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
@@ -3633,29 +3668,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D31" t="n">
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -3666,29 +3701,29 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
         <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3707,19 +3742,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3731,51 +3766,51 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="R1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="S1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="T1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="U1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="V1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -3811,7 +3846,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3819,7 +3854,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -3847,7 +3882,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -3855,7 +3890,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -3883,7 +3918,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -3891,7 +3926,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3917,7 +3952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -3925,7 +3960,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -3953,21 +3988,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -3989,7 +4024,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -3997,7 +4032,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -4025,21 +4060,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -4061,7 +4096,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -4093,7 +4128,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -4101,7 +4136,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -4129,7 +4164,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -4137,7 +4172,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -4150,32 +4185,32 @@
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -4183,7 +4218,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -4199,10 +4234,10 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -4210,14 +4245,14 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4225,7 +4260,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
@@ -4251,7 +4286,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -4259,7 +4294,7 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F15" t="s">
         <v>52</v>
@@ -4285,7 +4320,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -4293,7 +4328,7 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -4319,7 +4354,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -4327,7 +4362,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -4338,32 +4373,32 @@
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -4371,7 +4406,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -4397,7 +4432,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -4405,7 +4440,7 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -4416,32 +4451,32 @@
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -4473,7 +4508,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -4503,7 +4538,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -4533,7 +4568,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -4541,14 +4576,14 @@
         <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -4567,173 +4602,161 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G24"/>
       <c r="H24" t="s">
         <v>25</v>
       </c>
       <c r="I24"/>
-      <c r="J24" t="s">
-        <v>291</v>
-      </c>
+      <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24" t="s">
-        <v>292</v>
-      </c>
-      <c r="N24" t="s">
-        <v>293</v>
-      </c>
+      <c r="M24"/>
+      <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24" t="s">
-        <v>292</v>
-      </c>
+      <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" t="s">
-        <v>294</v>
-      </c>
+      <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25"/>
-      <c r="J25"/>
+      <c r="J25" t="s">
+        <v>295</v>
+      </c>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
+      <c r="M25" t="s">
+        <v>296</v>
+      </c>
+      <c r="N25" t="s">
+        <v>297</v>
+      </c>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25"/>
+      <c r="Q25" t="s">
+        <v>296</v>
+      </c>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25"/>
+      <c r="T25" t="s">
+        <v>298</v>
+      </c>
       <c r="U25"/>
       <c r="V25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26"/>
-      <c r="F26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>81</v>
-      </c>
+      <c r="F26"/>
+      <c r="G26"/>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I26"/>
-      <c r="J26" t="s">
-        <v>295</v>
-      </c>
+      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26" t="s">
-        <v>296</v>
-      </c>
-      <c r="N26" t="s">
-        <v>297</v>
-      </c>
+      <c r="M26"/>
+      <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26" t="s">
-        <v>298</v>
-      </c>
+      <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
-      <c r="T26" t="s">
-        <v>299</v>
-      </c>
+      <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" t="s">
-        <v>300</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E27"/>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U27"/>
       <c r="V27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -4741,7 +4764,7 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
@@ -4754,12 +4777,16 @@
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
+      <c r="M28" t="s">
+        <v>306</v>
+      </c>
+      <c r="N28" t="s">
+        <v>307</v>
+      </c>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="s">
@@ -4775,56 +4802,64 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29"/>
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>310</v>
+      </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29"/>
-      <c r="J29"/>
+      <c r="J29" t="s">
+        <v>311</v>
+      </c>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-      <c r="Q29"/>
+      <c r="Q29" t="s">
+        <v>312</v>
+      </c>
       <c r="R29"/>
       <c r="S29"/>
-      <c r="T29"/>
+      <c r="T29" t="s">
+        <v>313</v>
+      </c>
       <c r="U29"/>
       <c r="V29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -4843,20 +4878,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
         <v>98</v>
       </c>
-      <c r="G31"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -4875,22 +4912,20 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" t="s">
         <v>102</v>
       </c>
+      <c r="G32"/>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -4909,7 +4944,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -4943,21 +4978,23 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34"/>
+        <v>110</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -4975,60 +5012,34 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
       <c r="D35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E35"/>
       <c r="F35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" t="s">
-        <v>311</v>
-      </c>
-      <c r="K35" t="s">
-        <v>312</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" t="s">
-        <v>313</v>
-      </c>
-      <c r="N35" t="s">
-        <v>314</v>
-      </c>
-      <c r="O35" t="s">
-        <v>315</v>
-      </c>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35"/>
-      <c r="Q35" t="s">
-        <v>316</v>
-      </c>
-      <c r="R35" t="s">
-        <v>317</v>
-      </c>
+      <c r="Q35"/>
+      <c r="R35"/>
       <c r="S35"/>
-      <c r="T35" t="s">
-        <v>318</v>
-      </c>
-      <c r="U35" t="s">
-        <v>319</v>
-      </c>
+      <c r="T35"/>
+      <c r="U35"/>
       <c r="V35"/>
     </row>
     <row r="36">
@@ -5036,43 +5047,57 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
         <v>122</v>
       </c>
-      <c r="C36" t="n">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>123</v>
-      </c>
-      <c r="E36" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" t="s">
-        <v>125</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
         <v>48</v>
       </c>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
+      <c r="I36" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s">
+        <v>316</v>
+      </c>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>320</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>317</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>319</v>
+      </c>
       <c r="P36"/>
       <c r="Q36" t="s">
+        <v>320</v>
+      </c>
+      <c r="R36" t="s">
         <v>321</v>
       </c>
-      <c r="R36"/>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>123</v>
-      </c>
-      <c r="U36"/>
+        <v>322</v>
+      </c>
+      <c r="U36" t="s">
+        <v>323</v>
+      </c>
       <c r="V36"/>
     </row>
     <row r="37">
@@ -5080,59 +5105,43 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" t="s">
         <v>129</v>
       </c>
+      <c r="G37"/>
       <c r="H37" t="s">
         <v>48</v>
       </c>
-      <c r="I37" t="s">
-        <v>130</v>
-      </c>
-      <c r="J37" t="s">
-        <v>322</v>
-      </c>
-      <c r="K37" t="s">
-        <v>323</v>
-      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="s">
         <v>324</v>
       </c>
-      <c r="N37" t="s">
-        <v>325</v>
-      </c>
-      <c r="O37" t="s">
-        <v>326</v>
-      </c>
+      <c r="N37"/>
+      <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>327</v>
-      </c>
-      <c r="R37" t="s">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="R37"/>
       <c r="S37"/>
       <c r="T37" t="s">
-        <v>126</v>
-      </c>
-      <c r="U37" t="s">
-        <v>328</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="U37"/>
       <c r="V37"/>
     </row>
     <row r="38">
@@ -5140,49 +5149,59 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s">
         <v>132</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>133</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
         <v>134</v>
       </c>
-      <c r="G38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" t="s">
-        <v>130</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38"/>
+      <c r="J38" t="s">
+        <v>326</v>
+      </c>
+      <c r="K38" t="s">
+        <v>327</v>
+      </c>
       <c r="L38"/>
       <c r="M38" t="s">
+        <v>328</v>
+      </c>
+      <c r="N38" t="s">
         <v>329</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>330</v>
       </c>
-      <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
         <v>331</v>
       </c>
-      <c r="R38"/>
+      <c r="R38" t="s">
+        <v>327</v>
+      </c>
       <c r="S38"/>
       <c r="T38" t="s">
+        <v>130</v>
+      </c>
+      <c r="U38" t="s">
         <v>332</v>
       </c>
-      <c r="U38"/>
       <c r="V38"/>
     </row>
     <row r="39">
@@ -5190,53 +5209,49 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39"/>
+        <v>138</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
       <c r="H39" t="s">
         <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
-      </c>
-      <c r="J39" t="s">
-        <v>333</v>
-      </c>
-      <c r="K39" t="s">
-        <v>334</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39" t="s">
-        <v>338</v>
-      </c>
-      <c r="U39" t="s">
-        <v>328</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="U39"/>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -5244,10 +5259,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>139</v>
@@ -5262,23 +5277,35 @@
       <c r="H40" t="s">
         <v>48</v>
       </c>
-      <c r="I40"/>
+      <c r="I40" t="s">
+        <v>124</v>
+      </c>
       <c r="J40" t="s">
-        <v>339</v>
-      </c>
-      <c r="K40"/>
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
       <c r="L40"/>
       <c r="M40" t="s">
+        <v>339</v>
+      </c>
+      <c r="N40" t="s">
         <v>340</v>
       </c>
-      <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40"/>
+      <c r="Q40" t="s">
+        <v>341</v>
+      </c>
       <c r="R40"/>
       <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
+      <c r="T40" t="s">
+        <v>342</v>
+      </c>
+      <c r="U40" t="s">
+        <v>332</v>
+      </c>
       <c r="V40"/>
     </row>
     <row r="41">
@@ -5286,44 +5313,40 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
         <v>48</v>
       </c>
-      <c r="I41" t="s">
-        <v>120</v>
-      </c>
+      <c r="I41"/>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41"/>
+      <c r="M41" t="s">
+        <v>344</v>
+      </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41" t="s">
-        <v>342</v>
-      </c>
+      <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
-      <c r="T41" t="s">
-        <v>343</v>
-      </c>
+      <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
     </row>
@@ -5332,10 +5355,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
@@ -5351,27 +5374,25 @@
         <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="J42" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42" t="s">
-        <v>344</v>
-      </c>
-      <c r="N42" t="s">
-        <v>146</v>
-      </c>
+      <c r="M42"/>
+      <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42"/>
+      <c r="T42" t="s">
+        <v>347</v>
+      </c>
       <c r="U42"/>
       <c r="V42"/>
     </row>
@@ -5380,37 +5401,37 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" t="s">
         <v>150</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>151</v>
-      </c>
-      <c r="F43" t="s">
-        <v>152</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
         <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N43" t="s">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
@@ -5428,55 +5449,47 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
         <v>153</v>
       </c>
-      <c r="C44" t="n">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>154</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>155</v>
-      </c>
-      <c r="F44" t="s">
-        <v>156</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
         <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s">
         <v>350</v>
       </c>
-      <c r="K44" t="s">
-        <v>351</v>
-      </c>
+      <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="s">
+        <v>351</v>
+      </c>
+      <c r="N44" t="s">
         <v>352</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44" t="s">
         <v>353</v>
       </c>
-      <c r="O44" t="s">
-        <v>354</v>
-      </c>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44" t="s">
-        <v>355</v>
-      </c>
+      <c r="R44"/>
       <c r="S44"/>
-      <c r="T44" t="s">
-        <v>356</v>
-      </c>
-      <c r="U44" t="s">
-        <v>357</v>
-      </c>
+      <c r="T44"/>
+      <c r="U44"/>
       <c r="V44"/>
     </row>
     <row r="45">
@@ -5484,10 +5497,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>157</v>
@@ -5503,28 +5516,36 @@
         <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
-      </c>
-      <c r="K45"/>
+        <v>354</v>
+      </c>
+      <c r="K45" t="s">
+        <v>355</v>
+      </c>
       <c r="L45"/>
       <c r="M45" t="s">
+        <v>356</v>
+      </c>
+      <c r="N45" t="s">
+        <v>357</v>
+      </c>
+      <c r="O45" t="s">
+        <v>358</v>
+      </c>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45" t="s">
         <v>359</v>
       </c>
-      <c r="N45" t="s">
+      <c r="S45"/>
+      <c r="T45" t="s">
         <v>360</v>
       </c>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45" t="s">
+      <c r="U45" t="s">
         <v>361</v>
       </c>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
       <c r="V45"/>
     </row>
     <row r="46">
@@ -5532,10 +5553,10 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>160</v>
@@ -5546,132 +5567,132 @@
       <c r="F46" t="s">
         <v>162</v>
       </c>
-      <c r="G46" t="s">
-        <v>129</v>
-      </c>
+      <c r="G46"/>
       <c r="H46" t="s">
         <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J46" t="s">
         <v>362</v>
       </c>
-      <c r="K46" t="s">
-        <v>351</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46" t="s">
         <v>363</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>364</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46" t="s">
         <v>365</v>
       </c>
-      <c r="O46" t="s">
-        <v>354</v>
-      </c>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46" t="s">
-        <v>355</v>
-      </c>
-      <c r="S46" t="n">
-        <v>88</v>
-      </c>
-      <c r="T46" t="s">
-        <v>366</v>
-      </c>
-      <c r="U46" t="s">
-        <v>357</v>
-      </c>
-      <c r="V46" t="s">
-        <v>367</v>
-      </c>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
         <v>163</v>
       </c>
-      <c r="C47" t="n">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>164</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>165</v>
       </c>
-      <c r="F47" t="s">
-        <v>166</v>
-      </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="H47" t="s">
         <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>168</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
+        <v>134</v>
+      </c>
+      <c r="J47" t="s">
+        <v>366</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>367</v>
+      </c>
       <c r="M47" t="s">
         <v>368</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
+      <c r="N47" t="s">
+        <v>369</v>
+      </c>
+      <c r="O47" t="s">
+        <v>358</v>
+      </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
+      <c r="R47" t="s">
+        <v>359</v>
+      </c>
+      <c r="S47" t="n">
+        <v>88</v>
+      </c>
       <c r="T47" t="s">
-        <v>164</v>
+        <v>370</v>
       </c>
       <c r="U47" t="s">
-        <v>369</v>
-      </c>
-      <c r="V47"/>
+        <v>361</v>
+      </c>
+      <c r="V47" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" t="s">
         <v>169</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>170</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" t="s">
         <v>171</v>
-      </c>
-      <c r="G48" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" t="s">
-        <v>130</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5680,10 +5701,10 @@
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="U48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V48"/>
     </row>
@@ -5692,58 +5713,46 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="n">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
         <v>172</v>
       </c>
-      <c r="C49" t="n">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>173</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>174</v>
       </c>
-      <c r="F49" t="s">
-        <v>175</v>
-      </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="H49" t="s">
         <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>177</v>
-      </c>
-      <c r="J49" t="s">
-        <v>173</v>
-      </c>
-      <c r="K49" t="s">
-        <v>373</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>173</v>
-      </c>
-      <c r="N49" t="s">
-        <v>173</v>
-      </c>
-      <c r="O49" t="s">
         <v>374</v>
       </c>
+      <c r="N49"/>
+      <c r="O49"/>
       <c r="P49"/>
-      <c r="Q49" t="s">
-        <v>375</v>
-      </c>
-      <c r="R49" t="s">
-        <v>376</v>
-      </c>
+      <c r="Q49"/>
+      <c r="R49"/>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="U49" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="V49"/>
     </row>
@@ -5752,58 +5761,58 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" t="s">
         <v>179</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
         <v>180</v>
       </c>
-      <c r="F50" t="s">
-        <v>181</v>
-      </c>
-      <c r="G50" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" t="s">
-        <v>130</v>
-      </c>
       <c r="J50" t="s">
+        <v>176</v>
+      </c>
+      <c r="K50" t="s">
         <v>377</v>
-      </c>
-      <c r="K50" t="s">
-        <v>373</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
+        <v>176</v>
+      </c>
+      <c r="N50" t="s">
+        <v>176</v>
+      </c>
+      <c r="O50" t="s">
         <v>378</v>
-      </c>
-      <c r="N50" t="s">
-        <v>379</v>
-      </c>
-      <c r="O50" t="s">
-        <v>380</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R50" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="S50"/>
       <c r="T50" t="s">
-        <v>382</v>
+        <v>176</v>
       </c>
       <c r="U50" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="V50"/>
     </row>
@@ -5812,10 +5821,10 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>182</v>
@@ -5827,41 +5836,43 @@
         <v>184</v>
       </c>
       <c r="G51" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H51" t="s">
         <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J51" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K51" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
+        <v>382</v>
+      </c>
+      <c r="N51" t="s">
+        <v>383</v>
+      </c>
+      <c r="O51" t="s">
         <v>384</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51"/>
+      <c r="Q51" t="s">
         <v>385</v>
       </c>
-      <c r="O51" t="s">
-        <v>374</v>
-      </c>
-      <c r="P51"/>
-      <c r="Q51"/>
       <c r="R51" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="S51"/>
       <c r="T51" t="s">
         <v>386</v>
       </c>
       <c r="U51" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="V51"/>
     </row>
@@ -5870,10 +5881,10 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>185</v>
@@ -5885,37 +5896,41 @@
         <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>177</v>
-      </c>
-      <c r="J52"/>
+        <v>134</v>
+      </c>
+      <c r="J52" t="s">
+        <v>387</v>
+      </c>
       <c r="K52" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>185</v>
-      </c>
-      <c r="N52"/>
+        <v>388</v>
+      </c>
+      <c r="N52" t="s">
+        <v>389</v>
+      </c>
       <c r="O52" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="S52"/>
       <c r="T52" t="s">
-        <v>185</v>
+        <v>390</v>
       </c>
       <c r="U52" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="V52"/>
     </row>
@@ -5924,10 +5939,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
         <v>188</v>
@@ -5939,17 +5954,17 @@
         <v>190</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H53" t="s">
         <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
@@ -5957,19 +5972,19 @@
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="S53"/>
       <c r="T53" t="s">
         <v>188</v>
       </c>
       <c r="U53" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="V53"/>
     </row>
@@ -5978,10 +5993,10 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
         <v>191</v>
@@ -5993,34 +6008,38 @@
         <v>193</v>
       </c>
       <c r="G54" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="H54" t="s">
         <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
-      </c>
-      <c r="J54" t="s">
-        <v>388</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J54"/>
       <c r="K54" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L54"/>
-      <c r="M54"/>
+      <c r="M54" t="s">
+        <v>191</v>
+      </c>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P54"/>
-      <c r="Q54" t="s">
-        <v>389</v>
-      </c>
-      <c r="R54"/>
+      <c r="Q54"/>
+      <c r="R54" t="s">
+        <v>380</v>
+      </c>
       <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
+      <c r="T54" t="s">
+        <v>191</v>
+      </c>
+      <c r="U54" t="s">
+        <v>377</v>
+      </c>
       <c r="V54"/>
     </row>
     <row r="55">
@@ -6028,10 +6047,10 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
         <v>194</v>
@@ -6043,38 +6062,34 @@
         <v>196</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
         <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J55" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K55" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="L55"/>
-      <c r="M55" t="s">
-        <v>392</v>
-      </c>
+      <c r="M55"/>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="P55"/>
-      <c r="Q55"/>
+      <c r="Q55" t="s">
+        <v>393</v>
+      </c>
       <c r="R55"/>
       <c r="S55"/>
-      <c r="T55" t="s">
-        <v>382</v>
-      </c>
-      <c r="U55" t="s">
-        <v>380</v>
-      </c>
+      <c r="T55"/>
+      <c r="U55"/>
       <c r="V55"/>
     </row>
     <row r="56">
@@ -6082,10 +6097,10 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
         <v>197</v>
@@ -6097,23 +6112,27 @@
         <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
         <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>130</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>134</v>
+      </c>
+      <c r="J56" t="s">
+        <v>394</v>
+      </c>
+      <c r="K56" t="s">
+        <v>395</v>
+      </c>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
@@ -6123,7 +6142,7 @@
         <v>386</v>
       </c>
       <c r="U56" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="V56"/>
     </row>
@@ -6132,10 +6151,10 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
         <v>200</v>
@@ -6146,29 +6165,35 @@
       <c r="F57" t="s">
         <v>202</v>
       </c>
-      <c r="G57"/>
+      <c r="G57" t="s">
+        <v>133</v>
+      </c>
       <c r="H57" t="s">
         <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N57"/>
-      <c r="O57"/>
+      <c r="O57" t="s">
+        <v>384</v>
+      </c>
       <c r="P57"/>
-      <c r="Q57" t="s">
-        <v>395</v>
-      </c>
+      <c r="Q57"/>
       <c r="R57"/>
       <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
+      <c r="T57" t="s">
+        <v>390</v>
+      </c>
+      <c r="U57" t="s">
+        <v>384</v>
+      </c>
       <c r="V57"/>
     </row>
     <row r="58">
@@ -6176,10 +6201,10 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>203</v>
@@ -6191,22 +6216,28 @@
         <v>205</v>
       </c>
       <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>124</v>
+      </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58"/>
+      <c r="M58" t="s">
+        <v>398</v>
+      </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58"/>
+      <c r="Q58" t="s">
+        <v>399</v>
+      </c>
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
-      <c r="U58" t="s">
-        <v>396</v>
-      </c>
+      <c r="U58"/>
       <c r="V58"/>
     </row>
     <row r="59">
@@ -6214,13 +6245,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
         <v>206</v>
-      </c>
-      <c r="C59" t="n">
-        <v>60</v>
-      </c>
-      <c r="D59" t="s">
-        <v>207</v>
       </c>
       <c r="E59" t="s">
         <v>207</v>
@@ -6229,29 +6260,19 @@
         <v>208</v>
       </c>
       <c r="G59"/>
-      <c r="H59" t="s">
-        <v>48</v>
-      </c>
-      <c r="I59" t="s">
-        <v>209</v>
-      </c>
+      <c r="H59"/>
+      <c r="I59"/>
       <c r="J59"/>
-      <c r="K59" t="s">
-        <v>397</v>
-      </c>
+      <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59" t="s">
-        <v>398</v>
-      </c>
+      <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
-      <c r="T59" t="s">
-        <v>399</v>
-      </c>
+      <c r="T59"/>
       <c r="U59" t="s">
         <v>400</v>
       </c>
@@ -6262,43 +6283,47 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C60" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
         <v>210</v>
       </c>
       <c r="E60" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" t="s">
         <v>211</v>
-      </c>
-      <c r="F60" t="s">
-        <v>212</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
         <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J60"/>
-      <c r="K60"/>
+      <c r="K60" t="s">
+        <v>401</v>
+      </c>
       <c r="L60"/>
-      <c r="M60" t="s">
-        <v>210</v>
-      </c>
+      <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
+      <c r="T60" t="s">
+        <v>403</v>
+      </c>
+      <c r="U60" t="s">
+        <v>404</v>
+      </c>
       <c r="V60"/>
     </row>
     <row r="61">
@@ -6306,38 +6331,38 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C61" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" t="s">
         <v>214</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>215</v>
-      </c>
-      <c r="F61" t="s">
-        <v>216</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
         <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="R61"/>
       <c r="S61"/>
@@ -6350,10 +6375,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C62" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
         <v>217</v>
@@ -6364,14 +6389,12 @@
       <c r="F62" t="s">
         <v>219</v>
       </c>
-      <c r="G62" t="s">
-        <v>220</v>
-      </c>
+      <c r="G62"/>
       <c r="H62" t="s">
         <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -6383,7 +6406,7 @@
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="R62"/>
       <c r="S62"/>
@@ -6396,45 +6419,45 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C63" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" t="s">
+        <v>221</v>
+      </c>
+      <c r="F63" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" t="s">
         <v>223</v>
       </c>
-      <c r="E63" t="s">
-        <v>223</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" t="s">
         <v>224</v>
-      </c>
-      <c r="G63" t="s">
-        <v>225</v>
-      </c>
-      <c r="H63" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" t="s">
-        <v>16</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
-      <c r="Q63"/>
+      <c r="Q63" t="s">
+        <v>407</v>
+      </c>
       <c r="R63"/>
       <c r="S63"/>
       <c r="T63"/>
-      <c r="U63" t="s">
-        <v>400</v>
-      </c>
+      <c r="U63"/>
       <c r="V63"/>
     </row>
     <row r="64">
@@ -6442,43 +6465,45 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C64" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" t="s">
         <v>227</v>
       </c>
-      <c r="E64" t="s">
-        <v>227</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>228</v>
       </c>
-      <c r="G64"/>
       <c r="H64" t="s">
         <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64" t="s">
-        <v>404</v>
+        <v>226</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64" t="s">
-        <v>405</v>
-      </c>
+      <c r="Q64"/>
       <c r="R64"/>
       <c r="S64"/>
       <c r="T64"/>
-      <c r="U64"/>
+      <c r="U64" t="s">
+        <v>404</v>
+      </c>
       <c r="V64"/>
     </row>
     <row r="65">
@@ -6486,43 +6511,87 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
         <v>230</v>
       </c>
       <c r="E65" t="s">
+        <v>230</v>
+      </c>
+      <c r="F65" t="s">
         <v>231</v>
-      </c>
-      <c r="F65" t="s">
-        <v>232</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
         <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J65"/>
-      <c r="K65" t="s">
-        <v>406</v>
-      </c>
+      <c r="K65"/>
       <c r="L65"/>
-      <c r="M65"/>
+      <c r="M65" t="s">
+        <v>408</v>
+      </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65"/>
+      <c r="Q65" t="s">
+        <v>409</v>
+      </c>
       <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65"/>
       <c r="V65"/>
     </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" t="s">
+        <v>235</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" t="s">
+        <v>236</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66" t="s">
+        <v>410</v>
+      </c>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -233,18 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/samplingfeaturegeotype/?format=skos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationInReach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The location in the reach the latitude and longitude represent, either the top of the bottom of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PickList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">eventID</t>
@@ -467,6 +455,9 @@
     <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">StreamOrder</t>
   </si>
   <si>
@@ -863,7 +854,7 @@
     <t xml:space="preserve">MIDLAT</t>
   </si>
   <si>
-    <t xml:space="preserve">BottomReachLatitude</t>
+    <t xml:space="preserve">MiddleReachLatitude</t>
   </si>
   <si>
     <t xml:space="preserve">LAT_DD83</t>
@@ -884,7 +875,7 @@
     <t xml:space="preserve">MIDLONG</t>
   </si>
   <si>
-    <t xml:space="preserve">BottomReachLongitude</t>
+    <t xml:space="preserve">MiddleReachLongitude</t>
   </si>
   <si>
     <t xml:space="preserve">LON_DD83</t>
@@ -893,10 +884,10 @@
     <t xml:space="preserve">Long</t>
   </si>
   <si>
-    <t xml:space="preserve">Location In Reach</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EventID</t>
   </si>
   <si>
     <t xml:space="preserve">Event Identification</t>
@@ -2181,29 +2172,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2258,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
@@ -2285,13 +2253,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -2312,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2323,7 +2291,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -2333,13 +2301,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -2360,13 +2328,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -2374,7 +2342,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
@@ -2387,13 +2355,13 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -2463,13 +2431,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2492,13 +2460,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -2508,10 +2476,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -2525,10 +2493,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
@@ -2539,7 +2507,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -2554,13 +2522,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2571,7 +2539,7 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -2585,13 +2553,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -2612,13 +2580,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2648,22 +2616,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2675,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2689,29 +2657,29 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -2722,19 +2690,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
@@ -2753,31 +2721,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
         <v>130</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>131</v>
-      </c>
-      <c r="G4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -2788,31 +2756,31 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
@@ -2823,29 +2791,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -2856,19 +2824,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -2887,29 +2855,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2920,19 +2888,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
@@ -2942,7 +2910,7 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -2953,29 +2921,29 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
         <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -2986,29 +2954,29 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -3019,29 +2987,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -3052,31 +3020,31 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -3087,28 +3055,28 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" t="n">
         <v>16</v>
       </c>
       <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" t="s">
         <v>167</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
         <v>168</v>
-      </c>
-      <c r="G14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>171</v>
       </c>
       <c r="K14" t="s">
         <v>54</v>
@@ -3122,31 +3090,31 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D15" t="n">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -3157,31 +3125,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D16" t="n">
         <v>18</v>
       </c>
       <c r="E16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" t="s">
         <v>176</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
         <v>178</v>
-      </c>
-      <c r="H16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -3192,31 +3160,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" t="n">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
@@ -3227,31 +3195,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" t="n">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19">
@@ -3262,31 +3230,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
@@ -3297,31 +3265,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" t="n">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
@@ -3332,31 +3300,31 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" t="n">
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -3367,31 +3335,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D22" t="n">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
@@ -3402,31 +3370,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D23" t="n">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
@@ -3437,29 +3405,29 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D24" t="n">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
         <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -3470,25 +3438,25 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D25" t="n">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -3499,29 +3467,29 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D26" t="n">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -3532,29 +3500,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D27" t="n">
         <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -3565,29 +3533,29 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D28" t="n">
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -3598,31 +3566,31 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D29" t="n">
         <v>63</v>
       </c>
       <c r="E29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" t="s">
         <v>220</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
         <v>221</v>
       </c>
-      <c r="G29" t="s">
+      <c r="K29" t="s">
         <v>222</v>
-      </c>
-      <c r="H29" t="s">
-        <v>223</v>
-      </c>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" t="s">
-        <v>224</v>
-      </c>
-      <c r="K29" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="30">
@@ -3633,22 +3601,22 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D30" t="n">
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
@@ -3657,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
@@ -3668,29 +3636,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D31" t="n">
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -3701,29 +3669,29 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
         <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3742,19 +3710,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3766,51 +3734,51 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" t="s">
         <v>237</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>238</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>239</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>241</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>242</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>244</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>245</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>246</v>
-      </c>
-      <c r="T1" t="s">
-        <v>247</v>
-      </c>
-      <c r="U1" t="s">
-        <v>248</v>
-      </c>
-      <c r="V1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -3846,7 +3814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3854,7 +3822,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -3882,7 +3850,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -3890,7 +3858,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -3918,7 +3886,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -3926,7 +3894,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3952,7 +3920,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -3960,7 +3928,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -3988,21 +3956,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" t="s">
         <v>255</v>
-      </c>
-      <c r="E7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7" t="s">
-        <v>258</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -4024,7 +3992,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -4032,7 +4000,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -4060,21 +4028,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" t="s">
-        <v>263</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -4096,7 +4064,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -4128,7 +4096,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -4136,7 +4104,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -4164,7 +4132,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -4172,7 +4140,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -4185,32 +4153,32 @@
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -4218,7 +4186,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -4234,10 +4202,10 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -4245,14 +4213,14 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4260,7 +4228,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
@@ -4286,7 +4254,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -4294,7 +4262,7 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F15" t="s">
         <v>52</v>
@@ -4320,7 +4288,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -4328,7 +4296,7 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -4354,7 +4322,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -4362,7 +4330,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -4373,32 +4341,32 @@
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -4406,7 +4374,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -4432,7 +4400,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -4440,7 +4408,7 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -4451,32 +4419,32 @@
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -4508,7 +4476,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -4538,7 +4506,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -4568,22 +4536,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -4602,161 +4570,173 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
         <v>76</v>
       </c>
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24"/>
       <c r="H24" t="s">
         <v>25</v>
       </c>
       <c r="I24"/>
-      <c r="J24"/>
+      <c r="J24" t="s">
+        <v>292</v>
+      </c>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
+      <c r="M24" t="s">
+        <v>293</v>
+      </c>
+      <c r="N24" t="s">
+        <v>294</v>
+      </c>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24"/>
+      <c r="Q24" t="s">
+        <v>293</v>
+      </c>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24"/>
+      <c r="T24" t="s">
+        <v>295</v>
+      </c>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25"/>
-      <c r="J25" t="s">
-        <v>295</v>
-      </c>
+      <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25" t="s">
-        <v>296</v>
-      </c>
-      <c r="N25" t="s">
-        <v>297</v>
-      </c>
+      <c r="M25"/>
+      <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25" t="s">
-        <v>296</v>
-      </c>
+      <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" t="s">
-        <v>298</v>
-      </c>
+      <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
         <v>81</v>
       </c>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I26"/>
-      <c r="J26"/>
+      <c r="J26" t="s">
+        <v>296</v>
+      </c>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="M26" t="s">
+        <v>297</v>
+      </c>
+      <c r="N26" t="s">
+        <v>298</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26"/>
+      <c r="Q26" t="s">
+        <v>299</v>
+      </c>
       <c r="R26"/>
       <c r="S26"/>
-      <c r="T26"/>
+      <c r="T26" t="s">
+        <v>300</v>
+      </c>
       <c r="U26"/>
       <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" t="s">
         <v>83</v>
       </c>
-      <c r="E27"/>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>84</v>
       </c>
-      <c r="G27" t="s">
-        <v>85</v>
-      </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N27" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="U27"/>
       <c r="V27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -4764,7 +4744,7 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
@@ -4777,89 +4757,77 @@
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28" t="s">
-        <v>306</v>
-      </c>
-      <c r="N28" t="s">
-        <v>307</v>
-      </c>
+      <c r="M28"/>
+      <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
         <v>90</v>
       </c>
-      <c r="E29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>91</v>
-      </c>
-      <c r="G29" t="s">
-        <v>92</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29"/>
-      <c r="J29" t="s">
-        <v>311</v>
-      </c>
+      <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-      <c r="Q29" t="s">
-        <v>312</v>
-      </c>
+      <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
-      <c r="T29" t="s">
-        <v>313</v>
-      </c>
+      <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
         <v>94</v>
       </c>
-      <c r="G30" t="s">
-        <v>95</v>
-      </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -4878,22 +4846,20 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" t="s">
         <v>98</v>
       </c>
+      <c r="G31"/>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -4912,20 +4878,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
         <v>102</v>
       </c>
-      <c r="G32"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -4944,7 +4912,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -4978,23 +4946,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="s">
         <v>109</v>
       </c>
-      <c r="G34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -5012,34 +4978,60 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35" t="s">
         <v>314</v>
       </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
+      <c r="N35" t="s">
+        <v>315</v>
+      </c>
+      <c r="O35" t="s">
+        <v>316</v>
+      </c>
       <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
+      <c r="Q35" t="s">
+        <v>317</v>
+      </c>
+      <c r="R35" t="s">
+        <v>318</v>
+      </c>
       <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
+      <c r="T35" t="s">
+        <v>319</v>
+      </c>
+      <c r="U35" t="s">
+        <v>320</v>
+      </c>
       <c r="V35"/>
     </row>
     <row r="36">
@@ -5047,57 +5039,43 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
         <v>48</v>
       </c>
-      <c r="I36" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" t="s">
-        <v>315</v>
-      </c>
-      <c r="K36" t="s">
-        <v>316</v>
-      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>317</v>
-      </c>
-      <c r="N36" t="s">
-        <v>318</v>
-      </c>
-      <c r="O36" t="s">
-        <v>319</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>320</v>
-      </c>
-      <c r="R36" t="s">
-        <v>321</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="R36"/>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>322</v>
-      </c>
-      <c r="U36" t="s">
-        <v>323</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="U36"/>
       <c r="V36"/>
     </row>
     <row r="37">
@@ -5105,43 +5083,59 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="C37" t="n">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>127</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>128</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>129</v>
       </c>
-      <c r="G37"/>
       <c r="H37" t="s">
         <v>48</v>
       </c>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>324</v>
-      </c>
-      <c r="N37"/>
-      <c r="O37"/>
+        <v>325</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>327</v>
+      </c>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>325</v>
-      </c>
-      <c r="R37"/>
+        <v>328</v>
+      </c>
+      <c r="R37" t="s">
+        <v>324</v>
+      </c>
       <c r="S37"/>
       <c r="T37" t="s">
-        <v>127</v>
-      </c>
-      <c r="U37"/>
+        <v>126</v>
+      </c>
+      <c r="U37" t="s">
+        <v>329</v>
+      </c>
       <c r="V37"/>
     </row>
     <row r="38">
@@ -5149,59 +5143,49 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
         <v>130</v>
       </c>
-      <c r="E38" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" t="s">
-        <v>134</v>
-      </c>
-      <c r="J38" t="s">
-        <v>326</v>
-      </c>
-      <c r="K38" t="s">
-        <v>327</v>
-      </c>
+      <c r="J38"/>
+      <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N38" t="s">
-        <v>329</v>
-      </c>
-      <c r="O38" t="s">
-        <v>330</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>331</v>
-      </c>
-      <c r="R38" t="s">
-        <v>327</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="R38"/>
       <c r="S38"/>
       <c r="T38" t="s">
-        <v>130</v>
-      </c>
-      <c r="U38" t="s">
-        <v>332</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="U38"/>
       <c r="V38"/>
     </row>
     <row r="39">
@@ -5209,49 +5193,53 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" t="s">
         <v>136</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>137</v>
       </c>
-      <c r="F39" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" t="s">
-        <v>133</v>
-      </c>
+      <c r="G39"/>
       <c r="H39" t="s">
         <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39"/>
+        <v>120</v>
+      </c>
+      <c r="J39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K39" t="s">
+        <v>335</v>
+      </c>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N39" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39" t="s">
-        <v>336</v>
-      </c>
-      <c r="U39"/>
+        <v>339</v>
+      </c>
+      <c r="U39" t="s">
+        <v>329</v>
+      </c>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -5259,10 +5247,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>139</v>
@@ -5277,35 +5265,23 @@
       <c r="H40" t="s">
         <v>48</v>
       </c>
-      <c r="I40" t="s">
-        <v>124</v>
-      </c>
+      <c r="I40"/>
       <c r="J40" t="s">
-        <v>337</v>
-      </c>
-      <c r="K40" t="s">
-        <v>338</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>339</v>
-      </c>
-      <c r="N40" t="s">
-        <v>340</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40" t="s">
-        <v>341</v>
-      </c>
+      <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
-      <c r="T40" t="s">
-        <v>342</v>
-      </c>
-      <c r="U40" t="s">
-        <v>332</v>
-      </c>
+      <c r="T40"/>
+      <c r="U40"/>
       <c r="V40"/>
     </row>
     <row r="41">
@@ -5313,40 +5289,44 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" t="s">
         <v>143</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>144</v>
-      </c>
-      <c r="F41" t="s">
-        <v>145</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
         <v>48</v>
       </c>
-      <c r="I41"/>
+      <c r="I41" t="s">
+        <v>120</v>
+      </c>
       <c r="J41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41" t="s">
-        <v>344</v>
-      </c>
+      <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41"/>
+      <c r="Q41" t="s">
+        <v>343</v>
+      </c>
       <c r="R41"/>
       <c r="S41"/>
-      <c r="T41"/>
+      <c r="T41" t="s">
+        <v>344</v>
+      </c>
       <c r="U41"/>
       <c r="V41"/>
     </row>
@@ -5355,10 +5335,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
@@ -5374,15 +5354,19 @@
         <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="M42" t="s">
+        <v>345</v>
+      </c>
+      <c r="N42" t="s">
+        <v>146</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -5390,9 +5374,7 @@
       </c>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42" t="s">
-        <v>347</v>
-      </c>
+      <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
     </row>
@@ -5401,29 +5383,29 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
         <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
@@ -5431,12 +5413,12 @@
         <v>348</v>
       </c>
       <c r="N43" t="s">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
@@ -5449,47 +5431,55 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
         <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>350</v>
-      </c>
-      <c r="K44"/>
+        <v>351</v>
+      </c>
+      <c r="K44" t="s">
+        <v>352</v>
+      </c>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N44" t="s">
-        <v>352</v>
-      </c>
-      <c r="O44"/>
+        <v>354</v>
+      </c>
+      <c r="O44" t="s">
+        <v>355</v>
+      </c>
       <c r="P44"/>
-      <c r="Q44" t="s">
-        <v>353</v>
-      </c>
-      <c r="R44"/>
+      <c r="Q44"/>
+      <c r="R44" t="s">
+        <v>356</v>
+      </c>
       <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
+      <c r="T44" t="s">
+        <v>357</v>
+      </c>
+      <c r="U44" t="s">
+        <v>358</v>
+      </c>
       <c r="V44"/>
     </row>
     <row r="45">
@@ -5497,10 +5487,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>157</v>
@@ -5516,36 +5506,28 @@
         <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
-      </c>
-      <c r="K45" t="s">
-        <v>355</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N45" t="s">
-        <v>357</v>
-      </c>
-      <c r="O45" t="s">
-        <v>358</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O45"/>
       <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45" t="s">
-        <v>359</v>
-      </c>
+      <c r="Q45" t="s">
+        <v>362</v>
+      </c>
+      <c r="R45"/>
       <c r="S45"/>
-      <c r="T45" t="s">
-        <v>360</v>
-      </c>
-      <c r="U45" t="s">
-        <v>361</v>
-      </c>
+      <c r="T45"/>
+      <c r="U45"/>
       <c r="V45"/>
     </row>
     <row r="46">
@@ -5553,10 +5535,10 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>160</v>
@@ -5567,132 +5549,132 @@
       <c r="F46" t="s">
         <v>162</v>
       </c>
-      <c r="G46"/>
+      <c r="G46" t="s">
+        <v>129</v>
+      </c>
       <c r="H46" t="s">
         <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>362</v>
-      </c>
-      <c r="K46"/>
-      <c r="L46"/>
+        <v>363</v>
+      </c>
+      <c r="K46" t="s">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
       <c r="M46" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N46" t="s">
-        <v>364</v>
-      </c>
-      <c r="O46"/>
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>355</v>
+      </c>
       <c r="P46"/>
-      <c r="Q46" t="s">
-        <v>365</v>
-      </c>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
+      <c r="Q46"/>
+      <c r="R46" t="s">
+        <v>356</v>
+      </c>
+      <c r="S46" t="n">
+        <v>88</v>
+      </c>
+      <c r="T46" t="s">
+        <v>367</v>
+      </c>
+      <c r="U46" t="s">
+        <v>358</v>
+      </c>
+      <c r="V46" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="H47" t="s">
         <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47" t="s">
-        <v>366</v>
-      </c>
-      <c r="K47" t="s">
-        <v>355</v>
-      </c>
-      <c r="L47" t="s">
-        <v>367</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
       <c r="M47" t="s">
-        <v>368</v>
-      </c>
-      <c r="N47" t="s">
         <v>369</v>
       </c>
-      <c r="O47" t="s">
-        <v>358</v>
-      </c>
+      <c r="N47"/>
+      <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" t="s">
-        <v>359</v>
-      </c>
-      <c r="S47" t="n">
-        <v>88</v>
-      </c>
+      <c r="R47"/>
+      <c r="S47"/>
       <c r="T47" t="s">
+        <v>164</v>
+      </c>
+      <c r="U47" t="s">
         <v>370</v>
       </c>
-      <c r="U47" t="s">
-        <v>361</v>
-      </c>
-      <c r="V47" t="s">
-        <v>371</v>
-      </c>
+      <c r="V47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="H48" t="s">
         <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5701,7 +5683,7 @@
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="U48" t="s">
         <v>373</v>
@@ -5713,46 +5695,58 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" t="s">
         <v>173</v>
       </c>
-      <c r="F49" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" t="s">
-        <v>134</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49"/>
+      <c r="K49" t="s">
+        <v>374</v>
+      </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>374</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49"/>
+        <v>173</v>
+      </c>
+      <c r="N49" t="s">
+        <v>173</v>
+      </c>
+      <c r="O49" t="s">
+        <v>375</v>
+      </c>
       <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
+      <c r="Q49" t="s">
+        <v>376</v>
+      </c>
+      <c r="R49" t="s">
+        <v>377</v>
+      </c>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="U49" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="V49"/>
     </row>
@@ -5761,58 +5755,58 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G50" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H50" t="s">
         <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>176</v>
+        <v>378</v>
       </c>
       <c r="K50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="N50" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="O50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="R50" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="S50"/>
       <c r="T50" t="s">
-        <v>176</v>
+        <v>383</v>
       </c>
       <c r="U50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V50"/>
     </row>
@@ -5821,10 +5815,10 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
         <v>182</v>
@@ -5836,43 +5830,41 @@
         <v>184</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H51" t="s">
         <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N51" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P51"/>
-      <c r="Q51" t="s">
-        <v>385</v>
-      </c>
+      <c r="Q51"/>
       <c r="R51" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="S51"/>
       <c r="T51" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U51" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V51"/>
     </row>
@@ -5881,10 +5873,10 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
         <v>185</v>
@@ -5896,41 +5888,37 @@
         <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>134</v>
-      </c>
-      <c r="J52" t="s">
-        <v>387</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="J52"/>
       <c r="K52" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
+        <v>185</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52" t="s">
         <v>388</v>
-      </c>
-      <c r="N52" t="s">
-        <v>389</v>
-      </c>
-      <c r="O52" t="s">
-        <v>378</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="S52"/>
       <c r="T52" t="s">
-        <v>390</v>
+        <v>185</v>
       </c>
       <c r="U52" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V52"/>
     </row>
@@ -5939,10 +5927,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
         <v>188</v>
@@ -5954,17 +5942,17 @@
         <v>190</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H53" t="s">
         <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
@@ -5972,19 +5960,19 @@
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="S53"/>
       <c r="T53" t="s">
         <v>188</v>
       </c>
       <c r="U53" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V53"/>
     </row>
@@ -5993,10 +5981,10 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>191</v>
@@ -6008,38 +5996,34 @@
         <v>193</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H54" t="s">
         <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>180</v>
-      </c>
-      <c r="J54"/>
+        <v>130</v>
+      </c>
+      <c r="J54" t="s">
+        <v>389</v>
+      </c>
       <c r="K54" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L54"/>
-      <c r="M54" t="s">
-        <v>191</v>
-      </c>
+      <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54" t="s">
-        <v>380</v>
-      </c>
+      <c r="Q54" t="s">
+        <v>390</v>
+      </c>
+      <c r="R54"/>
       <c r="S54"/>
-      <c r="T54" t="s">
-        <v>191</v>
-      </c>
-      <c r="U54" t="s">
-        <v>377</v>
-      </c>
+      <c r="T54"/>
+      <c r="U54"/>
       <c r="V54"/>
     </row>
     <row r="55">
@@ -6047,10 +6031,10 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
         <v>194</v>
@@ -6062,34 +6046,38 @@
         <v>196</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H55" t="s">
         <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
+        <v>391</v>
+      </c>
+      <c r="K55" t="s">
         <v>392</v>
       </c>
-      <c r="K55" t="s">
-        <v>377</v>
-      </c>
       <c r="L55"/>
-      <c r="M55"/>
+      <c r="M55" t="s">
+        <v>393</v>
+      </c>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P55"/>
-      <c r="Q55" t="s">
-        <v>393</v>
-      </c>
+      <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
+      <c r="T55" t="s">
+        <v>383</v>
+      </c>
+      <c r="U55" t="s">
+        <v>381</v>
+      </c>
       <c r="V55"/>
     </row>
     <row r="56">
@@ -6097,10 +6085,10 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
         <v>197</v>
@@ -6112,37 +6100,33 @@
         <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H56" t="s">
         <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>134</v>
-      </c>
-      <c r="J56" t="s">
-        <v>394</v>
-      </c>
-      <c r="K56" t="s">
-        <v>395</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U56" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="V56"/>
     </row>
@@ -6151,10 +6135,10 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>200</v>
@@ -6165,35 +6149,29 @@
       <c r="F57" t="s">
         <v>202</v>
       </c>
-      <c r="G57" t="s">
-        <v>133</v>
-      </c>
+      <c r="G57"/>
       <c r="H57" t="s">
         <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N57"/>
-      <c r="O57" t="s">
-        <v>384</v>
-      </c>
+      <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57"/>
+      <c r="Q57" t="s">
+        <v>396</v>
+      </c>
       <c r="R57"/>
       <c r="S57"/>
-      <c r="T57" t="s">
-        <v>390</v>
-      </c>
-      <c r="U57" t="s">
-        <v>384</v>
-      </c>
+      <c r="T57"/>
+      <c r="U57"/>
       <c r="V57"/>
     </row>
     <row r="58">
@@ -6201,10 +6179,10 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
         <v>203</v>
@@ -6216,28 +6194,22 @@
         <v>205</v>
       </c>
       <c r="G58"/>
-      <c r="H58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I58" t="s">
-        <v>124</v>
-      </c>
+      <c r="H58"/>
+      <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58" t="s">
-        <v>398</v>
-      </c>
+      <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" t="s">
-        <v>399</v>
-      </c>
+      <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
-      <c r="U58"/>
+      <c r="U58" t="s">
+        <v>397</v>
+      </c>
       <c r="V58"/>
     </row>
     <row r="59">
@@ -6245,13 +6217,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
         <v>207</v>
@@ -6260,21 +6232,31 @@
         <v>208</v>
       </c>
       <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
+      <c r="H59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" t="s">
+        <v>209</v>
+      </c>
       <c r="J59"/>
-      <c r="K59"/>
+      <c r="K59" t="s">
+        <v>398</v>
+      </c>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59"/>
+      <c r="Q59" t="s">
+        <v>399</v>
+      </c>
       <c r="R59"/>
       <c r="S59"/>
-      <c r="T59"/>
+      <c r="T59" t="s">
+        <v>400</v>
+      </c>
       <c r="U59" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V59"/>
     </row>
@@ -6283,33 +6265,33 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C60" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
         <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
         <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J60"/>
-      <c r="K60" t="s">
-        <v>401</v>
-      </c>
+      <c r="K60"/>
       <c r="L60"/>
-      <c r="M60"/>
+      <c r="M60" t="s">
+        <v>210</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
@@ -6318,12 +6300,8 @@
       </c>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" t="s">
-        <v>403</v>
-      </c>
-      <c r="U60" t="s">
-        <v>404</v>
-      </c>
+      <c r="T60"/>
+      <c r="U60"/>
       <c r="V60"/>
     </row>
     <row r="61">
@@ -6331,38 +6309,38 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C61" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
         <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R61"/>
       <c r="S61"/>
@@ -6375,10 +6353,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C62" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
         <v>217</v>
@@ -6389,12 +6367,14 @@
       <c r="F62" t="s">
         <v>219</v>
       </c>
-      <c r="G62"/>
+      <c r="G62" t="s">
+        <v>220</v>
+      </c>
       <c r="H62" t="s">
         <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -6406,7 +6386,7 @@
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R62"/>
       <c r="S62"/>
@@ -6419,45 +6399,45 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C63" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H63" t="s">
         <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
-      <c r="Q63" t="s">
-        <v>407</v>
-      </c>
+      <c r="Q63"/>
       <c r="R63"/>
       <c r="S63"/>
       <c r="T63"/>
-      <c r="U63"/>
+      <c r="U63" t="s">
+        <v>401</v>
+      </c>
       <c r="V63"/>
     </row>
     <row r="64">
@@ -6465,45 +6445,43 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C64" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F64" t="s">
-        <v>227</v>
-      </c>
-      <c r="G64" t="s">
         <v>228</v>
       </c>
+      <c r="G64"/>
       <c r="H64" t="s">
         <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64" t="s">
-        <v>226</v>
+        <v>405</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64"/>
+      <c r="Q64" t="s">
+        <v>406</v>
+      </c>
       <c r="R64"/>
       <c r="S64"/>
       <c r="T64"/>
-      <c r="U64" t="s">
-        <v>404</v>
-      </c>
+      <c r="U64"/>
       <c r="V64"/>
     </row>
     <row r="65">
@@ -6511,87 +6489,43 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="C65" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
         <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
         <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J65"/>
-      <c r="K65"/>
+      <c r="K65" t="s">
+        <v>407</v>
+      </c>
       <c r="L65"/>
-      <c r="M65" t="s">
-        <v>408</v>
-      </c>
+      <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65" t="s">
-        <v>409</v>
-      </c>
+      <c r="Q65"/>
       <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65"/>
       <c r="V65"/>
     </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" t="s">
-        <v>235</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" t="s">
-        <v>236</v>
-      </c>
-      <c r="J66"/>
-      <c r="K66" t="s">
-        <v>410</v>
-      </c>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/samplingfeaturegeotype/?format=skos</t>
   </si>
   <si>
-    <t xml:space="preserve">eventID</t>
+    <t xml:space="preserve">EventID</t>
   </si>
   <si>
     <t xml:space="preserve">An identifier for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. eventID coorsponds to ODM2</t>
@@ -885,9 +885,6 @@
   </si>
   <si>
     <t xml:space="preserve">Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventID</t>
   </si>
   <si>
     <t xml:space="preserve">Event Identification</t>
@@ -2353,7 +2350,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>86</v>
       </c>
@@ -4541,10 +4540,10 @@
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
         <v>289</v>
-      </c>
-      <c r="E23" t="s">
-        <v>290</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
@@ -4578,7 +4577,7 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -4591,25 +4590,25 @@
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="s">
+        <v>292</v>
+      </c>
+      <c r="N24" t="s">
         <v>293</v>
-      </c>
-      <c r="N24" t="s">
-        <v>294</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
@@ -4665,25 +4664,25 @@
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" t="s">
+        <v>296</v>
+      </c>
+      <c r="N26" t="s">
         <v>297</v>
-      </c>
-      <c r="N26" t="s">
-        <v>298</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U26"/>
       <c r="V26"/>
@@ -4698,7 +4697,7 @@
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
@@ -4711,25 +4710,25 @@
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
+        <v>302</v>
+      </c>
+      <c r="N27" t="s">
         <v>303</v>
-      </c>
-      <c r="N27" t="s">
-        <v>304</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U27"/>
       <c r="V27"/>
@@ -4744,7 +4743,7 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
@@ -4757,7 +4756,7 @@
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -4766,19 +4765,19 @@
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -4812,7 +4811,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -4846,7 +4845,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -4878,7 +4877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -4912,7 +4911,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -4946,7 +4945,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -5003,34 +5002,34 @@
         <v>120</v>
       </c>
       <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
         <v>312</v>
-      </c>
-      <c r="K35" t="s">
-        <v>313</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="s">
+        <v>313</v>
+      </c>
+      <c r="N35" t="s">
         <v>314</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>315</v>
-      </c>
-      <c r="O35" t="s">
-        <v>316</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
+        <v>316</v>
+      </c>
+      <c r="R35" t="s">
         <v>317</v>
-      </c>
-      <c r="R35" t="s">
-        <v>318</v>
       </c>
       <c r="S35"/>
       <c r="T35" t="s">
+        <v>318</v>
+      </c>
+      <c r="U35" t="s">
         <v>319</v>
-      </c>
-      <c r="U35" t="s">
-        <v>320</v>
       </c>
       <c r="V35"/>
     </row>
@@ -5062,13 +5061,13 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
@@ -5107,34 +5106,34 @@
         <v>130</v>
       </c>
       <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
         <v>323</v>
-      </c>
-      <c r="K37" t="s">
-        <v>324</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="s">
+        <v>324</v>
+      </c>
+      <c r="N37" t="s">
         <v>325</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>326</v>
-      </c>
-      <c r="O37" t="s">
-        <v>327</v>
       </c>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S37"/>
       <c r="T37" t="s">
         <v>126</v>
       </c>
       <c r="U37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V37"/>
     </row>
@@ -5170,20 +5169,20 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
+        <v>329</v>
+      </c>
+      <c r="N38" t="s">
         <v>330</v>
-      </c>
-      <c r="N38" t="s">
-        <v>331</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U38"/>
       <c r="V38"/>
@@ -5215,30 +5214,30 @@
         <v>120</v>
       </c>
       <c r="J39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" t="s">
         <v>334</v>
-      </c>
-      <c r="K39" t="s">
-        <v>335</v>
       </c>
       <c r="L39"/>
       <c r="M39" t="s">
+        <v>335</v>
+      </c>
+      <c r="N39" t="s">
         <v>336</v>
-      </c>
-      <c r="N39" t="s">
-        <v>337</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V39"/>
     </row>
@@ -5267,12 +5266,12 @@
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -5311,7 +5310,7 @@
         <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5320,12 +5319,12 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -5362,7 +5361,7 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N42" t="s">
         <v>146</v>
@@ -5370,7 +5369,7 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
@@ -5405,20 +5404,20 @@
         <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
+        <v>347</v>
+      </c>
+      <c r="N43" t="s">
         <v>348</v>
-      </c>
-      <c r="N43" t="s">
-        <v>349</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
@@ -5453,32 +5452,32 @@
         <v>120</v>
       </c>
       <c r="J44" t="s">
+        <v>350</v>
+      </c>
+      <c r="K44" t="s">
         <v>351</v>
-      </c>
-      <c r="K44" t="s">
-        <v>352</v>
       </c>
       <c r="L44"/>
       <c r="M44" t="s">
+        <v>352</v>
+      </c>
+      <c r="N44" t="s">
         <v>353</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>354</v>
-      </c>
-      <c r="O44" t="s">
-        <v>355</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S44"/>
       <c r="T44" t="s">
+        <v>356</v>
+      </c>
+      <c r="U44" t="s">
         <v>357</v>
-      </c>
-      <c r="U44" t="s">
-        <v>358</v>
       </c>
       <c r="V44"/>
     </row>
@@ -5509,20 +5508,20 @@
         <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
+        <v>359</v>
+      </c>
+      <c r="N45" t="s">
         <v>360</v>
-      </c>
-      <c r="N45" t="s">
-        <v>361</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
@@ -5559,39 +5558,39 @@
         <v>130</v>
       </c>
       <c r="J46" t="s">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s">
         <v>363</v>
       </c>
-      <c r="K46" t="s">
-        <v>352</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>364</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>365</v>
       </c>
-      <c r="N46" t="s">
-        <v>366</v>
-      </c>
       <c r="O46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S46" t="n">
         <v>88</v>
       </c>
       <c r="T46" t="s">
+        <v>366</v>
+      </c>
+      <c r="U46" t="s">
+        <v>357</v>
+      </c>
+      <c r="V46" t="s">
         <v>367</v>
-      </c>
-      <c r="U46" t="s">
-        <v>358</v>
-      </c>
-      <c r="V46" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="47">
@@ -5626,7 +5625,7 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -5638,7 +5637,7 @@
         <v>164</v>
       </c>
       <c r="U47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V47"/>
     </row>
@@ -5674,7 +5673,7 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5683,10 +5682,10 @@
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
+        <v>371</v>
+      </c>
+      <c r="U48" t="s">
         <v>372</v>
-      </c>
-      <c r="U48" t="s">
-        <v>373</v>
       </c>
       <c r="V48"/>
     </row>
@@ -5722,7 +5721,7 @@
         <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
@@ -5732,21 +5731,21 @@
         <v>173</v>
       </c>
       <c r="O49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P49"/>
       <c r="Q49" t="s">
+        <v>375</v>
+      </c>
+      <c r="R49" t="s">
         <v>376</v>
-      </c>
-      <c r="R49" t="s">
-        <v>377</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="s">
         <v>173</v>
       </c>
       <c r="U49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V49"/>
     </row>
@@ -5779,34 +5778,34 @@
         <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
+        <v>378</v>
+      </c>
+      <c r="N50" t="s">
         <v>379</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>380</v>
-      </c>
-      <c r="O50" t="s">
-        <v>381</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S50"/>
       <c r="T50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V50"/>
     </row>
@@ -5839,32 +5838,32 @@
         <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
+        <v>384</v>
+      </c>
+      <c r="N51" t="s">
         <v>385</v>
       </c>
-      <c r="N51" t="s">
-        <v>386</v>
-      </c>
       <c r="O51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S51"/>
       <c r="T51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V51"/>
     </row>
@@ -5898,7 +5897,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
@@ -5906,19 +5905,19 @@
       </c>
       <c r="N52"/>
       <c r="O52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S52"/>
       <c r="T52" t="s">
         <v>185</v>
       </c>
       <c r="U52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V52"/>
     </row>
@@ -5952,7 +5951,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
@@ -5960,19 +5959,19 @@
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S53"/>
       <c r="T53" t="s">
         <v>188</v>
       </c>
       <c r="U53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V53"/>
     </row>
@@ -6005,20 +6004,20 @@
         <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R54"/>
       <c r="S54"/>
@@ -6055,28 +6054,28 @@
         <v>130</v>
       </c>
       <c r="J55" t="s">
+        <v>390</v>
+      </c>
+      <c r="K55" t="s">
         <v>391</v>
-      </c>
-      <c r="K55" t="s">
-        <v>392</v>
       </c>
       <c r="L55"/>
       <c r="M55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V55"/>
     </row>
@@ -6112,21 +6111,21 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V56"/>
     </row>
@@ -6160,13 +6159,13 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R57"/>
       <c r="S57"/>
@@ -6208,7 +6207,7 @@
       <c r="S58"/>
       <c r="T58"/>
       <c r="U58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V58"/>
     </row>
@@ -6240,7 +6239,7 @@
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -6248,15 +6247,15 @@
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R59"/>
       <c r="S59"/>
       <c r="T59" t="s">
+        <v>399</v>
+      </c>
+      <c r="U59" t="s">
         <v>400</v>
-      </c>
-      <c r="U59" t="s">
-        <v>401</v>
       </c>
       <c r="V59"/>
     </row>
@@ -6296,7 +6295,7 @@
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
@@ -6340,7 +6339,7 @@
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R61"/>
       <c r="S61"/>
@@ -6386,7 +6385,7 @@
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R62"/>
       <c r="S62"/>
@@ -6436,7 +6435,7 @@
       <c r="S63"/>
       <c r="T63"/>
       <c r="U63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V63"/>
     </row>
@@ -6470,13 +6469,13 @@
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R64"/>
       <c r="S64"/>
@@ -6512,7 +6511,7 @@
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>

--- a/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
+++ b/Tables/ODM2_DarwinCore_StreamHabitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">An identifier for the set of data. May be a global unique identifier or an identifier specific to a collection or institution.</t>
   </si>
   <si>
-    <t xml:space="preserve">The ScienceBase ID number of the dataset</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interger</t>
   </si>
   <si>
@@ -91,7 +88,7 @@
     <t xml:space="preserve">The name identifying the data set from which the record was derived.</t>
   </si>
   <si>
-    <t xml:space="preserve">Example: EPA NARS 2018 dataset</t>
+    <t xml:space="preserve">EPA NARS 2018 dataset</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
@@ -103,25 +100,40 @@
     <t xml:space="preserve">A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
   </si>
   <si>
-    <t xml:space="preserve">Modified</t>
+    <t xml:space="preserve">modified</t>
   </si>
   <si>
     <t xml:space="preserve">The most recent date-time on which the datasets were combind.</t>
   </si>
   <si>
-    <t xml:space="preserve">Recommended best practice is to use a date that conforms to ISO 8601:2004(E).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
+    <t xml:space="preserve">DatasetOrginization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An identifier for the institution having custody of the object(s) or information referred to in the record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://biocol.org/urn:lsid:biocol.org:col:34777, http://grbio.org/cool/km06-gtbn</t>
+  </si>
+  <si>
     <t xml:space="preserve">DatasetOrginizationCode</t>
   </si>
   <si>
     <t xml:space="preserve">The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record</t>
   </si>
   <si>
-    <t xml:space="preserve">For this implementation of the Darwin Core, this represents the institution who oversees the orgian data sets. Examples:  BLM AIM, EPA NRSA , USFS AREMP, USFS PIBO</t>
+    <t xml:space="preserve">BLM AIM, EPA NRSA , USFS AREMP, USFS PIBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatasetLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An identifier for the collection or dataset from which the record was derived.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.epa.gov/national-aquatic-resource-surveys</t>
   </si>
   <si>
     <t xml:space="preserve">MetadataID</t>
@@ -133,28 +145,27 @@
     <t xml:space="preserve">locationID</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the location identification for the integrated data set the value is the concatenation of the verbatimlocationID and the institutionCode.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example) 5483AIM, 88963AREMP, WtR563EPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimlocationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A code or number that identifies a unique sampling location. A site is a stream segment with a fixed starting and ending location for sampling. Code will remain the same across all site visits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recommended best practice is to use the EPSG code of the SRS, if known. Otherwise use a controlled vocabulary for the name or code of the geodetic datum, if known. Otherwise use a controlled vocabulary for the name or code of the ellipsoid, if known. If none of these is known, use the value unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimWaterbody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The water body name from the original data set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the orgial datasets this field is often refered to as StreamName.</t>
+    <t xml:space="preserve">An identifier for the set of location information. Must be a global unique identifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbatimLocationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbatim from the orgial data set  code or number that identifies a unique sampling location. A site is a stream segment with a fixed starting and ending location for sampling. Code will remain the same across all sampling events.
+An identifier specific to the orgial data set. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5483, 88693. WtR563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the water body in which the Location occurs.</t>
   </si>
   <si>
     <t xml:space="preserve">Latitude</t>
@@ -235,19 +246,25 @@
     <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/samplingfeaturegeotype/?format=skos</t>
   </si>
   <si>
-    <t xml:space="preserve">EventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. eventID coorsponds to ODM2</t>
+    <t xml:space="preserve">eventID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the identifier for an Event (something that occurs at a place and time). Must be a global unique identifer. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
   </si>
   <si>
     <t xml:space="preserve">verbatimEventID</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique number that identifies one sample of a particular site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In habitat datasets this is often referred to as the ReachID. This ID identifying a unique visit to a location, while the SiteID corresponds to the LocationID. We use eventID to corresponds to Darwin Core standard.</t>
+    <t xml:space="preserve">Verbatim from the orgial data set unique identifer that represents a single samping occurance at location. 
+ An identifier specific to the orgial data set. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
   </si>
   <si>
     <t xml:space="preserve">ActionType</t>
@@ -773,34 +790,13 @@
     <t xml:space="preserve">bibliographicCitation</t>
   </si>
   <si>
-    <t xml:space="preserve">modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatasetOrginization</t>
-  </si>
-  <si>
     <t xml:space="preserve">InstitutionID</t>
   </si>
   <si>
-    <t xml:space="preserve">An identifier for the institution having custody of the object(s) or information referred to in the record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example) http://biocol.org/urn:lsid:biocol.org:col:34777, http://grbio.org/cool/km06-gtbn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Institution Code</t>
   </si>
   <si>
-    <t xml:space="preserve">DatasetLink</t>
-  </si>
-  <si>
     <t xml:space="preserve">CollectionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the collection or dataset from which the record was derived.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example) https://www.epa.gov/national-aquatic-resource-surveys</t>
   </si>
   <si>
     <t xml:space="preserve">Location</t>
@@ -1615,23 +1611,21 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1639,32 +1633,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1672,26 +1666,26 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1699,24 +1693,24 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1724,80 +1718,134 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6"/>
+      <c r="E6" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8"/>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8"/>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+      <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1854,28 +1902,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1883,26 +1931,26 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1910,26 +1958,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1937,24 +1983,24 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1962,24 +2008,24 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1987,26 +2033,26 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -2014,24 +2060,24 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -2039,24 +2085,24 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -2064,24 +2110,24 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -2089,28 +2135,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2118,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -2147,26 +2193,26 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2223,26 +2269,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2"/>
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2250,26 +2298,26 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -2277,18 +2325,18 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -2298,26 +2346,26 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -2325,28 +2373,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -2354,26 +2402,26 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2430,28 +2478,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2459,32 +2507,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -2492,28 +2540,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -2521,30 +2569,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -2552,26 +2600,26 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -2579,13 +2627,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2593,10 +2641,10 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2615,22 +2663,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2642,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2656,29 +2704,29 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -2689,27 +2737,27 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -2720,31 +2768,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -2755,31 +2803,31 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
         <v>133</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>134</v>
       </c>
-      <c r="H5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
@@ -2790,29 +2838,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -2823,27 +2871,27 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -2854,29 +2902,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
@@ -2887,29 +2935,29 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -2920,29 +2968,29 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -2953,29 +3001,29 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -2986,29 +3034,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -3019,31 +3067,31 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -3054,31 +3102,31 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D14" t="n">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -3089,31 +3137,31 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D15" t="n">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -3124,31 +3172,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D16" t="n">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
@@ -3159,31 +3207,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D17" t="n">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -3194,31 +3242,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D18" t="n">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -3229,31 +3277,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -3264,31 +3312,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D20" t="n">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
@@ -3299,31 +3347,31 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D21" t="n">
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -3334,31 +3382,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D22" t="n">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -3369,31 +3417,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D23" t="n">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
@@ -3404,29 +3452,29 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D24" t="n">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -3437,25 +3485,25 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D25" t="n">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
@@ -3466,29 +3514,29 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D26" t="n">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -3499,29 +3547,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D27" t="n">
         <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -3532,29 +3580,29 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D28" t="n">
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -3565,31 +3613,31 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D29" t="n">
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -3600,31 +3648,31 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D30" t="n">
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
@@ -3635,29 +3683,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D31" t="n">
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -3668,29 +3716,29 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3709,19 +3757,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3733,51 +3781,51 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="R1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="S1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="T1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="U1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="V1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -3790,11 +3838,9 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2"/>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -3813,21 +3859,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -3849,24 +3895,24 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -3885,22 +3931,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -3919,24 +3965,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6"/>
+      <c r="H6" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3955,24 +3999,24 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -3991,24 +4035,24 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -4027,24 +4071,24 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>257</v>
       </c>
-      <c r="E9" t="s">
-        <v>258</v>
-      </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -4063,20 +4107,20 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -4095,24 +4139,24 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -4131,80 +4175,78 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G13"/>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -4212,29 +4254,29 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -4253,22 +4295,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -4287,22 +4329,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -4321,66 +4363,66 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -4399,64 +4441,64 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -4475,18 +4517,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -4505,18 +4547,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -4535,22 +4577,24 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23"/>
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -4569,64 +4613,64 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -4645,118 +4689,118 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U26"/>
       <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U27"/>
       <c r="V27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -4765,34 +4809,34 @@
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -4811,22 +4855,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -4845,20 +4889,20 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -4877,22 +4921,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -4911,22 +4955,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -4945,19 +4989,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -4980,56 +5024,56 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="R35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="S35"/>
       <c r="T35" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="U35" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="V35"/>
     </row>
@@ -5038,41 +5082,41 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C36" t="n">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="U36"/>
       <c r="V36"/>
@@ -5082,58 +5126,58 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C37" t="n">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O37" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="R37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S37"/>
       <c r="T37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="V37"/>
     </row>
@@ -5142,47 +5186,47 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C38" t="n">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" t="s">
         <v>133</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" t="s">
         <v>134</v>
-      </c>
-      <c r="G38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" t="s">
-        <v>130</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="U38"/>
       <c r="V38"/>
@@ -5192,52 +5236,52 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="U39" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="V39"/>
     </row>
@@ -5246,32 +5290,32 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C40" t="n">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -5288,29 +5332,29 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C41" t="n">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5319,12 +5363,12 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -5334,42 +5378,42 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C42" t="n">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
@@ -5382,42 +5426,42 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C43" t="n">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
@@ -5430,54 +5474,54 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C44" t="n">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O44" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S44"/>
       <c r="T44" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="U44" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="V44"/>
     </row>
@@ -5486,42 +5530,42 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C45" t="n">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F45" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
@@ -5534,63 +5578,63 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C46" t="n">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J46" t="s">
+        <v>359</v>
+      </c>
+      <c r="K46" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="s">
+        <v>361</v>
+      </c>
+      <c r="N46" t="s">
         <v>362</v>
       </c>
-      <c r="K46" t="s">
+      <c r="O46" t="s">
         <v>351</v>
-      </c>
-      <c r="L46" t="s">
-        <v>363</v>
-      </c>
-      <c r="M46" t="s">
-        <v>364</v>
-      </c>
-      <c r="N46" t="s">
-        <v>365</v>
-      </c>
-      <c r="O46" t="s">
-        <v>354</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S46" t="n">
         <v>88</v>
       </c>
       <c r="T46" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="U46" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="V46" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47">
@@ -5598,34 +5642,34 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C47" t="n">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -5634,10 +5678,10 @@
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="U47" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="V47"/>
     </row>
@@ -5646,34 +5690,34 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C48" t="n">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G48" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5682,10 +5726,10 @@
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="U48" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="V48"/>
     </row>
@@ -5694,58 +5738,58 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C49" t="n">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s">
+        <v>181</v>
+      </c>
+      <c r="J49" t="s">
         <v>177</v>
       </c>
-      <c r="J49" t="s">
-        <v>173</v>
-      </c>
       <c r="K49" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N49" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O49" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P49"/>
       <c r="Q49" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R49" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="U49" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="V49"/>
     </row>
@@ -5754,58 +5798,58 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C50" t="n">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K50" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N50" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O50" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S50"/>
       <c r="T50" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U50" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="V50"/>
     </row>
@@ -5814,56 +5858,56 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C51" t="n">
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F51" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G51" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J51" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K51" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S51"/>
       <c r="T51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="U51" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="V51"/>
     </row>
@@ -5872,52 +5916,52 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C52" t="n">
         <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N52"/>
       <c r="O52" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S52"/>
       <c r="T52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="U52" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="V52"/>
     </row>
@@ -5926,52 +5970,52 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C53" t="n">
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S53"/>
       <c r="T53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="U53" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="V53"/>
     </row>
@@ -5980,44 +6024,44 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C54" t="n">
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G54" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K54" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="R54"/>
       <c r="S54"/>
@@ -6030,52 +6074,52 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C55" t="n">
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F55" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J55" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K55" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L55"/>
       <c r="M55" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U55" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V55"/>
     </row>
@@ -6084,48 +6128,48 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C56" t="n">
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I56" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="U56" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V56"/>
     </row>
@@ -6134,38 +6178,38 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C57" t="n">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R57"/>
       <c r="S57"/>
@@ -6178,19 +6222,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C58" t="n">
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F58" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -6207,7 +6251,7 @@
       <c r="S58"/>
       <c r="T58"/>
       <c r="U58" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="V58"/>
     </row>
@@ -6216,30 +6260,30 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C59" t="n">
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -6247,15 +6291,15 @@
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="R59"/>
       <c r="S59"/>
       <c r="T59" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="U59" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="V59"/>
     </row>
@@ -6264,38 +6308,38 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C60" t="n">
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I60" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
@@ -6308,38 +6352,38 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C61" t="n">
         <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R61"/>
       <c r="S61"/>
@@ -6352,40 +6396,40 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C62" t="n">
         <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G62" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="R62"/>
       <c r="S62"/>
@@ -6398,34 +6442,34 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C63" t="n">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G63" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6435,7 +6479,7 @@
       <c r="S63"/>
       <c r="T63"/>
       <c r="U63" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="V63"/>
     </row>
@@ -6444,38 +6488,38 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C64" t="n">
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I64" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="R64"/>
       <c r="S64"/>
@@ -6488,30 +6532,30 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F65" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
